--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evan Su\Documents\GitHub\FinetuneLLM-NLP-Quiz\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8623CB40-A1F3-4180-AD31-78A746BBAB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEBF55C-9A18-4188-AF3A-FA386BA5A179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{18726F21-B83D-40FF-84A4-04DF132C406D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="925">
   <si>
     <t>case_id</t>
   </si>
@@ -2805,6 +2805,9 @@
   </si>
   <si>
     <t>atherosclerosis, thyroid nodule, liver cirrhosis, splenic lesion</t>
+  </si>
+  <si>
+    <t>Mean</t>
   </si>
 </sst>
 </file>
@@ -3306,7 +3309,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3316,9 +3319,6 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3695,10 +3695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F06E16-AE66-4B2E-A391-8EE15FF228E5}">
-  <dimension ref="A1:K245"/>
+  <dimension ref="A1:K246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C228" workbookViewId="0">
-      <selection activeCell="K244" sqref="K244"/>
+    <sheetView tabSelected="1" topLeftCell="C218" workbookViewId="0">
+      <selection activeCell="J248" sqref="J248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11549,10 +11549,39 @@
       </c>
     </row>
     <row r="245" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E245" s="6"/>
-      <c r="F245" s="6"/>
+      <c r="E245" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="I245" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="J245" s="5" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="246" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E246" s="4">
+        <f>AVERAGE(E2:E237)</f>
+        <v>0.74288041415301853</v>
+      </c>
+      <c r="F246" s="4">
+        <f>AVERAGE(F2:F237)</f>
+        <v>0.74998102077809881</v>
+      </c>
+      <c r="I246" s="4">
+        <f>AVERAGE(I2:I237)</f>
+        <v>0.75036623501613464</v>
+      </c>
+      <c r="J246" s="4">
+        <f>AVERAGE(J2:J237)</f>
+        <v>0.76671821424095643</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evan Su\Documents\GitHub\FinetuneLLM-NLP-Quiz\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEBF55C-9A18-4188-AF3A-FA386BA5A179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F29B63-1EDF-4689-B6EC-000DCA8CFE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{18726F21-B83D-40FF-84A4-04DF132C406D}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{18726F21-B83D-40FF-84A4-04DF132C406D}"/>
   </bookViews>
   <sheets>
     <sheet name="combined" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="925">
   <si>
     <t>case_id</t>
   </si>
@@ -1829,27 +1829,12 @@
     <t>&gt;= 0.85</t>
   </si>
   <si>
-    <t>intestinal wall thickening, hepatic cyst, renal calculus</t>
-  </si>
-  <si>
-    <t>renal cyst, aortic calcification, aortic aneurysm</t>
-  </si>
-  <si>
-    <t>renal calcification, adrenal hyperplasia, rectal mass</t>
-  </si>
-  <si>
-    <t>hepatocellular carcinoma, portal vein tumor thrombus, adrenal hyperplasia</t>
-  </si>
-  <si>
     <t>nothink_ft_qwen3_4b_output</t>
   </si>
   <si>
     <t>nothink_ft_qwen3_4b_scores</t>
   </si>
   <si>
-    <t>hepatic cyst, renal calcification</t>
-  </si>
-  <si>
     <t>renal cyst, renal calculus</t>
   </si>
   <si>
@@ -1868,946 +1853,961 @@
     <t>renal cyst, ascites</t>
   </si>
   <si>
-    <t>liver calcification, splenomegaly, mesenteric lymphadenopathy</t>
-  </si>
-  <si>
-    <t>renal cyst, adrenal hyperplasia, liver cyst, ascites</t>
-  </si>
-  <si>
-    <t>hepatic cyst, liver calcification</t>
-  </si>
-  <si>
-    <t>renal cyst, pancreatic cyst</t>
-  </si>
-  <si>
     <t>adrenal calcification, renal cyst</t>
   </si>
   <si>
-    <t>renal calculi, renal pelvis dilation</t>
-  </si>
-  <si>
-    <t>renal cyst, appendiceal thickening, liver calcification</t>
-  </si>
-  <si>
     <t>fatty liver</t>
   </si>
   <si>
-    <t>aortic calcification, iliac artery calcification</t>
-  </si>
-  <si>
-    <t>renal cyst, adrenal hyperplasia, adrenal adenoma</t>
-  </si>
-  <si>
-    <t>hepatocellular carcinoma, splenomegaly</t>
-  </si>
-  <si>
-    <t>adrenal calcification, adrenal hyperplasia, renal cyst</t>
-  </si>
-  <si>
-    <t>cholecystitis, choledochal cyst, hepatic cyst</t>
-  </si>
-  <si>
-    <t>aortic dissection, intramural hematoma, aortic stent graft</t>
-  </si>
-  <si>
-    <t>gallbladder polyp, splenic nodules</t>
-  </si>
-  <si>
     <t>hydronephrosis</t>
   </si>
   <si>
     <t>gallbladder stone, renal cyst</t>
   </si>
   <si>
-    <t>hepatic cysts, adrenal hyperplasia</t>
-  </si>
-  <si>
-    <t>aortic dilation</t>
-  </si>
-  <si>
-    <t>&gt;= 0.65</t>
-  </si>
-  <si>
-    <t>splenic mass, liver lesion</t>
-  </si>
-  <si>
-    <t>liver cyst, renal cyst, pancreatic calcification</t>
-  </si>
-  <si>
-    <t>liver calcification, gallbladder calcification</t>
-  </si>
-  <si>
-    <t>gastrointestinal foreign body, pancreatic foreign body, bile duct gas, gallbladder calculus, retroperitoneal nodules, mesenteric mass, right adrenal nodule, left adrenal hyperplasia</t>
-  </si>
-  <si>
-    <t>liver cyst, liver calcification, hepatic mass, ascites</t>
-  </si>
-  <si>
-    <t>renal cyst, hepatic hemangioma</t>
-  </si>
-  <si>
-    <t>splenomegaly, gallbladder calcification, renal cyst, portal lymphadenopathy</t>
-  </si>
-  <si>
-    <t>liver density reduction, renal collecting system density increase</t>
-  </si>
-  <si>
-    <t>hepatic malignancy, spleen nodules</t>
-  </si>
-  <si>
-    <t>liver cyst, splenic nodule, renal calcification, left renal mass</t>
-  </si>
-  <si>
-    <t>renal cyst, ascites, lymphadenopathy, gastric wall thickening</t>
-  </si>
-  <si>
-    <t>metal foreign body, intestinal wall thickening</t>
-  </si>
-  <si>
-    <t>liver mass, gallstones, kidney calcification</t>
-  </si>
-  <si>
-    <t>ileocecal fistula, intestinal perforation, ileocecal wall thickening, subcutaneous emphysema</t>
-  </si>
-  <si>
-    <t>liver cyst, renal cyst, renal calculi</t>
-  </si>
-  <si>
-    <t>ascites, mesenteric vascular thickening, lymph node hyperplasia, bile duct density abnormality, splenomegaly, adrenal hyperplasia, adrenal nodule</t>
-  </si>
-  <si>
-    <t>common bile duct dilation, splenomegaly, adrenal hyperplasia</t>
-  </si>
-  <si>
-    <t>hepatic cyst, focal nodular hyperplasia, renal cyst</t>
-  </si>
-  <si>
-    <t>pancreatic head exudation, gallbladder fossa density, postoperative colon cancer</t>
-  </si>
-  <si>
-    <t>gastric wall thickening, hepatic cyst, gallbladder polyp, renal cyst</t>
-  </si>
-  <si>
-    <t>pancreatic head enlargement, pancreatic duct dilation, pancreatic atrophy, gallbladder enlargement, renal cyst</t>
-  </si>
-  <si>
-    <t>adrenal nodules, renal cyst, liver cyst, liver hemangioma</t>
-  </si>
-  <si>
-    <t>thyroid cyst, adrenal hyperplasia, gallbladder wall thickening, renal cyst, aortic calcification</t>
-  </si>
-  <si>
-    <t>ascites, cirrhosis, cholecystitis, splenomegaly, renal calculi, crohns disease</t>
-  </si>
-  <si>
-    <t>hepatic cyst, renal cyst, fatty nodule, ascites</t>
-  </si>
-  <si>
-    <t>liver mass, hepatic nodules, bile duct dilation, enlarged lymph nodes, adrenal nodules</t>
-  </si>
-  <si>
-    <t>hepatic nodules, subcapsular hepatic nodule</t>
-  </si>
-  <si>
-    <t>rectal polyp, gallbladder polyp, splenic cyst, ovarian cyst, renal cyst</t>
-  </si>
-  <si>
-    <t>adrenal calcification, adrenal adenoma, adrenal hyperplasia, renal myelolipoma</t>
-  </si>
-  <si>
-    <t>pancreatic mass, renal cyst</t>
-  </si>
-  <si>
-    <t>ureteral calculus, ureteral thickening</t>
-  </si>
-  <si>
-    <t>small intestinal dilation, intestinal gas accumulation, mesenteric fat stranding</t>
-  </si>
-  <si>
-    <t>retroperitoneal mass, calcification, superior mesenteric artery compression</t>
-  </si>
-  <si>
-    <t>esophagogastric junction cancer, transverse colon thickening, hepatic nodules, gallbladder mass, liver parenchyma nodules</t>
-  </si>
-  <si>
-    <t>ureteral calculus, renal calculi, splenic nodule</t>
-  </si>
-  <si>
-    <t>colitis, ischemic colitis</t>
-  </si>
-  <si>
-    <t>rectal mass, liver hypoenhancement, aortic wall lesion, adrenal nodule, renal cyst</t>
-  </si>
-  <si>
-    <t>renal cell carcinoma, renal mass</t>
-  </si>
-  <si>
-    <t>hepatic cyst, ascites, splenomegaly, portal vein thrombosis, hepatic mass, splenic hematoma</t>
-  </si>
-  <si>
-    <t>rectal cancer, lymphadenopathy, liver metastasis</t>
-  </si>
-  <si>
-    <t>portal hypertension, splenomegaly, ascites, choledocholithiasis, gallstones, splenorenal shunt</t>
-  </si>
-  <si>
-    <t>surgical site fistula, surgical site calcification</t>
-  </si>
-  <si>
-    <t>ureteral calculus, hydronephrosis, renal calculus</t>
-  </si>
-  <si>
-    <t>mesenteric calcification, colonic calcification</t>
-  </si>
-  <si>
-    <t>renal calculi, renal cyst, adrenal cyst</t>
-  </si>
-  <si>
-    <t>choledocholithiasis, renal calculi, adrenal hyperplasia</t>
-  </si>
-  <si>
-    <t>hepatic calcification, hepatic cyst, renal calculus, ureteral calculus</t>
-  </si>
-  <si>
-    <t>hepatic cyst, hepatic calcification, renal cyst</t>
-  </si>
-  <si>
-    <t>splenic nodule, liver parenchymal density decrease</t>
-  </si>
-  <si>
-    <t>colonic wall thickening, hepatic metastases, renal cyst</t>
-  </si>
-  <si>
-    <t>renal cyst, adrenal hyperplasia, adrenal mass</t>
-  </si>
-  <si>
-    <t>splenomegaly, colitis, appendicitis, mesenteric lymphadenopathy</t>
-  </si>
-  <si>
-    <t>adrenal calcification, splenic calcification, retroperitoneal calcification, free fluid abdomen, omentum thickening, abdominal wall nodule</t>
-  </si>
-  <si>
-    <t>renal cyst, gallbladder stones, splenic nodule, colonic wall thickening</t>
-  </si>
-  <si>
-    <t>hepatic cyst, hepatic lesion</t>
-  </si>
-  <si>
-    <t>gallbladder calculi</t>
-  </si>
-  <si>
     <t>renal cyst, hepatic cyst, splenomegaly</t>
   </si>
   <si>
-    <t>hepatic hemangioma, renal cyst, adrenal hyperplasia</t>
-  </si>
-  <si>
-    <t>liver lesion, adrenal hyperplasia, adrenal calcification, pancreatic calcification</t>
-  </si>
-  <si>
-    <t>renal cyst, gallbladder calcification</t>
-  </si>
-  <si>
-    <t>liver cyst, renal calculus</t>
-  </si>
-  <si>
-    <t>hepatic cyst, renal cyst, renal calculus, gallstone</t>
-  </si>
-  <si>
-    <t>ureteral dilation, renal pelvis dilation, renal atrophy</t>
-  </si>
-  <si>
-    <t>calcification, fat stranding</t>
-  </si>
-  <si>
-    <t>free air, renal cyst, renal calcification, pancreatic inflammation, retroperitoneal lymphadenopathy, mesenteric lymphadenopathy</t>
-  </si>
-  <si>
-    <t>dilated abdominal aorta, aortic wall calcification, adrenal hyperplasia</t>
-  </si>
-  <si>
-    <t>renal cell carcinoma, adrenal adenoma</t>
-  </si>
-  <si>
-    <t>hepatic cyst, gallbladder wall thickening, renal calcification, free air, intestinal wall thickening, mesenteric lymphadenopathy</t>
-  </si>
-  <si>
-    <t>thyroid cyst, hepatic cyst, liver calcification, gallstones, gastric calcification</t>
-  </si>
-  <si>
-    <t>renal atrophy, renal cyst, adrenal thickening, liver fat infiltration</t>
-  </si>
-  <si>
-    <t>ascites, hepatic cyst, adrenal hyperplasia, adrenal nodule</t>
-  </si>
-  <si>
-    <t>liver mass, lymphadenopathy, splenomegaly, renal cyst</t>
-  </si>
-  <si>
-    <t>liver mass, liver nodules</t>
-  </si>
-  <si>
-    <t>hepatic cyst, abdominal gas</t>
-  </si>
-  <si>
-    <t>gastric antral thickening, hepatic cyst, splenic nodule</t>
-  </si>
-  <si>
-    <t>gallstone, splenic nodules</t>
-  </si>
-  <si>
-    <t>gallbladder polyps, splenic calcification, adrenal hyperplasia, renal cyst, renal calcification</t>
-  </si>
-  <si>
-    <t>liver parenchymal density decrease, gallbladder effusion, gallbladder enlargement, pancreatic head enlargement, adrenal thickening, retroperitoneal lymphadenopathy, intra-abdominal lymphadenopathy, pancreatic cyst</t>
-  </si>
-  <si>
-    <t>liver lesion, splenomegaly</t>
-  </si>
-  <si>
     <t>ileal thickening, mesenteric lymphadenopathy</t>
   </si>
   <si>
-    <t>hepatic abscess, biliary obstruction, biliary fistula</t>
-  </si>
-  <si>
-    <t>adrenal nodule, liver nodule, adrenal thickening</t>
-  </si>
-  <si>
     <t>liver lesion, adrenal hyperplasia</t>
   </si>
   <si>
-    <t>sigmoid colon mass, arterial calcification, liver parenchyma density decrease</t>
-  </si>
-  <si>
-    <t>renal calculus, adrenal hyperplasia, splenomegaly</t>
-  </si>
-  <si>
-    <t>hepatic abscess, hepatic cyst</t>
-  </si>
-  <si>
-    <t>hepatocellular carcinoma, metastatic cancer</t>
-  </si>
-  <si>
-    <t>hepatic cyst, retroperitoneal lymphadenopathy, ascites, pneumoperitoneum, abdominal wall soft tissue swelling</t>
-  </si>
-  <si>
-    <t>hepatic nodules, gallbladder calcification, renal pelvis dilation, ureteral dilation, ascites, intestinal thickening, abdominal mass, splenomegaly, renal cyst</t>
-  </si>
-  <si>
-    <t>renal calculi, renal cysts</t>
-  </si>
-  <si>
-    <t>liver density abnormality, small bowel obstruction</t>
-  </si>
-  <si>
-    <t>hepatic cyst, renal cyst, ureteral calculus, renal calcification</t>
-  </si>
-  <si>
-    <t>renal cyst, ureteral calculus, adrenal hyperplasia, hepatic cysts</t>
-  </si>
-  <si>
-    <t>liver calcification, splenic calcification, intestinal dilatation, free fluid in abdominal and pelvic cavities</t>
-  </si>
-  <si>
-    <t>ureteral calculus, hydronephrosis, renal parenchymal calcification, perirenal fat haze</t>
-  </si>
-  <si>
-    <t>adrenal calcification</t>
-  </si>
-  <si>
-    <t>liver cyst, renal cyst, adrenal hyperplasia</t>
-  </si>
-  <si>
-    <t>renal pelvis dilation, ureter dilation</t>
-  </si>
-  <si>
-    <t>renal pelvis calyx dilation, ureteral dilation</t>
-  </si>
-  <si>
-    <t>gastrointestinal perforation, liver cyst</t>
-  </si>
-  <si>
-    <t>renal calculi, renal cyst, liver calcification, ascites</t>
-  </si>
-  <si>
-    <t>liver lesion, renal cyst</t>
-  </si>
-  <si>
-    <t>acute pancreatitis, peripancreatic fat stranding, ascites</t>
-  </si>
-  <si>
-    <t>renal calcification, hepatic cyst, periaortic lymphadenopathy</t>
-  </si>
-  <si>
-    <t>ileocecal wall thickening, ascending colon wall thickening</t>
-  </si>
-  <si>
-    <t>renal cyst, renal calcification, renal calculi, hepatic steatosis</t>
-  </si>
-  <si>
-    <t>bile duct mass, liver lesion, adrenal adenoma</t>
-  </si>
-  <si>
-    <t>hepatic cyst, renal cyst, hydronephrosis, perirenal fluid collection, perirenal fascia thickening</t>
-  </si>
-  <si>
-    <t>hepatic lesion, hepatic calcification, ascites</t>
-  </si>
-  <si>
     <t>duodenal neuroendocrine tumor, hepatic cyst, renal calcification, appendiceal mass</t>
   </si>
   <si>
     <t>bile duct dilation, hepatic cyst</t>
   </si>
   <si>
-    <t>renal mass, adrenal cyst, hepatic cyst, gallstone, perirenal calcification</t>
-  </si>
-  <si>
-    <t>mesenteric fat, bowel wall thickening, enhancement</t>
-  </si>
-  <si>
-    <t>colorectal mass, ileocecal tuberculosis, hepatic hemangioma, gallbladder thickening</t>
-  </si>
-  <si>
-    <t>hepatic hemangioma, simple hepatic cyst, calcified hepatic lesion</t>
-  </si>
-  <si>
-    <t>gallstone disease, cholecystitis, left hepatic duct dilation, liver nodule</t>
-  </si>
-  <si>
-    <t>retroperitoneal lymphadenopathy, hepatogastric ligament lymphadenopathy, hepatic cyst</t>
-  </si>
-  <si>
-    <t>gastric mass, duodenal nodule</t>
-  </si>
-  <si>
-    <t>splenomegaly, retroperitoneal lymphadenopathy, duodenal diverticulum</t>
-  </si>
-  <si>
-    <t>gallbladder calculi, renal cyst</t>
-  </si>
-  <si>
-    <t>liver mass, adrenal mass, renal cyst</t>
-  </si>
-  <si>
-    <t>retroperitoneal mass, pelvic mass, ureteral calculus, gallstones, renal cyst, nodular peritoneal thickening</t>
-  </si>
-  <si>
-    <t>choledocholithiasis, bile duct wall thickening</t>
-  </si>
-  <si>
     <t>hepatic cyst, gallstone</t>
   </si>
   <si>
-    <t>biliary dilation, aortic dilation</t>
-  </si>
-  <si>
-    <t>gallbladder wall thickening, gallbladder sludge</t>
-  </si>
-  <si>
-    <t>liver hypodensity, gallbladder fossa calcification, abdominal artery calcification, iliac artery calcification</t>
-  </si>
-  <si>
-    <t>liver calcification, renal cyst, metal in colon</t>
-  </si>
-  <si>
-    <t>liver density decrease</t>
-  </si>
-  <si>
-    <t>pancreatic thickening, renal fascia thickening, hepatic calcification, renal cyst, retroperitoneal lymphadenopathy</t>
-  </si>
-  <si>
-    <t>ileocecal inflammation, appendiceal obscuration</t>
-  </si>
-  <si>
-    <t>acute cholecystitis, hepatic cyst</t>
-  </si>
-  <si>
-    <t>gallbladder wall thickening, gallbladder calculus, liver density reduction</t>
-  </si>
-  <si>
     <t>gallbladder wall thickening, renal calculus, aortic calcification, iliac artery calcification</t>
   </si>
   <si>
-    <t>liver cyst, portal hypertension, splenomegaly</t>
-  </si>
-  <si>
-    <t>gallbladder enlargement, gallbladder wall irregularity</t>
-  </si>
-  <si>
-    <t>atherosclerosis, thyroid calcification, thyroid nodules, gallstones, splenic cyst</t>
-  </si>
-  <si>
-    <t>hepatic nodule, splenic mass, pancreatic mass</t>
-  </si>
-  <si>
-    <t>renal cyst, hepatic cyst, pancreatic calcification</t>
-  </si>
-  <si>
-    <t>gallbladder wall thickening, colon mass, renal cyst, peritoneal effusion</t>
-  </si>
-  <si>
-    <t>adrenal hyperplasia, adrenal nodule, gallbladder stone, biliary stricture, metastatic disease, lymphadenopathy</t>
-  </si>
-  <si>
-    <t>hepatic cyst, hepatocellular carcinoma, lymphadenopathy</t>
-  </si>
-  <si>
-    <t>hepatic hemangioma, gallbladder stone, enlarged spleen, lymphadenopathy, renal cyst</t>
-  </si>
-  <si>
-    <t>hydronephrosis, liver steatosis</t>
-  </si>
-  <si>
-    <t>hepatic cyst, splenic nodule, renal calcification, renal mass, left renal pelvis dilatation</t>
-  </si>
-  <si>
-    <t>renal cyst, ascites, lymphadenopathy, gastric mucosal thickening</t>
-  </si>
-  <si>
     <t>intestinal wall thickening, foreign body in abdomen</t>
   </si>
   <si>
     <t>hepatic mass, gallbladder calcification, renal calcification</t>
   </si>
   <si>
-    <t>abscess, ileocecal wall thickening, intestinal thickening</t>
-  </si>
-  <si>
-    <t>hepatic cyst, gallbladder wall thickening, renal cyst, renal pelvis and calyceal calcification</t>
-  </si>
-  <si>
-    <t>ascites, mesenteric lymphadenopathy, drainage tube, splenomegaly, adrenal hyperplasia, adrenal nodule, bile duct stone</t>
-  </si>
-  <si>
-    <t>common bile duct dilatation, splenomegaly, gastritis, adrenal hyperplasia</t>
-  </si>
-  <si>
     <t>hepatic calcification, hepatic cyst, splenomegaly, mesenteric lymphadenopathy</t>
   </si>
   <si>
-    <t>colonic mural thickening</t>
-  </si>
-  <si>
-    <t>hepatic cyst, splenic enlargement, renal cyst</t>
-  </si>
-  <si>
-    <t>pancreatic mass, gallbladder stone, postoperative colon cancer changes</t>
-  </si>
-  <si>
-    <t>postgastrectomy gastric wall thickening, hepatic cysts, gallbladder wall nodularity, renal cyst</t>
-  </si>
-  <si>
     <t>adrenal hyperplasia, renal cyst, hepatic cyst</t>
   </si>
   <si>
-    <t>liver atrophy, gallbladder pseudocyst, gallbladder polyp, splenomegaly, renal calculi, intestinal thickening</t>
-  </si>
-  <si>
-    <t>hepatocellular carcinoma, hilar cholangiocarcinoma, adrenal metastases, liver metastasis, biliary obstruction</t>
-  </si>
-  <si>
-    <t>hepatic nodule</t>
-  </si>
-  <si>
-    <t>rectal polyp, gallbladder polyp, spleen cyst, adnexal cyst, renal cyst</t>
-  </si>
-  <si>
-    <t>hepatic cyst, renal calculi, intestinal wall thickening</t>
-  </si>
-  <si>
-    <t>ureteral stone, ureteral thickening, renal pelvis dilation, calyceal dilation</t>
-  </si>
-  <si>
-    <t>small intestinal dilation, mesenteric fat turbidity, intestinal fluid accumulation</t>
-  </si>
-  <si>
-    <t>hepatic cysts, biliary dilatation, adrenal nodule, renal cyst</t>
-  </si>
-  <si>
-    <t>gallbladder wall thickening, hepatic cyst, renal cyst</t>
-  </si>
-  <si>
-    <t>retroperitoneal mass, increased fat density, fuzzy margins</t>
-  </si>
-  <si>
-    <t>renal cyst, aortic aneurysm, aortic calcification</t>
-  </si>
-  <si>
-    <t>hepatic cyst, hepatic nodule, renal calcification, renal pelvis stone</t>
-  </si>
-  <si>
-    <t>esophageal cancer recurrence, colorectal cancer, hepatic metastasis, gallbladder mass</t>
-  </si>
-  <si>
-    <t>Postoperative changes of ascending colon cancer, liver metastasis, portal vein tumor thrombus, intrahepatic bile duct dilation</t>
-  </si>
-  <si>
-    <t>ureteral stone, renal calculus, splenic nodule</t>
-  </si>
-  <si>
-    <t>colonic wall thickening, inflammatory bowel disease</t>
-  </si>
-  <si>
-    <t>rectal tumor, focal liver lesion, adrenal adenoma, renal cyst, aortic atherosclerosis</t>
-  </si>
-  <si>
-    <t>renal mass, renal cell carcinoma</t>
-  </si>
-  <si>
-    <t>postoperative changes, hepatic cyst, splenic enlargement, splenic calcification, portal vein filling defect, ascites</t>
-  </si>
-  <si>
-    <t>rectal cancer, colorectal cancer metastasis, hepatic metastasis</t>
-  </si>
-  <si>
-    <t>cirrhosis, splenomegaly, portal hypertension, hepatic cyst, primary sclerosing cholangitis</t>
-  </si>
-  <si>
-    <t>cholecystitis, gallstone, renal nodule, appendicitis</t>
-  </si>
-  <si>
-    <t>fistula</t>
-  </si>
-  <si>
-    <t>ureteral stone, hydronephrosis, perirenal fat stranding, renal pelvis calcification</t>
-  </si>
-  <si>
-    <t>renal cyst, adrenal hyperplasia, renal hydronephrosis, pelvic calcification</t>
-  </si>
-  <si>
-    <t>bile duct dilatation, adrenal hyperplasia, renal pelvis calcification, renal calcification</t>
-  </si>
-  <si>
-    <t>hepatic parenchymal abnormalities, renal calculus, ureteral calculus, pancreatic duct dilation</t>
-  </si>
-  <si>
-    <t>gastric mucosal thickening, ileal wall thickening, hepatic cyst, hepatic calcification, renal cyst</t>
-  </si>
-  <si>
-    <t>colonic diverticulosis</t>
-  </si>
-  <si>
-    <t>liver cirrhosis, splenic nodule, gastritis</t>
-  </si>
-  <si>
-    <t>renal calcifications, adrenal hyperplasia, rectal mass</t>
-  </si>
-  <si>
-    <t>colonic recurrence, liver metastases, renal cyst</t>
-  </si>
-  <si>
-    <t>adrenal hyperplasia, adrenal mass, renal cysts</t>
-  </si>
-  <si>
-    <t>splenomegaly, colonic thickening, mesenteric lymphadenopathy, appendiceal thickening</t>
-  </si>
-  <si>
-    <t>adrenal calcification, splenic calcification, retroperitoneal calcification</t>
-  </si>
-  <si>
-    <t>splenic nodule, gallbladder duct abnormality, renal cyst, colonic wall thickening</t>
-  </si>
-  <si>
-    <t>splenic nodules, gallbladder polyp</t>
-  </si>
-  <si>
-    <t>focal liver lesion, bile duct dilation, spleen enlargement, renal cyst</t>
-  </si>
-  <si>
-    <t>liver cyst, adrenal hyperplasia, splenic nodule, renal cyst</t>
-  </si>
-  <si>
-    <t>hepatic hemangioma, splenomegaly, adrenal hyperplasia</t>
-  </si>
-  <si>
-    <t>renal cyst, splenomegaly, cholelithiasis</t>
-  </si>
-  <si>
-    <t>hepatic cyst, focal nodular hyperplasia, hepatic adenoma, cholesterol gallstone, renal cyst, renal pelvis stone</t>
-  </si>
-  <si>
-    <t>ureteropelvic junction obstruction, left renal hypoplasia, hepatic cyst</t>
-  </si>
-  <si>
-    <t>liver calcification, renal calcification, renal cyst</t>
-  </si>
-  <si>
-    <t>gastrointestinal perforation, pancreatitis, lymphadenopathy, renal cell carcinoma</t>
-  </si>
-  <si>
-    <t>renal pelvis dilation, renal stone, renal cyst</t>
-  </si>
-  <si>
     <t>splenomegaly, hepatic cyst</t>
   </si>
   <si>
-    <t>cholecystitis, renal calculi, free intraperitoneal gas, intestinal inflammation</t>
-  </si>
-  <si>
-    <t>thyroid cyst, hepatic cyst, adrenal hyperplasia, gallbladder calculus</t>
-  </si>
-  <si>
     <t>renal cyst, splenic nodule, adrenal nodule, pneumoperitoneum</t>
   </si>
   <si>
-    <t>renal cyst, adrenal hyperplasia, liver cirrhosis, renal pelvis dilation</t>
-  </si>
-  <si>
-    <t>renal cyst, hepatic cyst, renal calcification</t>
-  </si>
-  <si>
-    <t>hepatic cyst, hepatic nodule, adrenal hyperplasia, adrenal nodule</t>
-  </si>
-  <si>
-    <t>hepatic mass, hepatic cyst, lymphadenopathy, splenomegaly, renal cyst</t>
-  </si>
-  <si>
-    <t>hepatocellular carcinoma, hepatic masses, liver metastases</t>
-  </si>
-  <si>
-    <t>hepatic lesion, ascites</t>
-  </si>
-  <si>
-    <t>postoperative liver changes, gas in the abdominal cavity</t>
-  </si>
-  <si>
-    <t>renal cell carcinoma, adrenal hyperplasia, hepatocellular carcinoma, ascites</t>
-  </si>
-  <si>
-    <t>gastritis, hepatic cyst, splenic nodule</t>
-  </si>
-  <si>
-    <t>gallbladder polyp, adrenal hyperplasia, adrenal calcification, renal cyst</t>
-  </si>
-  <si>
-    <t>hepatocellular adenoma</t>
-  </si>
-  <si>
-    <t>adrenal hyperplasia, enlarged gallbladder, lymphadenopathy</t>
-  </si>
-  <si>
-    <t>enlarged spleen</t>
-  </si>
-  <si>
-    <t>liver abscess, bile duct dilation, common bile duct dilation</t>
-  </si>
-  <si>
-    <t>adrenal nodule, adrenal hyperplasia, hepatic nodule</t>
-  </si>
-  <si>
-    <t>adrenal hyperplasia, hepatic lesion</t>
-  </si>
-  <si>
-    <t>pancreatic cyst, renal cyst, pancreatic duct dilation</t>
-  </si>
-  <si>
-    <t>colorectal mass, atherosclerosis</t>
-  </si>
-  <si>
-    <t>adrenal hyperplasia, renal calculus, splenomegaly</t>
-  </si>
-  <si>
-    <t>focal liver lesions, splenomegaly</t>
-  </si>
-  <si>
-    <t>hepatic abscess</t>
-  </si>
-  <si>
-    <t>hepatocellular carcinoma, splenomegaly, ascites, lymphadenopathy</t>
-  </si>
-  <si>
-    <t>hepatic cysts, lymphadenopathy</t>
-  </si>
-  <si>
-    <t>liver metastases, hepatocellular carcinoma, gallbladder cancer, splenomegaly, ascites, hydronephrosis, renal cell carcinoma, pelvic metastases, renal cyst</t>
-  </si>
-  <si>
-    <t>splenic enlargement, splenic nodules, renal cyst</t>
-  </si>
-  <si>
-    <t>hepatic cysts, renal calcifications</t>
-  </si>
-  <si>
-    <t>ureteral stone, hydronephrosis, renal calcification, calyceal calcification</t>
-  </si>
-  <si>
-    <t>enlarged spleen, renal calculi</t>
-  </si>
-  <si>
-    <t>renal cyst, ureteral calculi, hydronephrosis, renal calcification, chronic pyelonephritis</t>
-  </si>
-  <si>
-    <t>liver parenchymal abnormality, intestinal obstruction</t>
-  </si>
-  <si>
-    <t>hepatic nodularity</t>
-  </si>
-  <si>
-    <t>hepatic cyst, renal cyst, kidney stone</t>
-  </si>
-  <si>
-    <t>right pyelonephritis, adrenal hyperplasia, liver lesions</t>
-  </si>
-  <si>
-    <t>liver cirrhosis, liver calcification, splenic nodules, intestinal dilatation, free fluid in abdomen</t>
-  </si>
-  <si>
-    <t>ureteral stone, hydronephrosis, renal pelvis calcification, renal parenchyma calcification</t>
-  </si>
-  <si>
     <t>renal calculus, renal pelvis dilation</t>
   </si>
   <si>
-    <t>renal cyst, aortic calcification, intestinal leakage</t>
-  </si>
-  <si>
-    <t>hepatic cyst, gallbladder polyps, renal cyst, adrenal hyperplasia</t>
-  </si>
-  <si>
-    <t>aortic dissection, aortic calcification, aortic tortuosity</t>
-  </si>
-  <si>
-    <t>ureteral dilation, ureteral stone</t>
-  </si>
-  <si>
-    <t>renal cyst, appendicitis, hepatic cyst</t>
-  </si>
-  <si>
-    <t>bladder calculus, hydronephrosis of right kidney</t>
-  </si>
-  <si>
-    <t>free gas in abdomen, gastrointestinal perforation, liver abscess</t>
-  </si>
-  <si>
-    <t>liver lesion, splenic nodule, renal calcification</t>
-  </si>
-  <si>
-    <t>ascites, intestinal abnormality, perirenal fat plane abnormality, liver lesion, renal parenchymal lesion, renal calyceal lesion</t>
-  </si>
-  <si>
-    <t>hepatic cyst, renal cyst, renal nodule, gallbladder wall thickening</t>
-  </si>
-  <si>
-    <t>hepatic metastasis, intestinal obstruction</t>
-  </si>
-  <si>
-    <t>postoperative gallbladder</t>
-  </si>
-  <si>
-    <t>hepatocellular carcinoma, hepatic cyst</t>
-  </si>
-  <si>
-    <t>acute pancreatitis, pancreatic fibrosis</t>
-  </si>
-  <si>
-    <t>aortic pseudo-tumor, focal nodular hyperplasia, renal calcification, intestinal gas accumulation</t>
-  </si>
-  <si>
-    <t>renal cyst, renal pelvis compression</t>
-  </si>
-  <si>
-    <t>renal cyst, renal calculi, liver metastasis</t>
-  </si>
-  <si>
-    <t>bile duct mass, cholecystitis, hepatic cyst, adrenal adenoma, pancreatic atrophy</t>
-  </si>
-  <si>
-    <t>hepatic lesion, renal cyst, renal pelvis dilation, chronic pyelonephritis, perirenal fluid collection</t>
-  </si>
-  <si>
-    <t>hepatocellular carcinoma, focal liver calcification</t>
-  </si>
-  <si>
-    <t>duodenal tumor, hepatic cyst, cirrhosis, renal cell carcinoma, appendiceal mass</t>
-  </si>
-  <si>
-    <t>liver cyst, mild intrahepatic bile duct dilation</t>
-  </si>
-  <si>
-    <t>renal mass, adrenal adenoma, hepatocellular carcinoma, gallstones</t>
-  </si>
-  <si>
-    <t>femoral hernia</t>
-  </si>
-  <si>
-    <t>colon cancer, lymph node enlargement, hepatocellular carcinoma, cholecystitis</t>
-  </si>
-  <si>
-    <t>hepatocellular carcinoma, liver cyst, focal nodular hyperplasia</t>
-  </si>
-  <si>
-    <t>cholecystitis, hepatic nodule, biliary duct dilation</t>
-  </si>
-  <si>
-    <t>gastric tumor, duodenal tumor</t>
-  </si>
-  <si>
-    <t>liver lobe disproportion, liver fissure widening, liver margin irregularity, enlarged spleen, gallbladder wall thickening, duodenal diverticulum, retroperitoneal lymphadenopathy</t>
-  </si>
-  <si>
-    <t>hepatic cyst, renal cyst, gallbladder polyps, cholecystitis</t>
-  </si>
-  <si>
-    <t>hepatocellular carcinoma, adrenal adenoma, renal cyst</t>
-  </si>
-  <si>
-    <t>focal nodular hyperplasia of liver</t>
-  </si>
-  <si>
-    <t>cirrhosis, renal cyst</t>
-  </si>
-  <si>
-    <t>hepatic masses, gallbladder stones, ureteral calculi, renal cyst</t>
-  </si>
-  <si>
-    <t>renal calculus, hepatic nodule</t>
-  </si>
-  <si>
-    <t>liver cirrhosis, renal cyst, renal calcification, ascites</t>
-  </si>
-  <si>
-    <t>bile duct dilation, hepatocellular carcinoma</t>
-  </si>
-  <si>
-    <t>gallbladder polyp, hepatic cyst</t>
-  </si>
-  <si>
-    <t>cholecystitis, gallstone, intrahepatic bile duct dilation</t>
-  </si>
-  <si>
-    <t>gallbladder calculus, arterial calcification</t>
-  </si>
-  <si>
-    <t>liver calcification, renal cyst, colon foreign body</t>
-  </si>
-  <si>
-    <t>renal cyst, aortic calcification, renal calcification</t>
-  </si>
-  <si>
-    <t>pancreatitis, liver fibrosis, renal cyst</t>
-  </si>
-  <si>
-    <t>cholecystitis, gallstone, liver cirrhosis</t>
-  </si>
-  <si>
-    <t>gallbladder wall thickening, renal calyx calcifications, abdominal aortic calcification, iliac artery calcification</t>
-  </si>
-  <si>
-    <t>left ureter calcification, abdominal aortic calcification, iliac artery calcification</t>
-  </si>
-  <si>
-    <t>hepatic cyst, portal vein dilatation, splenomegaly, portal hypertension</t>
-  </si>
-  <si>
     <t>gallbladder enlargement</t>
   </si>
   <si>
-    <t>atherosclerosis, thyroid nodule, liver cirrhosis, splenic lesion</t>
-  </si>
-  <si>
     <t>Mean</t>
+  </si>
+  <si>
+    <t>hydronephrosis, ureteral stone</t>
+  </si>
+  <si>
+    <t>hepatic lesion, adrenal hyperplasia, adrenal nodule</t>
+  </si>
+  <si>
+    <t>renal cell carcinoma, adrenal hyperplasia, hepatic cyst, ascites</t>
+  </si>
+  <si>
+    <t>pancreatic cyst, renal cyst</t>
+  </si>
+  <si>
+    <t>splenomegaly, splenic nodule, renal cyst</t>
+  </si>
+  <si>
+    <t>hepatic lesion, renal cyst, hydronephrosis, chronic pyelonephritis</t>
+  </si>
+  <si>
+    <t>hepatic cyst, lymphadenopathy</t>
+  </si>
+  <si>
+    <t>renal cyst, abdominal aortic calcification</t>
+  </si>
+  <si>
+    <t>renal cyst, adrenal calcification, adrenal hyperplasia</t>
+  </si>
+  <si>
+    <t>intestinal wall thickening, liver cyst, renal calculus</t>
+  </si>
+  <si>
+    <t>hepatic cysts, renal calcification</t>
+  </si>
+  <si>
+    <t>ascites, liver calcification</t>
+  </si>
+  <si>
+    <t>ileocecal thickening, ascending colon thickening</t>
+  </si>
+  <si>
+    <t>hepatic cyst, bile duct dilation</t>
+  </si>
+  <si>
+    <t>colorectal neoplasm, liver metastases, gallbladder wall thickening</t>
+  </si>
+  <si>
+    <t>renal calculus, liver calcification</t>
+  </si>
+  <si>
+    <t>gallbladder wall thickening, liver cyst</t>
+  </si>
+  <si>
+    <t>hepatic cysts, renal cyst, pancreatic calcification, splenic nodules, gastric antral thickening</t>
+  </si>
+  <si>
+    <t>fatty liver, cholecystitis, colorectal cancer, renal cyst, ascites</t>
+  </si>
+  <si>
+    <t>liver calcification, bile duct calcification</t>
+  </si>
+  <si>
+    <t>foreign body, metal foreign body, bile duct stone, gallbladder stone, metastatic lymph nodes, liver portal mass, adrenal hyperplasia, adrenal tumor</t>
+  </si>
+  <si>
+    <t>liver mass, liver metastasis, hepatic cyst, lymphadenopathy, hepatic nodule</t>
+  </si>
+  <si>
+    <t>hepatocellular carcinoma, splenomegaly, gallstone, renal cyst</t>
+  </si>
+  <si>
+    <t>hepatocellular carcinoma, splenomegaly, chronic pyelonephritis</t>
+  </si>
+  <si>
+    <t>renal cell carcinoma, hydronephrosis, renal calcification</t>
+  </si>
+  <si>
+    <t>renal cyst, gastric wall thickening, ascites, lymphadenopathy</t>
+  </si>
+  <si>
+    <t>ileocecal wall thickening, intestinal thickening, postoperative intestinal inflammation</t>
+  </si>
+  <si>
+    <t>hepatic cyst, cholecystitis, renal cyst, renal pelvis calcification</t>
+  </si>
+  <si>
+    <t>ascites, mesenteric lymphadenopathy, drainage tube, gallbladder stone, splenomegaly, adrenal hyperplasia, adrenal nodule, bile duct stone</t>
+  </si>
+  <si>
+    <t>adrenal hyperplasia, splenomegaly, cholecystitis, gastritis</t>
+  </si>
+  <si>
+    <t>hepatic cyst, splenomegaly, chronic pancreatitis, lymphadenopathy</t>
+  </si>
+  <si>
+    <t>colorectal cancer</t>
+  </si>
+  <si>
+    <t>acute pancreatitis, gallstone, postoperative colon cancer changes</t>
+  </si>
+  <si>
+    <t>gastric wall thickening, gallbladder polyp, renal cyst, hepatic cyst</t>
+  </si>
+  <si>
+    <t>cirrhosis, splenomegaly, renal calculi, intestinal thickening</t>
+  </si>
+  <si>
+    <t>intestinal obstruction</t>
+  </si>
+  <si>
+    <t>hepatic cyst, renal cyst, fatty nodule</t>
+  </si>
+  <si>
+    <t>hepatocellular carcinoma, metastatic liver tumor, biliary tract dilatation, adrenal metastasis</t>
+  </si>
+  <si>
+    <t>hepatic nodule, liver metastasis</t>
+  </si>
+  <si>
+    <t>rectal cancer, gallbladder polyp, splenic cyst, ovarian cyst, renal cyst</t>
+  </si>
+  <si>
+    <t>adrenal adenoma, adrenal hyperplasia, renal cyst, adrenal calcification</t>
+  </si>
+  <si>
+    <t>intestinal thickening, liver cyst, renal calculi</t>
+  </si>
+  <si>
+    <t>small bowel obstruction, ileus, mesenteric inflammation</t>
+  </si>
+  <si>
+    <t>gallbladder enlargement, gallbladder wall thickening, gallbladder mucocele, hepatic cyst</t>
+  </si>
+  <si>
+    <t>hepatic cyst, bile duct dilatation, adrenal nodule, renal cyst</t>
+  </si>
+  <si>
+    <t>retroperitoneal tumor</t>
+  </si>
+  <si>
+    <t>renal cyst, aortic calcification, aortic aneurysm, liver calcification</t>
+  </si>
+  <si>
+    <t>hepatic cyst, focal nodular hyperplasia, renal stone, renal pelvis stone</t>
+  </si>
+  <si>
+    <t>esophagogastric junction cancer, colorectal cancer, liver cirrhosis, hepatic adenoma, gallbladder mass</t>
+  </si>
+  <si>
+    <t>ascending colon cancer, liver metastasis, portal vein metastasis</t>
+  </si>
+  <si>
+    <t>ureteral nodule, ureteral dilation, renal calyx calcification, renal parenchymal calcification, splenic nodule</t>
+  </si>
+  <si>
+    <t>colonic thickening, inflammatory bowel disease</t>
+  </si>
+  <si>
+    <t>rectal cancer, focal nodular hyperplasia, adrenal adenoma, renal cell carcinoma, atherosclerosis, ascites</t>
+  </si>
+  <si>
+    <t>aortic dissection, endoleak, intramural hematoma</t>
+  </si>
+  <si>
+    <t>liver metastases, portal vein tumor thrombosis, splenic infarction</t>
+  </si>
+  <si>
+    <t>rectal cancer, hepatocellular carcinoma</t>
+  </si>
+  <si>
+    <t>cirrhosis, splenomegaly, portal hypertension, gallbladder cancer, cholangiocarcinoma, hepatic cyst</t>
+  </si>
+  <si>
+    <t>chronic cholecystitis, gallstone, renal stone, appendicitis</t>
+  </si>
+  <si>
+    <t>fistula, foreign body</t>
+  </si>
+  <si>
+    <t>ureteral stone, hydronephrosis, perirenal fat plane haze, renal pelvis calcification</t>
+  </si>
+  <si>
+    <t>gallbladder enlargement, liver fatty infiltration, fat necrosis, colonic inflammation</t>
+  </si>
+  <si>
+    <t>splenic nodules, renal cyst, renal calcification, pancreatic calcification</t>
+  </si>
+  <si>
+    <t>left renal hypoplasia, renal hydronephrosis, renal calcifications, adrenal hyperplasia, renal cysts, pelvic calcifications</t>
+  </si>
+  <si>
+    <t>bile duct calcification, renal cyst, adrenal hyperplasia, renal pelvis calcification</t>
+  </si>
+  <si>
+    <t>hepatic cyst, hepatocellular adenoma, pancreatic duct dilatation, renal stone, ureteral stone</t>
+  </si>
+  <si>
+    <t>gastritis, liver cyst, liver calcification, kidney cyst</t>
+  </si>
+  <si>
+    <t>splenic nodule, gastritis, liver atrophy</t>
+  </si>
+  <si>
+    <t>renal cyst, adrenal hyperplasia, rectal mass</t>
+  </si>
+  <si>
+    <t>rectal cancer, renal cyst, hepatic cyst</t>
+  </si>
+  <si>
+    <t>focal liver lesion, adrenal mass, renal cyst</t>
+  </si>
+  <si>
+    <t>splenomegaly, bowel thickening, mesenteric lymphadenopathy, appendicitis</t>
+  </si>
+  <si>
+    <t>adrenal calcification, spleen calcification, retroperitoneal calcification, ascites, omentum thickening, abdominal wall nodule</t>
+  </si>
+  <si>
+    <t>renal cyst, splenic nodule, colonic mural thickening, gallbladder duct abnormality</t>
+  </si>
+  <si>
+    <t>gallbladder nodule</t>
+  </si>
+  <si>
+    <t>splenomegaly, renal cyst, bile duct dilation, hepatic lesion</t>
+  </si>
+  <si>
+    <t>liver cyst, adrenal hyperplasia, renal cyst, splenic nodularity, hepatocellular adenoma</t>
+  </si>
+  <si>
+    <t>hepatic cyst, adrenal hyperplasia, splenomegaly</t>
+  </si>
+  <si>
+    <t>liver lesion, adrenal calcification, adrenal hyperplasia</t>
+  </si>
+  <si>
+    <t>liver cirrhosis, splenomegaly, renal cyst, gallstones, chronic pancreatitis</t>
+  </si>
+  <si>
+    <t>hepatic cyst, renal cyst, gallbladder stone, gallbladder wall thickening, renal pelvis calculus</t>
+  </si>
+  <si>
+    <t>gastrointestinal perforation, renal abscess, pyelonephritis</t>
+  </si>
+  <si>
+    <t>renal stone, hydronephrosis, pneumoperitoneum</t>
+  </si>
+  <si>
+    <t>gallbladder polyp, renal calculi, pneumoperitoneum, intestinal obstruction</t>
+  </si>
+  <si>
+    <t>thyroid cyst, liver cyst, gallbladder stones</t>
+  </si>
+  <si>
+    <t>renal cyst, hydronephrosis, adrenal hyperplasia, liver cirrhosis</t>
+  </si>
+  <si>
+    <t>hepatic mass, lymphadenopathy, splenomegaly, renal cyst</t>
+  </si>
+  <si>
+    <t>hepatic mass, hepatocellular carcinoma</t>
+  </si>
+  <si>
+    <t>hepatocellular carcinoma, liver metastasis</t>
+  </si>
+  <si>
+    <t>hepatic cysts, bile duct dilatation, gallbladder atrophy, pancreatic atrophy, renal cysts</t>
+  </si>
+  <si>
+    <t>liver abscess, postoperative liver changes</t>
+  </si>
+  <si>
+    <t>gastritis, liver cyst</t>
+  </si>
+  <si>
+    <t>gallstone, chronic cholecystitis</t>
+  </si>
+  <si>
+    <t>gallbladder polyp, gallbladder wall thickening, splenic calcification, adrenal hyperplasia, renal cyst, renal calcification</t>
+  </si>
+  <si>
+    <t>enlarged gallbladder, adrenal hyperplasia, lymphadenopathy, enlarged pancreatic head, pancreatic mass, gallbladder effusion</t>
+  </si>
+  <si>
+    <t>hepatic cyst, enlarged spleen, chronic pancreatitis</t>
+  </si>
+  <si>
+    <t>ileal thickening, lymphadenopathy</t>
+  </si>
+  <si>
+    <t>liver abscess, bile duct dilation, bile duct obstruction</t>
+  </si>
+  <si>
+    <t>adrenal hyperplasia, adrenal nodule, hepatic nodule</t>
+  </si>
+  <si>
+    <t>hepatic cyst, hepatic abscess, hepatic calcification</t>
+  </si>
+  <si>
+    <t>colorectal mass, atherosclerosis, liver cirrhosis</t>
+  </si>
+  <si>
+    <t>splenomegaly, gallbladder enlargement, adrenal hyperplasia, renal calculus</t>
+  </si>
+  <si>
+    <t>hepatic abscess, hepatic fistula</t>
+  </si>
+  <si>
+    <t>hepatic mass, hepatic hemangioma, spleen enlargement, lymphadenopathy</t>
+  </si>
+  <si>
+    <t>hepatic mass, adrenal hyperplasia</t>
+  </si>
+  <si>
+    <t>liver metastases, hepatocellular carcinoma, gallbladder cancer, hydronephrosis, ascites, bowel obstruction, lymphoma</t>
+  </si>
+  <si>
+    <t>ureteral stone, adrenal calcification, renal calyx calcification</t>
+  </si>
+  <si>
+    <t>spleen enlargement, renal stone</t>
+  </si>
+  <si>
+    <t>hydronephrosis, renal calculi, renal cyst</t>
+  </si>
+  <si>
+    <t>liver cirrhosis, bowel obstruction</t>
+  </si>
+  <si>
+    <t>postoperative changes of gastrointestinal tracts, abdominal fluid and gas, focal liver lesions</t>
+  </si>
+  <si>
+    <t>liver cysts, renal cysts, ureteral stone, renal calyceal calcifications</t>
+  </si>
+  <si>
+    <t>hydronephrosis, ureteral stone, renal pelvis stone, adrenal hyperplasia, liver lesions</t>
+  </si>
+  <si>
+    <t>liver calcification, splenic nodule, intestinal dilatation, ascites, liver metastasis</t>
+  </si>
+  <si>
+    <t>ureteral stone, hydronephrosis, renal pelvis calcification, perirenal fat infiltration, renal parenchymal calcification</t>
+  </si>
+  <si>
+    <t>normal kidney, adrenal calcification</t>
+  </si>
+  <si>
+    <t>renal cyst, intestinal leakage, aortic calcification</t>
+  </si>
+  <si>
+    <t>hepatic cyst, gallbladder polyp, renal cyst, adrenal hyperplasia</t>
+  </si>
+  <si>
+    <t>aortic dissection, aortic calcification, aortic dilation</t>
+  </si>
+  <si>
+    <t>renal pelvis dilation, ureter dilation, ureteral stone</t>
+  </si>
+  <si>
+    <t>renal cyst, appendicitis, hepatocellular adenoma</t>
+  </si>
+  <si>
+    <t>renal pelvis dilation, calyx dilation</t>
+  </si>
+  <si>
+    <t>hydronephrosis, ureteral dilation, bladder stone</t>
+  </si>
+  <si>
+    <t>abdominal perforation, hepatic cyst, peritoneal effusion, peritoneal gas</t>
+  </si>
+  <si>
+    <t>hepatic cyst, renal calcifications, spleen nodule</t>
+  </si>
+  <si>
+    <t>hepatic cyst, gallstones</t>
+  </si>
+  <si>
+    <t>renal cyst, renal calcification, ascites, focal liver lesion, bowel abnormality</t>
+  </si>
+  <si>
+    <t>liver cyst, gallbladder wall thickening, renal cyst, renal nodule</t>
+  </si>
+  <si>
+    <t>focal liver lesions, intestinal obstruction</t>
+  </si>
+  <si>
+    <t>postoperative gallbladder changes</t>
+  </si>
+  <si>
+    <t>hepatic adenoma, hepatic cyst</t>
+  </si>
+  <si>
+    <t>pancreatic inflammation, ascites</t>
+  </si>
+  <si>
+    <t>adrenal hyperplasia, adrenal calcification, hepatocellular adenoma, renal calcification, pneumatosis intestinalis</t>
+  </si>
+  <si>
+    <t>bowel wall thickening</t>
+  </si>
+  <si>
+    <t>renal cyst, renal calculus, liver metastases</t>
+  </si>
+  <si>
+    <t>bile duct mass, cholecystitis, adrenal adenoma, pancreatic atrophy, hepatic cyst</t>
+  </si>
+  <si>
+    <t>hepatocellular carcinoma, liver calcification</t>
+  </si>
+  <si>
+    <t>duodenal schwannoma, liver parenchymal atrophy, hepatic cyst, renal calculi, appendiceal mass</t>
+  </si>
+  <si>
+    <t>renal mass, adrenal hyperplasia, liver mass, gallbladder stones</t>
+  </si>
+  <si>
+    <t>abdominal wall lipoma, intestinal fibroma</t>
+  </si>
+  <si>
+    <t>colorectal cancer, liver metastases, cholecystitis</t>
+  </si>
+  <si>
+    <t>hepatocellular_carcinoma, hepatic_cyst, hepatic_adenoma</t>
+  </si>
+  <si>
+    <t>gallbladder wall thickening, gallbladder calculus, left hepatic duct dilation, liver nodule, pancreatic enlargement</t>
+  </si>
+  <si>
+    <t>liver lobe disproportionality, splenomegaly, gallbladder wall thickening, lymphadenopathy, duodenal diverticulum</t>
+  </si>
+  <si>
+    <t>hepatic cyst, gallstones, renal cyst</t>
+  </si>
+  <si>
+    <t>liver mass, liver calcifications, adrenal hyperplasia, renal cyst</t>
+  </si>
+  <si>
+    <t>gallstone, hepatocellular carcinoma</t>
+  </si>
+  <si>
+    <t>liver atrophy, renal cyst</t>
+  </si>
+  <si>
+    <t>hepatocellular carcinoma, gallstones, ureteral calculi, renal cyst</t>
+  </si>
+  <si>
+    <t>renal nodule, liver nodule</t>
+  </si>
+  <si>
+    <t>renal cyst, renal calcification, liver cirrhosis</t>
+  </si>
+  <si>
+    <t>bile duct stricture, hepatocellular carcinoma, bile duct stone</t>
+  </si>
+  <si>
+    <t>hepatic cyst, adrenal hyperplasia, gallbladder wall thickening</t>
+  </si>
+  <si>
+    <t>acute cholecystitis</t>
+  </si>
+  <si>
+    <t>liver cirrhosis, gallbladder stone, arterial calcification</t>
+  </si>
+  <si>
+    <t>acute pancreatitis, renal cell carcinoma, cirrhosis of the liver</t>
+  </si>
+  <si>
+    <t>cholecystitis, gallbladder stone, liver cirrhosis</t>
+  </si>
+  <si>
+    <t>cholecystitis, renal calyx calcification, aortic calcification, iliac artery calcification</t>
+  </si>
+  <si>
+    <t>ureteral calculus, renal calyx blunting, liver parenchymal density reduction, abdominal aortic calcification, iliac artery calcification</t>
+  </si>
+  <si>
+    <t>portal hypertension, hepatic vein anomaly, splenomegaly</t>
+  </si>
+  <si>
+    <t>gallbladder inflammation</t>
+  </si>
+  <si>
+    <t>atherosclerosis, thyroid nodule, thyroid calcification, gallbladder polyp, liver cirrhosis, splenic cyst</t>
+  </si>
+  <si>
+    <t>liver cyst, pancreatic calcification, renal cyst</t>
+  </si>
+  <si>
+    <t>liver calcification, gallstones</t>
+  </si>
+  <si>
+    <t>metal foreign body, bile duct gas, retroperitoneal lymphadenopathy, adrenal hyperplasia, adrenal nodule</t>
+  </si>
+  <si>
+    <t>liver cyst, liver calcification, liver mass, enlarged lymph nodes</t>
+  </si>
+  <si>
+    <t>hepatic hemangioma, gallbladder stone, splenomegaly, renal cyst</t>
+  </si>
+  <si>
+    <t>liver steatosis, renal collecting system density increase</t>
+  </si>
+  <si>
+    <t>liver cyst, gallbladder calculus</t>
+  </si>
+  <si>
+    <t>liver metastasis, splenic nodules, renal cyst</t>
+  </si>
+  <si>
+    <t>hepatic cyst, renal calculus, splenic nodule</t>
+  </si>
+  <si>
+    <t>renal cyst, gastric lesion</t>
+  </si>
+  <si>
+    <t>foreign body</t>
+  </si>
+  <si>
+    <t>gallstones, renal calcification, liver mass</t>
+  </si>
+  <si>
+    <t>ileocecal thickening, bowel perforation, intestinal obstruction</t>
+  </si>
+  <si>
+    <t>cholelithiasis, splenomegaly, adrenal nodule, choledocholithiasis</t>
+  </si>
+  <si>
+    <t>common bile duct dilation, gallbladder wall thickening, splenomegaly, gastric wall thickening, adrenal hyperplasia</t>
+  </si>
+  <si>
+    <t>ascites, gallstone, acute pancreatitis, postoperative colon cancer</t>
+  </si>
+  <si>
+    <t>gastrectomy changes, liver cyst, gallbladder polyp, renal cyst</t>
+  </si>
+  <si>
+    <t>pancreatic atrophy, biliary duct dilation, gallbladder enlargement, renal cyst</t>
+  </si>
+  <si>
+    <t>thyroid cyst, adrenal hyperplasia, gallbladder wall thickening, renal cyst, abdominal aortic calcification</t>
+  </si>
+  <si>
+    <t>ascites, liver atrophy, gallbladder wall thickening, gallstone, splenomegaly, renal cyst, small intestinal wall thickening</t>
+  </si>
+  <si>
+    <t>liver cyst, renal cyst, renal fatty nodule</t>
+  </si>
+  <si>
+    <t>liver mass, bile duct mass, lymphadenopathy, adrenal nodules</t>
+  </si>
+  <si>
+    <t>hepatic adenoma, hepatic hemangioma</t>
+  </si>
+  <si>
+    <t>rectal cancer, gallstones, splenic mass, adnexal masses, renal masses</t>
+  </si>
+  <si>
+    <t>adrenal calcification, adrenal hyperplasia, renal myelolipoma</t>
+  </si>
+  <si>
+    <t>ureteral calculus</t>
+  </si>
+  <si>
+    <t>small intestinal dilation, mesenteric fat turbidity</t>
+  </si>
+  <si>
+    <t>gallbladder mucocele, liver cyst</t>
+  </si>
+  <si>
+    <t>retroperitoneal mass, adrenal calcification</t>
+  </si>
+  <si>
+    <t>renal cyst, abdominal aortic calcification, abdominal aortic aneurysm</t>
+  </si>
+  <si>
+    <t>hepatic nodule, hepatic cyst, renal calculus</t>
+  </si>
+  <si>
+    <t>esophagogastric junction cancer, colonic neoplasm, hepatic calcification, gallbladder calculi</t>
+  </si>
+  <si>
+    <t>ischemic colitis, Crohn's disease</t>
+  </si>
+  <si>
+    <t>rectal cancer, adrenal adenoma, renal cyst, aortic wall thickening, liver hypoenhancement</t>
+  </si>
+  <si>
+    <t>renal mass</t>
+  </si>
+  <si>
+    <t>iodized oil, liver nodule, liver cyst, splenic lesion, splenic calcification, ascites, portal vein thrombosis</t>
+  </si>
+  <si>
+    <t>rectal cancer, liver metastasis</t>
+  </si>
+  <si>
+    <t>cirrhosis, portal hypertension, splenomegaly, ascites, gallstones, varices, choledocholithiasis</t>
+  </si>
+  <si>
+    <t>gastrointestinal fistula</t>
+  </si>
+  <si>
+    <t>ureteral calculus, hydronephrosis, perinephric inflammation</t>
+  </si>
+  <si>
+    <t>fatty liver, gallstones</t>
+  </si>
+  <si>
+    <t>abdominal mass, gastric wall contact</t>
+  </si>
+  <si>
+    <t>renal calculus, renal cyst, adrenal cyst, pelvic calculus</t>
+  </si>
+  <si>
+    <t>bile duct calculi, renal calculus, adrenal hyperplasia</t>
+  </si>
+  <si>
+    <t>hepatic calcification, hepatic cyst, renal calcification, ureteral calculus</t>
+  </si>
+  <si>
+    <t>liver cyst, hepatic hemangioma, liver calcification, renal cyst</t>
+  </si>
+  <si>
+    <t>fatty liver, splenic nodule, gastric wall thickening</t>
+  </si>
+  <si>
+    <t>renal calcification, adrenal hyperplasia, rectal polyp</t>
+  </si>
+  <si>
+    <t>colonic wall thickening, renal cyst</t>
+  </si>
+  <si>
+    <t>hepatic cyst, adrenal mass, adrenal hyperplasia, renal cyst</t>
+  </si>
+  <si>
+    <t>mesenteric lymphadenopathy, splenomegaly, appendicitis, colitis</t>
+  </si>
+  <si>
+    <t>adrenal calcification, spleen calcification, retroperitoneal calcification</t>
+  </si>
+  <si>
+    <t>splenic cyst, gallbladder stones, renal cyst, colonic wall thickening</t>
+  </si>
+  <si>
+    <t>liver cyst, liver hemangioma</t>
+  </si>
+  <si>
+    <t>gallbladder calcification</t>
+  </si>
+  <si>
+    <t>liver cyst, splenomegaly, renal cyst</t>
+  </si>
+  <si>
+    <t>liver cyst, liver hemangioma, splenic nodule, renal cyst, adrenal hyperplasia</t>
+  </si>
+  <si>
+    <t>adrenal hyperplasia, splenomegaly, gallstones</t>
+  </si>
+  <si>
+    <t>hepatic mass, pancreatic calcification, adrenal hyperplasia, adrenal calcification</t>
+  </si>
+  <si>
+    <t>renal cyst, splenomegaly, gallstones</t>
+  </si>
+  <si>
+    <t>liver cysts, renal cysts</t>
+  </si>
+  <si>
+    <t>liver cyst, renal calculi</t>
+  </si>
+  <si>
+    <t>hepatic cyst, renal cyst, renal calcification, gallbladder calculi</t>
+  </si>
+  <si>
+    <t>renal atrophy, hydronephrosis</t>
+  </si>
+  <si>
+    <t>postoperative hematoma, fat necrosis</t>
+  </si>
+  <si>
+    <t>gastrointestinal perforation, renal cyst, renal calcification</t>
+  </si>
+  <si>
+    <t>aortic calcification, aortic wall thickening, adrenal hyperplasia</t>
+  </si>
+  <si>
+    <t>renal mass, adrenal hyperplasia</t>
+  </si>
+  <si>
+    <t>gallbladder wall thickening, renal calcification, free gas</t>
+  </si>
+  <si>
+    <t>thyroid cyst, hepatic cyst, gallstones</t>
+  </si>
+  <si>
+    <t>renal cyst, hydronephrosis, adrenal hyperplasia, hepatic steatosis</t>
+  </si>
+  <si>
+    <t>ascites, liver lesion, adrenal nodule</t>
+  </si>
+  <si>
+    <t>liver mass, splenomegaly, lymphadenopathy, renal cyst</t>
+  </si>
+  <si>
+    <t>hepatocellular carcinoma, liver mass</t>
+  </si>
+  <si>
+    <t>liver cyst, pneumoperitoneum</t>
+  </si>
+  <si>
+    <t>renal cyst, adrenal hyperplasia, liver mass, ascites</t>
+  </si>
+  <si>
+    <t>gastric wall thickening, liver cyst, splenic nodule</t>
+  </si>
+  <si>
+    <t>gallbladder calculi, gallbladder wall thickening, splenic calcification, adrenal gland enlargement, renal cyst, renal calcification</t>
+  </si>
+  <si>
+    <t>fatty liver, cholecystitis, adrenal hyperplasia, lymphadenopathy, cystic lesion</t>
+  </si>
+  <si>
+    <t>hepatic abscess, biliary obstruction, ascites, retroperitoneal lymphadenopathy</t>
+  </si>
+  <si>
+    <t>adrenal hyperplasia, renal mass, liver nodule</t>
+  </si>
+  <si>
+    <t>renal calculi, adrenal hyperplasia</t>
+  </si>
+  <si>
+    <t>hepatic nodule, splenomegaly</t>
+  </si>
+  <si>
+    <t>liver cyst, bile leak</t>
+  </si>
+  <si>
+    <t>hepatocellular carcinoma, liver metastases, lymphadenopathy</t>
+  </si>
+  <si>
+    <t>hepatic cyst, retroperitoneal lymphadenopathy</t>
+  </si>
+  <si>
+    <t>liver mass, portal vein thrombosis, superior vena cava thrombosis, adrenal thickening</t>
+  </si>
+  <si>
+    <t>renal pelvis dilation, renal cyst, gallbladder calcification, hepatic abscess, ascites, abdominal abscess</t>
+  </si>
+  <si>
+    <t>splenic enlargement, renal cyst</t>
+  </si>
+  <si>
+    <t>renal calcification, renal calculus</t>
+  </si>
+  <si>
+    <t>gallbladder calculus, renal calculus, splenomegaly</t>
+  </si>
+  <si>
+    <t>liver density abnormality, intestinal obstruction</t>
+  </si>
+  <si>
+    <t>renal cyst, adrenal cyst, adrenal calcification</t>
+  </si>
+  <si>
+    <t>renal cyst, ureteral calculus, hepatic cyst</t>
+  </si>
+  <si>
+    <t>adrenal hyperplasia, ureteral calcification, liver cysts</t>
+  </si>
+  <si>
+    <t>liver calcification, ascites, intestinal dilatation</t>
+  </si>
+  <si>
+    <t>ureteral calculus, hydronephrosis</t>
+  </si>
+  <si>
+    <t>renal calculus, ureteral calculus</t>
+  </si>
+  <si>
+    <t>liver cyst, gallstone, renal cyst, adrenal hyperplasia</t>
+  </si>
+  <si>
+    <t>aortic dissection, renal artery involvement, aortic calcification</t>
+  </si>
+  <si>
+    <t>ureteral calculus, renal pelvis dilation</t>
+  </si>
+  <si>
+    <t>renal cyst, appendiceal thickening, liver nodules</t>
+  </si>
+  <si>
+    <t>renal pelvis dilatation</t>
+  </si>
+  <si>
+    <t>bladder calculus, ureteral obstruction, renal pelvis dilation</t>
+  </si>
+  <si>
+    <t>gastrointestinal perforation, pneumoperitoneum</t>
+  </si>
+  <si>
+    <t>liver cyst, spleen nodule, renal calcification</t>
+  </si>
+  <si>
+    <t>liver calcification, liver cyst, renal calcification, renal cyst, ascites</t>
+  </si>
+  <si>
+    <t>gallbladder absence</t>
+  </si>
+  <si>
+    <t>hepatic cyst, hepatocellular carcinoma</t>
+  </si>
+  <si>
+    <t>acute pancreatitis, ascites</t>
+  </si>
+  <si>
+    <t>adrenal hyperplasia, liver cyst, renal calcification</t>
+  </si>
+  <si>
+    <t>renal cyst, renal calculus, liver steatosis</t>
+  </si>
+  <si>
+    <t>common bile duct mass, gallbladder wall thickening, liver cyst, adrenal nodule</t>
+  </si>
+  <si>
+    <t>renal cyst, renal parenchymal disease, perirenal fluid</t>
+  </si>
+  <si>
+    <t>liver calcification, liver mass</t>
+  </si>
+  <si>
+    <t>renal cyst, adrenal cyst, gallstones, liver nodules</t>
+  </si>
+  <si>
+    <t>hepatic mass, simple hepatic cyst, calcified nodule</t>
+  </si>
+  <si>
+    <t>gallbladder calculus, gallbladder wall thickening, liver calcification</t>
+  </si>
+  <si>
+    <t>gastric hemangioma, duodenal hemangioma</t>
+  </si>
+  <si>
+    <t>splenomegaly, duodenal diverticulum, retroperitoneal lymphadenopathy, gallbladder wall thickening</t>
+  </si>
+  <si>
+    <t>liver mass, liver calcification, renal cyst, adrenal mass</t>
+  </si>
+  <si>
+    <t>gallstone, liver lesion</t>
+  </si>
+  <si>
+    <t>hepatic steatosis, renal cyst</t>
+  </si>
+  <si>
+    <t>renal cyst, ureteral calculi, gallbladder stones</t>
+  </si>
+  <si>
+    <t>low liver density</t>
+  </si>
+  <si>
+    <t>bile duct stone, liver hemangioma</t>
+  </si>
+  <si>
+    <t>liver cyst, adrenal hyperplasia, gallbladder wall thickening</t>
+  </si>
+  <si>
+    <t>liver cyst, gallbladder calculi</t>
+  </si>
+  <si>
+    <t>bile duct dilation, abdominal aortic aneurysm</t>
+  </si>
+  <si>
+    <t>gallbladder calculi, gallbladder wall thickening, bile duct dilation</t>
+  </si>
+  <si>
+    <t>liver parenchymal density reduction, abdominal aortic calcification, iliac artery calcification</t>
+  </si>
+  <si>
+    <t>liver calcification, renal cyst, metal foreign body in colon</t>
+  </si>
+  <si>
+    <t>pancreatitis, renal fascia thickening, fatty liver disease, renal cyst, retroperitoneal lymphadenopathy</t>
+  </si>
+  <si>
+    <t>ileocecal inflammation, appendiceal mass</t>
+  </si>
+  <si>
+    <t>gallbladder nodule, fatty liver</t>
+  </si>
+  <si>
+    <t>ureteral calculus, aortic calcification, iliac artery calcification</t>
+  </si>
+  <si>
+    <t>hepatic cyst, portal hypertension, splenomegaly</t>
+  </si>
+  <si>
+    <t>atherosclerosis, thyroid calcification, gallstones, splenic cyst, fatty liver</t>
   </si>
 </sst>
 </file>
@@ -3695,24 +3695,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F06E16-AE66-4B2E-A391-8EE15FF228E5}">
-  <dimension ref="A1:K246"/>
+  <dimension ref="A1:K243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C218" workbookViewId="0">
-      <selection activeCell="J248" sqref="J248"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="J245" sqref="J245"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="22.77734375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="22.88671875" style="4" customWidth="1"/>
-    <col min="7" max="8" width="23.88671875" style="3" customWidth="1"/>
-    <col min="9" max="10" width="23.88671875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.07421875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="23.69140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.69140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.53515625" style="4" customWidth="1"/>
+    <col min="7" max="8" width="24.53515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.53515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="24.765625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="23.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3732,19 +3734,19 @@
         <v>596</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3764,20 +3766,20 @@
         <v>0.99999998013178504</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>620</v>
+        <v>5</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>5</v>
+        <v>634</v>
       </c>
       <c r="I2" s="4">
-        <v>0.91423354546228996</v>
+        <v>0.99999998013178504</v>
       </c>
       <c r="J2" s="4">
         <v>0.99999998013178504</v>
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3797,20 +3799,20 @@
         <v>0.49964179098606099</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>768</v>
+        <v>7</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>631</v>
+        <v>7</v>
       </c>
       <c r="I3" s="4">
         <v>0.49964179098606099</v>
       </c>
       <c r="J3" s="4">
-        <v>0.63273362815380096</v>
+        <v>0.49964179098606099</v>
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3830,20 +3832,20 @@
         <v>0.835554718971252</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>769</v>
+        <v>643</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>632</v>
+        <v>787</v>
       </c>
       <c r="I4" s="4">
-        <v>0.97243748108545902</v>
+        <v>0.82892990112304599</v>
       </c>
       <c r="J4" s="4">
         <v>0.99334528048833204</v>
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3863,20 +3865,20 @@
         <v>0.86689925193786599</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>770</v>
+        <v>644</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="I5" s="4">
-        <v>0.60110529263814205</v>
+        <v>1.0000000397364299</v>
       </c>
       <c r="J5" s="4">
         <v>1</v>
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3896,20 +3898,20 @@
         <v>0.82490241527557295</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>401</v>
+        <v>645</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>633</v>
+        <v>788</v>
       </c>
       <c r="I6" s="4">
-        <v>0.99556875228881803</v>
+        <v>0.76389619708061196</v>
       </c>
       <c r="J6" s="4">
-        <v>0.85880175232887201</v>
+        <v>0.94700139760971003</v>
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3929,20 +3931,20 @@
         <v>0.77520492672920205</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>771</v>
+        <v>646</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>634</v>
+        <v>789</v>
       </c>
       <c r="I7" s="4">
-        <v>0.74386817216873102</v>
+        <v>0.80694216489791804</v>
       </c>
       <c r="J7" s="4">
-        <v>0.79718059301376298</v>
+        <v>0.82719361782073897</v>
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3962,20 +3964,20 @@
         <v>0.84852959513664195</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>772</v>
+        <v>647</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>635</v>
+        <v>790</v>
       </c>
       <c r="I8" s="4">
-        <v>0.81896771987279204</v>
+        <v>0.67600529193878101</v>
       </c>
       <c r="J8" s="4">
-        <v>0.83311570435762405</v>
+        <v>0.73762549459934201</v>
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4008,7 +4010,7 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4031,7 +4033,7 @@
         <v>26</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>636</v>
+        <v>27</v>
       </c>
       <c r="I10" s="4">
         <v>0.81577607989311196</v>
@@ -4041,7 +4043,7 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4061,20 +4063,20 @@
         <v>0.82130464911460799</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>773</v>
+        <v>648</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>637</v>
+        <v>791</v>
       </c>
       <c r="I11" s="4">
-        <v>0.758809193968772</v>
+        <v>0.90788803994655598</v>
       </c>
       <c r="J11" s="4">
-        <v>0.81996536254882801</v>
+        <v>0.856838479638099</v>
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4094,20 +4096,20 @@
         <v>0.643765568733215</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>774</v>
+        <v>608</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>638</v>
+        <v>792</v>
       </c>
       <c r="I12" s="4">
-        <v>0.62125074863433805</v>
+        <v>0.494580268859863</v>
       </c>
       <c r="J12" s="4">
-        <v>0.65798303484916598</v>
+        <v>0.66330203413963296</v>
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4127,20 +4129,20 @@
         <v>0.83233422040939298</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>35</v>
+        <v>615</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>36</v>
+        <v>793</v>
       </c>
       <c r="I13" s="4">
-        <v>0.80700710415840105</v>
+        <v>0.96863827109336798</v>
       </c>
       <c r="J13" s="4">
-        <v>0.83233422040939298</v>
+        <v>0.86369591951370195</v>
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4160,20 +4162,20 @@
         <v>0.74916890263557401</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>621</v>
+        <v>649</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>639</v>
+        <v>794</v>
       </c>
       <c r="I14" s="4">
         <v>0.81577607989311196</v>
       </c>
       <c r="J14" s="4">
-        <v>0.67524120211601202</v>
+        <v>0.73637261986732405</v>
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4193,20 +4195,20 @@
         <v>0.77991980314254705</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>775</v>
+        <v>650</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>640</v>
+        <v>795</v>
       </c>
       <c r="I15" s="4">
-        <v>0.71513864994049003</v>
+        <v>0.76684226592381799</v>
       </c>
       <c r="J15" s="4">
-        <v>0.77084906399249997</v>
+        <v>0.71530822912851899</v>
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4226,20 +4228,20 @@
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>776</v>
+        <v>651</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>641</v>
+        <v>796</v>
       </c>
       <c r="I16" s="4">
-        <v>0.91906757652759496</v>
+        <v>0.91214641928672702</v>
       </c>
       <c r="J16" s="4">
-        <v>0.91214641928672702</v>
+        <v>0.91470426321029596</v>
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4259,20 +4261,20 @@
         <v>0.55352979898452703</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>777</v>
+        <v>617</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>642</v>
+        <v>797</v>
       </c>
       <c r="I17" s="4">
         <v>0.55352979898452703</v>
       </c>
       <c r="J17" s="4">
-        <v>0.55352979898452703</v>
+        <v>0.196660846471786</v>
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4292,20 +4294,20 @@
         <v>0.70691688855489099</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>778</v>
+        <v>618</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>643</v>
+        <v>798</v>
       </c>
       <c r="I18" s="4">
         <v>0.67217616240183498</v>
       </c>
       <c r="J18" s="4">
-        <v>0.76702260971069303</v>
+        <v>0.75837792952855398</v>
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4325,20 +4327,20 @@
         <v>0.55638861656188898</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>779</v>
+        <v>652</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>644</v>
+        <v>799</v>
       </c>
       <c r="I19" s="4">
-        <v>0.62041449546813898</v>
+        <v>0.67581549286842302</v>
       </c>
       <c r="J19" s="4">
-        <v>0.78855979442596402</v>
+        <v>0.92964795231819097</v>
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4358,20 +4360,20 @@
         <v>0.87163223822911495</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>780</v>
+        <v>653</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>645</v>
+        <v>454</v>
       </c>
       <c r="I20" s="4">
-        <v>0.78139796853065402</v>
+        <v>0.89836370944976796</v>
       </c>
       <c r="J20" s="4">
-        <v>0.89578819274902299</v>
+        <v>0.89254003763198797</v>
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4391,20 +4393,20 @@
         <v>0.80938148871064097</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>781</v>
+        <v>654</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>646</v>
+        <v>800</v>
       </c>
       <c r="I21" s="4">
         <v>1.0000000149011601</v>
       </c>
       <c r="J21" s="4">
-        <v>0.948969006538391</v>
+        <v>0.71841065958142203</v>
       </c>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4427,17 +4429,17 @@
         <v>62</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="I22" s="4">
         <v>0.83083805441856295</v>
       </c>
       <c r="J22" s="4">
-        <v>0.83083805441856295</v>
+        <v>0.88605058193206698</v>
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4457,20 +4459,20 @@
         <v>0.73278199881315198</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>782</v>
+        <v>655</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>647</v>
+        <v>801</v>
       </c>
       <c r="I23" s="4">
-        <v>0.736021809279918</v>
+        <v>0.82876054197549798</v>
       </c>
       <c r="J23" s="4">
-        <v>0.872028648853302</v>
+        <v>0.73248643428087201</v>
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4490,20 +4492,20 @@
         <v>0.95287695527076699</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>783</v>
+        <v>656</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="I24" s="4">
+        <v>0.74982371926307601</v>
+      </c>
+      <c r="J24" s="4">
         <v>0.95287695527076699</v>
       </c>
-      <c r="J24" s="4">
-        <v>0.99778437614440896</v>
-      </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4523,20 +4525,20 @@
         <v>0.36376929283142001</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>784</v>
+        <v>657</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I25" s="4">
-        <v>0.54593151807785001</v>
+        <v>0.97500115633010798</v>
       </c>
       <c r="J25" s="4">
         <v>0.47421866655349698</v>
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4556,20 +4558,20 @@
         <v>0.95125621557235696</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>785</v>
+        <v>610</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>648</v>
+        <v>238</v>
       </c>
       <c r="I26" s="4">
-        <v>0.79515443245569795</v>
+        <v>0.88637749354044504</v>
       </c>
       <c r="J26" s="4">
-        <v>0.67273174722989404</v>
+        <v>0.88637749354044504</v>
       </c>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4589,20 +4591,20 @@
         <v>0.40046427398919998</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>786</v>
+        <v>658</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>649</v>
+        <v>802</v>
       </c>
       <c r="I27" s="4">
-        <v>0.49085274338722201</v>
+        <v>0.570630222558975</v>
       </c>
       <c r="J27" s="4">
-        <v>0.49590351432561802</v>
+        <v>0.57641489058732898</v>
       </c>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4622,20 +4624,20 @@
         <v>0.96495440602302496</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>787</v>
+        <v>659</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>650</v>
+        <v>803</v>
       </c>
       <c r="I28" s="4">
-        <v>0.96495440602302496</v>
+        <v>0.96863827109336798</v>
       </c>
       <c r="J28" s="4">
-        <v>0.96863827109336798</v>
+        <v>0.99999997019767695</v>
       </c>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4658,7 +4660,7 @@
         <v>83</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>651</v>
+        <v>804</v>
       </c>
       <c r="I29" s="4">
         <v>0.90004488825798001</v>
@@ -4668,7 +4670,7 @@
       </c>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4688,20 +4690,20 @@
         <v>0.99221444129943803</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>788</v>
+        <v>620</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>652</v>
+        <v>86</v>
       </c>
       <c r="I30" s="4">
         <v>0.87080601851145401</v>
       </c>
       <c r="J30" s="4">
-        <v>0.87007339298725095</v>
+        <v>0.99221444129943803</v>
       </c>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4724,7 +4726,7 @@
         <v>88</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>653</v>
+        <v>805</v>
       </c>
       <c r="I31" s="4">
         <v>1</v>
@@ -4734,7 +4736,7 @@
       </c>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4754,20 +4756,20 @@
         <v>0.66041297316551195</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>789</v>
+        <v>660</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>654</v>
+        <v>806</v>
       </c>
       <c r="I32" s="4">
-        <v>0.61482682575782099</v>
+        <v>0.77993609756231297</v>
       </c>
       <c r="J32" s="4">
-        <v>0.75109564264615303</v>
+        <v>0.78260200719038597</v>
       </c>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4787,20 +4789,20 @@
         <v>0.96863827109336798</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>93</v>
       </c>
       <c r="I33" s="4">
-        <v>0.99999997019767695</v>
+        <v>0.96863827109336798</v>
       </c>
       <c r="J33" s="4">
         <v>0.96863827109336798</v>
       </c>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4820,20 +4822,20 @@
         <v>0.85558956861495905</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>95</v>
+        <v>661</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>95</v>
+        <v>661</v>
       </c>
       <c r="I34" s="4">
-        <v>0.85558956861495905</v>
+        <v>0.999999940395355</v>
       </c>
       <c r="J34" s="4">
-        <v>0.85558956861495905</v>
+        <v>0.999999940395355</v>
       </c>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4866,7 +4868,7 @@
       </c>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4886,20 +4888,20 @@
         <v>0.69907957315444902</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>251</v>
+        <v>601</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>99</v>
+        <v>309</v>
       </c>
       <c r="I36" s="4">
-        <v>0.659132480621337</v>
+        <v>0.999999940395355</v>
       </c>
       <c r="J36" s="4">
-        <v>0.89636671543121305</v>
+        <v>0.61687356233596802</v>
       </c>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4919,20 +4921,20 @@
         <v>0.72202822566032399</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>102</v>
+        <v>662</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>655</v>
+        <v>807</v>
       </c>
       <c r="I37" s="4">
-        <v>0.74535532792409198</v>
+        <v>0.74526974558830195</v>
       </c>
       <c r="J37" s="4">
-        <v>0.80895230919122696</v>
+        <v>0.766263127326965</v>
       </c>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4965,7 +4967,7 @@
       </c>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4985,20 +4987,20 @@
         <v>0.75427855551242795</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>790</v>
+        <v>663</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>656</v>
+        <v>808</v>
       </c>
       <c r="I39" s="4">
-        <v>0.67417768239974896</v>
+        <v>0.767320036888122</v>
       </c>
       <c r="J39" s="4">
-        <v>0.74721052646636898</v>
+        <v>0.81273986399173703</v>
       </c>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5018,20 +5020,20 @@
         <v>0.73381626605987504</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>791</v>
+        <v>664</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>657</v>
+        <v>809</v>
       </c>
       <c r="I40" s="4">
-        <v>0.73381626605987504</v>
+        <v>0.77930897474288896</v>
       </c>
       <c r="J40" s="4">
-        <v>0.76685094833374001</v>
+        <v>0.68782347440719604</v>
       </c>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5051,20 +5053,20 @@
         <v>0.75668183565139702</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>792</v>
+        <v>665</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>658</v>
+        <v>810</v>
       </c>
       <c r="I41" s="4">
-        <v>0.698316442966461</v>
+        <v>0.86556035280227595</v>
       </c>
       <c r="J41" s="4">
-        <v>0.79667415618896398</v>
+        <v>0.65038370490074104</v>
       </c>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5084,10 +5086,10 @@
         <v>0.74325593312581295</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>622</v>
+        <v>666</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>659</v>
+        <v>811</v>
       </c>
       <c r="I42" s="4">
         <v>0.82092060645421305</v>
@@ -5097,7 +5099,7 @@
       </c>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5120,7 +5122,7 @@
         <v>118</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>660</v>
+        <v>118</v>
       </c>
       <c r="I43" s="4">
         <v>0.88996568322181702</v>
@@ -5130,7 +5132,7 @@
       </c>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5150,20 +5152,20 @@
         <v>0.78430225451787305</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>793</v>
+        <v>667</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>598</v>
+        <v>635</v>
       </c>
       <c r="I44" s="4">
-        <v>0.77426576614379805</v>
+        <v>0.80521005392074496</v>
       </c>
       <c r="J44" s="4">
-        <v>0.75973274310429895</v>
+        <v>0.78064054250717096</v>
       </c>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5183,20 +5185,20 @@
         <v>0.50567318499088199</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>794</v>
+        <v>626</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>661</v>
+        <v>812</v>
       </c>
       <c r="I45" s="4">
-        <v>0.68130031228065402</v>
+        <v>0.92246052622795105</v>
       </c>
       <c r="J45" s="4">
-        <v>0.52743703126907304</v>
+        <v>0.57759749889373702</v>
       </c>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5213,20 +5215,20 @@
         <v>0.16610771417617701</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>795</v>
+        <v>668</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>662</v>
+        <v>813</v>
       </c>
       <c r="I46" s="4">
-        <v>0.75175213813781705</v>
+        <v>0.82594674825668302</v>
       </c>
       <c r="J46" s="4">
         <v>0.75175213813781705</v>
       </c>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5246,20 +5248,20 @@
         <v>0.75204792618751504</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>623</v>
+        <v>669</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>575</v>
+        <v>814</v>
       </c>
       <c r="I47" s="4">
-        <v>0.77844850222269601</v>
+        <v>0.66590749224027002</v>
       </c>
       <c r="J47" s="4">
-        <v>0.96863833069801297</v>
+        <v>0.82436558604240395</v>
       </c>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5279,20 +5281,20 @@
         <v>0.67762017250061002</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>130</v>
       </c>
       <c r="I48" s="4">
-        <v>0.643765568733215</v>
+        <v>0.67762017250061002</v>
       </c>
       <c r="J48" s="4">
         <v>0.67762017250061002</v>
       </c>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5312,20 +5314,20 @@
         <v>0.97909216086069695</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>796</v>
+        <v>670</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="I49" s="4">
-        <v>0.91927309334278096</v>
+        <v>0.98431912064552296</v>
       </c>
       <c r="J49" s="4">
-        <v>0.97909216086069695</v>
+        <v>0.87080601851145401</v>
       </c>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5346,7 +5348,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5366,20 +5368,20 @@
         <v>0.99999997019767695</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>797</v>
+        <v>252</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>93</v>
       </c>
       <c r="I51" s="4">
-        <v>0.87130908171335797</v>
+        <v>0.96863827109336798</v>
       </c>
       <c r="J51" s="4">
         <v>0.96863827109336798</v>
       </c>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5399,20 +5401,20 @@
         <v>0.659839928150177</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>798</v>
+        <v>671</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>663</v>
+        <v>815</v>
       </c>
       <c r="I52" s="4">
-        <v>0.659839928150177</v>
+        <v>0.68375790119171098</v>
       </c>
       <c r="J52" s="4">
         <v>0.659839928150177</v>
       </c>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5432,20 +5434,20 @@
         <v>0.84246720870335901</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>799</v>
+        <v>672</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>599</v>
+        <v>816</v>
       </c>
       <c r="I53" s="4">
-        <v>0.82825058698654097</v>
+        <v>0.87008012831211001</v>
       </c>
       <c r="J53" s="4">
-        <v>0.82825058698654097</v>
+        <v>0.84822956720987897</v>
       </c>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5465,20 +5467,20 @@
         <v>0.63128798206647196</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>800</v>
+        <v>673</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>604</v>
+        <v>817</v>
       </c>
       <c r="I54" s="4">
-        <v>0.85708896319071404</v>
+        <v>0.78169631958007801</v>
       </c>
       <c r="J54" s="4">
-        <v>0.80744835734367304</v>
+        <v>0.771619458993276</v>
       </c>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5498,20 +5500,20 @@
         <v>0.580509573221206</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>801</v>
+        <v>674</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>664</v>
+        <v>818</v>
       </c>
       <c r="I55" s="4">
-        <v>0.76023515065511005</v>
+        <v>0.88403250773747699</v>
       </c>
       <c r="J55" s="4">
-        <v>0.63604589303334502</v>
+        <v>0.666329026222229</v>
       </c>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5531,20 +5533,20 @@
         <v>0.88965448737144404</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>802</v>
+        <v>675</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>150</v>
       </c>
       <c r="I56" s="4">
-        <v>0.86439907550811701</v>
+        <v>0.65321462353070503</v>
       </c>
       <c r="J56" s="4">
         <v>0.88965448737144404</v>
       </c>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5564,20 +5566,20 @@
         <v>0.53492907683054602</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>803</v>
+        <v>676</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>665</v>
+        <v>153</v>
       </c>
       <c r="I57" s="4">
-        <v>0.63209849596023504</v>
+        <v>0.55770824104547501</v>
       </c>
       <c r="J57" s="4">
-        <v>0.54946209987004602</v>
+        <v>0.53492907683054602</v>
       </c>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5597,20 +5599,20 @@
         <v>0.64582124352455095</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>804</v>
+        <v>677</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>666</v>
+        <v>819</v>
       </c>
       <c r="I58" s="4">
-        <v>0.73710945248603799</v>
+        <v>0.79069602489471402</v>
       </c>
       <c r="J58" s="4">
-        <v>0.56332428753375996</v>
+        <v>0.55768533051013902</v>
       </c>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5630,20 +5632,20 @@
         <v>0.74293364087740499</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>805</v>
+        <v>678</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>667</v>
+        <v>820</v>
       </c>
       <c r="I59" s="4">
-        <v>0.690788221359252</v>
+        <v>0.71764900783697705</v>
       </c>
       <c r="J59" s="4">
-        <v>0.64433615207672101</v>
+        <v>0.65934739708900403</v>
       </c>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5663,7 +5665,7 @@
         <v>0.75035083293914795</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>624</v>
+        <v>679</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>162</v>
@@ -5676,7 +5678,7 @@
       </c>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5709,7 +5711,7 @@
       </c>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5729,20 +5731,20 @@
         <v>0.625701904296875</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>806</v>
+        <v>165</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>668</v>
+        <v>821</v>
       </c>
       <c r="I62" s="4">
-        <v>1.00000023841857</v>
+        <v>0.63658869266509999</v>
       </c>
       <c r="J62" s="4">
         <v>1.00000023841857</v>
       </c>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5762,20 +5764,20 @@
         <v>0.76918554306030196</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>807</v>
+        <v>680</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>669</v>
+        <v>822</v>
       </c>
       <c r="I63" s="4">
-        <v>0.71324923038482602</v>
+        <v>0.79486936330795199</v>
       </c>
       <c r="J63" s="4">
-        <v>0.79734247922897294</v>
+        <v>0.78278822898864697</v>
       </c>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5795,20 +5797,20 @@
         <v>0.67143967747688205</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>808</v>
+        <v>681</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>670</v>
+        <v>823</v>
       </c>
       <c r="I64" s="4">
-        <v>0.59328043957551302</v>
+        <v>0.64130806922912598</v>
       </c>
       <c r="J64" s="4">
-        <v>0.81012431780497196</v>
+        <v>0.71518647670745805</v>
       </c>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5828,20 +5830,20 @@
         <v>0.85971024206706403</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>809</v>
+        <v>682</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>671</v>
+        <v>824</v>
       </c>
       <c r="I65" s="4">
-        <v>0.88485822677612302</v>
+        <v>0.84531321128209402</v>
       </c>
       <c r="J65" s="4">
-        <v>0.83632861574490802</v>
+        <v>0.86045750124113896</v>
       </c>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5861,20 +5863,20 @@
         <v>0.70300630728403701</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>810</v>
+        <v>683</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>178</v>
       </c>
       <c r="I66" s="4">
-        <v>0.88640290498733498</v>
+        <v>0.97551115353902096</v>
       </c>
       <c r="J66" s="4">
         <v>0.70300630728403701</v>
       </c>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5894,20 +5896,20 @@
         <v>0.229509443044662</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>811</v>
+        <v>684</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>672</v>
+        <v>825</v>
       </c>
       <c r="I67" s="4">
         <v>0.227014601230621</v>
       </c>
       <c r="J67" s="4">
-        <v>0.28360506892204201</v>
+        <v>0.35358825325965798</v>
       </c>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5927,20 +5929,20 @@
         <v>0.56513267755508401</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>812</v>
+        <v>685</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>673</v>
+        <v>826</v>
       </c>
       <c r="I68" s="4">
         <v>0.92246052622795105</v>
       </c>
       <c r="J68" s="4">
-        <v>0.821882784366607</v>
+        <v>0.78879874944686801</v>
       </c>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5960,20 +5962,20 @@
         <v>0.424301261703173</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>184</v>
+        <v>686</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>674</v>
+        <v>827</v>
       </c>
       <c r="I69" s="4">
-        <v>0.426130041480064</v>
+        <v>0.44847878317038198</v>
       </c>
       <c r="J69" s="4">
-        <v>0.33001932501792902</v>
+        <v>0.64152497053146296</v>
       </c>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6003,7 +6005,7 @@
       </c>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6023,20 +6025,20 @@
         <v>0.86084529757499695</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>189</v>
+        <v>687</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>190</v>
       </c>
       <c r="I71" s="4">
-        <v>0.69036905467510201</v>
+        <v>0.86084529757499695</v>
       </c>
       <c r="J71" s="4">
         <v>0.86084529757499695</v>
       </c>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6059,17 +6061,17 @@
         <v>192</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>97</v>
+        <v>828</v>
       </c>
       <c r="I72" s="4">
         <v>0.380455821752548</v>
       </c>
       <c r="J72" s="4">
-        <v>1</v>
+        <v>0.34702534973621302</v>
       </c>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6089,20 +6091,20 @@
         <v>0.79558616876602095</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>813</v>
+        <v>688</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>675</v>
+        <v>829</v>
       </c>
       <c r="I73" s="4">
-        <v>0.68494596332311597</v>
+        <v>0.77093802392482702</v>
       </c>
       <c r="J73" s="4">
-        <v>0.79603387912114398</v>
+        <v>0.65578394010662999</v>
       </c>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6122,20 +6124,20 @@
         <v>0.77724428971608395</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>814</v>
+        <v>689</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>676</v>
+        <v>830</v>
       </c>
       <c r="I74" s="4">
-        <v>0.844467192888259</v>
+        <v>0.79221571981906802</v>
       </c>
       <c r="J74" s="4">
-        <v>0.76033955812454201</v>
+        <v>0.87069445848464899</v>
       </c>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6168,7 +6170,7 @@
       </c>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6188,20 +6190,20 @@
         <v>0.78681901097297602</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>815</v>
+        <v>690</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>677</v>
+        <v>831</v>
       </c>
       <c r="I76" s="4">
-        <v>0.53198978304862898</v>
+        <v>0.72201599180698395</v>
       </c>
       <c r="J76" s="4">
-        <v>0.74022080004215196</v>
+        <v>0.74868445098400105</v>
       </c>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6221,20 +6223,20 @@
         <v>0.89125227928161599</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>816</v>
+        <v>691</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>678</v>
+        <v>832</v>
       </c>
       <c r="I77" s="4">
-        <v>0.87982518970966295</v>
+        <v>0.912098988890647</v>
       </c>
       <c r="J77" s="4">
-        <v>0.94767681757609001</v>
+        <v>0.83746461570262898</v>
       </c>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6257,17 +6259,17 @@
         <v>99</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>99</v>
+        <v>309</v>
       </c>
       <c r="I78" s="4">
         <v>0.89636671543121305</v>
       </c>
       <c r="J78" s="4">
-        <v>0.89636671543121305</v>
+        <v>0.61687356233596802</v>
       </c>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6287,20 +6289,20 @@
         <v>0.99556875228881803</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>817</v>
+        <v>206</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>207</v>
       </c>
       <c r="I79" s="4">
-        <v>0.261145949363708</v>
+        <v>0.73878365755081099</v>
       </c>
       <c r="J79" s="4">
         <v>0.99556875228881803</v>
       </c>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6333,7 +6335,7 @@
       </c>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6353,20 +6355,20 @@
         <v>0.74346736073493902</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>818</v>
+        <v>692</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>679</v>
+        <v>833</v>
       </c>
       <c r="I81" s="4">
-        <v>0.58322310447692804</v>
+        <v>0.57869333028793302</v>
       </c>
       <c r="J81" s="4">
-        <v>0.59144946932792597</v>
+        <v>0.74346736073493902</v>
       </c>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6386,20 +6388,20 @@
         <v>0.83881008625030495</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>819</v>
+        <v>693</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>600</v>
+        <v>834</v>
       </c>
       <c r="I82" s="4">
-        <v>0.83628937602043096</v>
+        <v>0.81078824400901695</v>
       </c>
       <c r="J82" s="4">
         <v>0.83881008625030495</v>
       </c>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6419,20 +6421,20 @@
         <v>0.83259695768356301</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>820</v>
+        <v>694</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>680</v>
+        <v>835</v>
       </c>
       <c r="I83" s="4">
-        <v>0.73035033543904604</v>
+        <v>0.86278017361958803</v>
       </c>
       <c r="J83" s="4">
-        <v>0.69057057301203395</v>
+        <v>0.73710933327674799</v>
       </c>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6452,20 +6454,20 @@
         <v>0.87268748879432601</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>821</v>
+        <v>695</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>681</v>
+        <v>836</v>
       </c>
       <c r="I84" s="4">
-        <v>0.82937288284301702</v>
+        <v>0.84659621119499195</v>
       </c>
       <c r="J84" s="4">
-        <v>0.84234872460365295</v>
+        <v>0.96863821148872298</v>
       </c>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6485,20 +6487,20 @@
         <v>0.58233012755711799</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>822</v>
+        <v>696</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>682</v>
+        <v>837</v>
       </c>
       <c r="I85" s="4">
-        <v>0.68477770686149597</v>
+        <v>0.80849638581275896</v>
       </c>
       <c r="J85" s="4">
         <v>0.787923137346903</v>
       </c>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6518,20 +6520,20 @@
         <v>0.77715887129306704</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>823</v>
+        <v>697</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>683</v>
+        <v>838</v>
       </c>
       <c r="I86" s="4">
-        <v>0.52731204032897905</v>
+        <v>0.66705634444952</v>
       </c>
       <c r="J86" s="4">
-        <v>0.54667428135871798</v>
+        <v>0.45768392086028997</v>
       </c>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6551,20 +6553,20 @@
         <v>0.64777341485023499</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>824</v>
+        <v>698</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>684</v>
+        <v>839</v>
       </c>
       <c r="I87" s="4">
-        <v>0.65999075770378102</v>
+        <v>0.67791897058486905</v>
       </c>
       <c r="J87" s="4">
-        <v>0.69889731705188696</v>
+        <v>0.74316383898258198</v>
       </c>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6587,17 +6589,17 @@
         <v>231</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>685</v>
+        <v>840</v>
       </c>
       <c r="I88" s="4">
         <v>0.76020756363868702</v>
       </c>
       <c r="J88" s="4">
-        <v>0.916821628808975</v>
+        <v>0.84960603713989202</v>
       </c>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6617,20 +6619,20 @@
         <v>0.58183607459068298</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>825</v>
+        <v>699</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>686</v>
+        <v>841</v>
       </c>
       <c r="I89" s="4">
-        <v>0.60031959414482094</v>
+        <v>0.70325493812561002</v>
       </c>
       <c r="J89" s="4">
-        <v>0.74405092000961304</v>
+        <v>0.722034752368927</v>
       </c>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6651,7 +6653,7 @@
       </c>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6671,20 +6673,20 @@
         <v>0.97909218072891202</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>826</v>
+        <v>700</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>687</v>
+        <v>842</v>
       </c>
       <c r="I91" s="4">
-        <v>0.74806016683578402</v>
+        <v>0.89304733276367099</v>
       </c>
       <c r="J91" s="4">
-        <v>0.97909218072891202</v>
+        <v>0.99999998013178504</v>
       </c>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6704,20 +6706,20 @@
         <v>0.78536005318164803</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>827</v>
+        <v>701</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>688</v>
+        <v>843</v>
       </c>
       <c r="I92" s="4">
-        <v>0.88833868503570501</v>
+        <v>0.80390070676803504</v>
       </c>
       <c r="J92" s="4">
-        <v>0.86104619503021196</v>
+        <v>0.83722931146621704</v>
       </c>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6737,20 +6739,20 @@
         <v>0.87080601851145401</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>828</v>
+        <v>702</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>547</v>
+        <v>844</v>
       </c>
       <c r="I93" s="4">
-        <v>0.82873454689979498</v>
+        <v>0.97909218072891202</v>
       </c>
       <c r="J93" s="4">
-        <v>0.96863827109336798</v>
+        <v>0.96614468097686701</v>
       </c>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6770,20 +6772,20 @@
         <v>0.81644618511199896</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>246</v>
+        <v>703</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>689</v>
+        <v>845</v>
       </c>
       <c r="I94" s="4">
-        <v>0.64646893739700295</v>
+        <v>0.658095876375834</v>
       </c>
       <c r="J94" s="4">
-        <v>0.738580882549285</v>
+        <v>0.63887577503919601</v>
       </c>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6803,20 +6805,20 @@
         <v>1</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>829</v>
+        <v>704</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>690</v>
+        <v>846</v>
       </c>
       <c r="I95" s="4">
-        <v>0.79933631420135498</v>
+        <v>0.79506518691778105</v>
       </c>
       <c r="J95" s="4">
-        <v>0.80985775589942899</v>
+        <v>0.83163401484489397</v>
       </c>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6839,17 +6841,17 @@
         <v>251</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>401</v>
+        <v>328</v>
       </c>
       <c r="I96" s="4">
         <v>0.93727654218673695</v>
       </c>
       <c r="J96" s="4">
-        <v>0.56410753726959195</v>
+        <v>0.999999940395355</v>
       </c>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6872,17 +6874,17 @@
         <v>93</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>252</v>
+        <v>847</v>
       </c>
       <c r="I97" s="4">
         <v>0.96863827109336798</v>
       </c>
       <c r="J97" s="4">
-        <v>0.96863827109336798</v>
+        <v>0.97365152835845903</v>
       </c>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6905,17 +6907,17 @@
         <v>254</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>691</v>
+        <v>848</v>
       </c>
       <c r="I98" s="4">
         <v>0.79672735929489102</v>
       </c>
       <c r="J98" s="4">
-        <v>0.82188275456428495</v>
+        <v>0.84368228912353505</v>
       </c>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6935,20 +6937,20 @@
         <v>0.781334549188613</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>830</v>
+        <v>705</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>692</v>
+        <v>849</v>
       </c>
       <c r="I99" s="4">
-        <v>0.74380147953828102</v>
+        <v>0.79694617986678995</v>
       </c>
       <c r="J99" s="4">
-        <v>0.89526052772998799</v>
+        <v>0.83973690867424</v>
       </c>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6968,20 +6970,20 @@
         <v>1</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>261</v>
+        <v>24</v>
       </c>
       <c r="I100" s="4">
-        <v>0.77549397945403997</v>
+        <v>1</v>
       </c>
       <c r="J100" s="4">
         <v>1</v>
       </c>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7001,20 +7003,20 @@
         <v>0.80672341585159302</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>831</v>
+        <v>608</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>693</v>
+        <v>850</v>
       </c>
       <c r="I101" s="4">
-        <v>0.58358469605445795</v>
+        <v>1</v>
       </c>
       <c r="J101" s="4">
-        <v>0.59125336011250795</v>
+        <v>1.0000000596046399</v>
       </c>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7034,20 +7036,20 @@
         <v>0.83659446239471402</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>832</v>
+        <v>266</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="I102" s="4">
-        <v>0.89106297492980902</v>
+        <v>0.83659446239471402</v>
       </c>
       <c r="J102" s="4">
-        <v>0.83659446239471402</v>
+        <v>0.67762017250061002</v>
       </c>
       <c r="K102" s="1"/>
     </row>
-    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7067,20 +7069,20 @@
         <v>0.22423873841762501</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>726</v>
+        <v>417</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>694</v>
+        <v>851</v>
       </c>
       <c r="I103" s="4">
-        <v>0.26645958423614502</v>
+        <v>0.41947683691978399</v>
       </c>
       <c r="J103" s="4">
-        <v>0.22423873841762501</v>
+        <v>0.28694364428520203</v>
       </c>
       <c r="K103" s="1"/>
     </row>
-    <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7100,20 +7102,20 @@
         <v>0.59527246654033605</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>833</v>
+        <v>706</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>695</v>
+        <v>852</v>
       </c>
       <c r="I104" s="4">
-        <v>0.51093116402626004</v>
+        <v>0.58453387022018399</v>
       </c>
       <c r="J104" s="4">
-        <v>0.643094182014465</v>
+        <v>0.60333427786826999</v>
       </c>
       <c r="K104" s="1"/>
     </row>
-    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7136,17 +7138,17 @@
         <v>273</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>696</v>
+        <v>853</v>
       </c>
       <c r="I105" s="4">
         <v>0.97867506742477395</v>
       </c>
       <c r="J105" s="4">
-        <v>0.88588550686836198</v>
+        <v>0.86370858550071705</v>
       </c>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7169,17 +7171,17 @@
         <v>276</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>697</v>
+        <v>854</v>
       </c>
       <c r="I106" s="4">
         <v>0.81829434633255005</v>
       </c>
       <c r="J106" s="4">
-        <v>0.72725170850753695</v>
+        <v>1.00000011920928</v>
       </c>
       <c r="K106" s="1"/>
     </row>
-    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7199,20 +7201,20 @@
         <v>0.72348267833391799</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>834</v>
+        <v>707</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="I107" s="4">
-        <v>0.81984872619311</v>
+        <v>0.98890610535939505</v>
       </c>
       <c r="J107" s="4">
         <v>0.821882784366607</v>
       </c>
       <c r="K107" s="1"/>
     </row>
-    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7232,20 +7234,20 @@
         <v>0.99999997019767695</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>835</v>
+        <v>621</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="I108" s="4">
         <v>0.96863827109336798</v>
       </c>
       <c r="J108" s="4">
-        <v>0.93727654218673695</v>
+        <v>0.99999997019767695</v>
       </c>
       <c r="K108" s="1"/>
     </row>
-    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7265,20 +7267,20 @@
         <v>0.43834111094474698</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>836</v>
+        <v>708</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>698</v>
+        <v>855</v>
       </c>
       <c r="I109" s="4">
-        <v>0.64653452485799701</v>
+        <v>0.71971119195222799</v>
       </c>
       <c r="J109" s="4">
-        <v>0.574881184101104</v>
+        <v>0.35934233665466297</v>
       </c>
       <c r="K109" s="1"/>
     </row>
-    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7298,7 +7300,7 @@
         <v>0.48620364069938599</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>685</v>
+        <v>251</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>251</v>
@@ -7311,7 +7313,7 @@
       </c>
       <c r="K110" s="1"/>
     </row>
-    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7331,20 +7333,20 @@
         <v>0.80653929710388095</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>837</v>
+        <v>709</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>699</v>
+        <v>856</v>
       </c>
       <c r="I111" s="4">
-        <v>0.64552073677380795</v>
+        <v>0.70210994283358197</v>
       </c>
       <c r="J111" s="4">
-        <v>0.85800033807754505</v>
+        <v>0.70253478487332599</v>
       </c>
       <c r="K111" s="1"/>
     </row>
-    <row r="112" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7377,7 +7379,7 @@
       </c>
       <c r="K112" s="1"/>
     </row>
-    <row r="113" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7397,7 +7399,7 @@
         <v>0.81391134858131398</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>838</v>
+        <v>622</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>293</v>
@@ -7410,7 +7412,7 @@
       </c>
       <c r="K113" s="1"/>
     </row>
-    <row r="114" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7430,20 +7432,20 @@
         <v>0.68249901135762503</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>839</v>
+        <v>710</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>700</v>
+        <v>857</v>
       </c>
       <c r="I114" s="4">
-        <v>0.78732925653457597</v>
+        <v>0.75101053714752197</v>
       </c>
       <c r="J114" s="4">
-        <v>0.95296216011047297</v>
+        <v>0.76218134164810103</v>
       </c>
       <c r="K114" s="1"/>
     </row>
-    <row r="115" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7463,20 +7465,20 @@
         <v>0.88632237911224299</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>840</v>
+        <v>252</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="I115" s="4">
-        <v>0.88632237911224299</v>
+        <v>0.96863827109336798</v>
       </c>
       <c r="J115" s="4">
-        <v>0.88632237911224299</v>
+        <v>0.96863827109336798</v>
       </c>
       <c r="K115" s="1"/>
     </row>
-    <row r="116" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7496,20 +7498,20 @@
         <v>0.76411952450871401</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>841</v>
+        <v>627</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>701</v>
+        <v>858</v>
       </c>
       <c r="I116" s="4">
-        <v>0.697470463812351</v>
+        <v>0.68549269934495205</v>
       </c>
       <c r="J116" s="4">
-        <v>0.79895409196615197</v>
+        <v>0.99999996026356996</v>
       </c>
       <c r="K116" s="1"/>
     </row>
-    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7529,20 +7531,20 @@
         <v>0.93578697741031602</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>842</v>
+        <v>711</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>702</v>
+        <v>859</v>
       </c>
       <c r="I117" s="4">
-        <v>0.91478312015533403</v>
+        <v>0.904218390583992</v>
       </c>
       <c r="J117" s="4">
         <v>0.92476989328861203</v>
       </c>
       <c r="K117" s="1"/>
     </row>
-    <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7562,20 +7564,20 @@
         <v>0.51199764013290405</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>843</v>
+        <v>712</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>703</v>
+        <v>860</v>
       </c>
       <c r="I118" s="4">
-        <v>0.43778576950232101</v>
+        <v>0.45648097991943298</v>
       </c>
       <c r="J118" s="4">
-        <v>0.52697300910949696</v>
+        <v>0.40874720364808997</v>
       </c>
       <c r="K118" s="1"/>
     </row>
-    <row r="119" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7595,20 +7597,20 @@
         <v>0.704438596963882</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>844</v>
+        <v>713</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>309</v>
+        <v>100</v>
       </c>
       <c r="I119" s="4">
-        <v>0.60450434684753396</v>
+        <v>0.63009162247180905</v>
       </c>
       <c r="J119" s="4">
-        <v>0.61687356233596802</v>
+        <v>0.69907957315444902</v>
       </c>
       <c r="K119" s="1"/>
     </row>
-    <row r="120" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7628,20 +7630,20 @@
         <v>1</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>312</v>
+        <v>714</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I120" s="4">
-        <v>0.98020017147064198</v>
+        <v>0.976329565048217</v>
       </c>
       <c r="J120" s="4">
         <v>1</v>
       </c>
       <c r="K120" s="1"/>
     </row>
-    <row r="121" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7661,20 +7663,20 @@
         <v>0.73101449012756303</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>845</v>
+        <v>715</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>704</v>
+        <v>861</v>
       </c>
       <c r="I121" s="4">
-        <v>0.57266917824745101</v>
+        <v>0.536256164312362</v>
       </c>
       <c r="J121" s="4">
-        <v>0.69965279102325395</v>
+        <v>0.99999997019767695</v>
       </c>
       <c r="K121" s="1"/>
     </row>
-    <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7694,20 +7696,20 @@
         <v>0.97909218072891202</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>846</v>
+        <v>628</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>612</v>
+        <v>862</v>
       </c>
       <c r="I122" s="4">
-        <v>0.81174094974994604</v>
+        <v>0.90628500282764402</v>
       </c>
       <c r="J122" s="4">
-        <v>0.99999998509883803</v>
+        <v>0.89727258682250899</v>
       </c>
       <c r="K122" s="1"/>
     </row>
-    <row r="123" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7727,20 +7729,20 @@
         <v>0.712105512619018</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>847</v>
+        <v>716</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>705</v>
+        <v>863</v>
       </c>
       <c r="I123" s="4">
-        <v>0.69998133182525601</v>
+        <v>0.83786645531654302</v>
       </c>
       <c r="J123" s="4">
-        <v>0.71167143185933401</v>
+        <v>0.71184003353118896</v>
       </c>
       <c r="K123" s="1"/>
     </row>
-    <row r="124" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7760,20 +7762,20 @@
         <v>0.74346724152565002</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>625</v>
+        <v>717</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>706</v>
+        <v>324</v>
       </c>
       <c r="I124" s="4">
-        <v>0.60031959414482094</v>
+        <v>0.97990757226943903</v>
       </c>
       <c r="J124" s="4">
-        <v>0.76195076107978799</v>
+        <v>0.74346724152565002</v>
       </c>
       <c r="K124" s="1"/>
     </row>
-    <row r="125" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7793,20 +7795,20 @@
         <v>0.83695700764656</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>848</v>
+        <v>718</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>707</v>
+        <v>864</v>
       </c>
       <c r="I125" s="4">
         <v>0.83836883306503296</v>
       </c>
       <c r="J125" s="4">
-        <v>0.83695700764656</v>
+        <v>0.87202546000480596</v>
       </c>
       <c r="K125" s="1"/>
     </row>
-    <row r="126" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7826,20 +7828,20 @@
         <v>0.999999940395355</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>849</v>
+        <v>251</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>251</v>
       </c>
       <c r="I126" s="4">
-        <v>0.58362960815429599</v>
+        <v>0.93727654218673695</v>
       </c>
       <c r="J126" s="4">
         <v>0.93727654218673695</v>
       </c>
       <c r="K126" s="1"/>
     </row>
-    <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7859,20 +7861,20 @@
         <v>0.65954259634017898</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>850</v>
+        <v>719</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>708</v>
+        <v>865</v>
       </c>
       <c r="I127" s="4">
-        <v>0.90735667943954401</v>
+        <v>0.72151341438293404</v>
       </c>
       <c r="J127" s="4">
-        <v>0.64702075719833296</v>
+        <v>0.75725636482238701</v>
       </c>
       <c r="K127" s="1"/>
     </row>
-    <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7892,20 +7894,20 @@
         <v>0.87157395482063205</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>851</v>
+        <v>720</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>709</v>
+        <v>281</v>
       </c>
       <c r="I128" s="4">
-        <v>0.60788285732269198</v>
+        <v>0.77257969975471497</v>
       </c>
       <c r="J128" s="4">
-        <v>0.87157395482063205</v>
+        <v>0.99999997019767695</v>
       </c>
       <c r="K128" s="1"/>
     </row>
-    <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7925,20 +7927,20 @@
         <v>0.74766591191291798</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>335</v>
+        <v>721</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>710</v>
+        <v>611</v>
       </c>
       <c r="I129" s="4">
-        <v>0.74766591191291798</v>
+        <v>0.72827111184597004</v>
       </c>
       <c r="J129" s="4">
         <v>0.66631846129894201</v>
       </c>
       <c r="K129" s="1"/>
     </row>
-    <row r="130" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7958,20 +7960,20 @@
         <v>0.65441878636677997</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>852</v>
+        <v>722</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>711</v>
+        <v>866</v>
       </c>
       <c r="I130" s="4">
-        <v>0.78849730889002401</v>
+        <v>0.80218741297721796</v>
       </c>
       <c r="J130" s="4">
-        <v>0.70541270573933901</v>
+        <v>0.64532040556271797</v>
       </c>
       <c r="K130" s="1"/>
     </row>
-    <row r="131" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7991,20 +7993,20 @@
         <v>0.79977047443389804</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>853</v>
+        <v>723</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>712</v>
+        <v>867</v>
       </c>
       <c r="I131" s="4">
         <v>0.79977047443389804</v>
       </c>
       <c r="J131" s="4">
-        <v>0.74958749612172404</v>
+        <v>0.80884285767873099</v>
       </c>
       <c r="K131" s="1"/>
     </row>
-    <row r="132" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
@@ -8024,10 +8026,10 @@
         <v>0.94818335771560602</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>854</v>
+        <v>344</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>713</v>
+        <v>612</v>
       </c>
       <c r="I132" s="4">
         <v>0.94818335771560602</v>
@@ -8037,7 +8039,7 @@
       </c>
       <c r="K132" s="1"/>
     </row>
-    <row r="133" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8057,20 +8059,20 @@
         <v>0.92151522636413497</v>
       </c>
       <c r="G133" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="H133" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="H133" s="3" t="s">
-        <v>613</v>
       </c>
       <c r="I133" s="4">
         <v>0.92151522636413497</v>
       </c>
       <c r="J133" s="4">
-        <v>0.96642264723777704</v>
+        <v>0.92151522636413497</v>
       </c>
       <c r="K133" s="1"/>
     </row>
-    <row r="134" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8090,10 +8092,10 @@
         <v>0.92398694157600403</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>855</v>
+        <v>629</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="I134" s="4">
         <v>0.92398694157600403</v>
@@ -8103,7 +8105,7 @@
       </c>
       <c r="K134" s="1"/>
     </row>
-    <row r="135" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>134</v>
       </c>
@@ -8123,20 +8125,20 @@
         <v>0.38596880435943598</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>856</v>
+        <v>725</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>714</v>
+        <v>353</v>
       </c>
       <c r="I135" s="4">
-        <v>0.58017359673976898</v>
+        <v>0.70917567610740595</v>
       </c>
       <c r="J135" s="4">
-        <v>0.55122585594654006</v>
+        <v>0.38596880435943598</v>
       </c>
       <c r="K135" s="1"/>
     </row>
-    <row r="136" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>135</v>
       </c>
@@ -8156,20 +8158,20 @@
         <v>0.90983358025550798</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>857</v>
+        <v>726</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>715</v>
+        <v>868</v>
       </c>
       <c r="I136" s="4">
-        <v>0.88125518957773796</v>
+        <v>0.758783839643001</v>
       </c>
       <c r="J136" s="4">
-        <v>0.88125518957773796</v>
+        <v>0.84368231892585699</v>
       </c>
       <c r="K136" s="1"/>
     </row>
-    <row r="137" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>136</v>
       </c>
@@ -8189,20 +8191,20 @@
         <v>0.67514151334762496</v>
       </c>
       <c r="G137" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H137" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="H137" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="I137" s="4">
+        <v>0.67514151334762496</v>
+      </c>
+      <c r="J137" s="4">
         <v>0.999999940395355</v>
       </c>
-      <c r="J137" s="4">
-        <v>0.67514151334762496</v>
-      </c>
       <c r="K137" s="1"/>
     </row>
-    <row r="138" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>137</v>
       </c>
@@ -8222,20 +8224,20 @@
         <v>1</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>858</v>
+        <v>361</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>344</v>
+        <v>869</v>
       </c>
       <c r="I138" s="4">
-        <v>0.92856609821319502</v>
+        <v>1</v>
       </c>
       <c r="J138" s="4">
-        <v>0.573652744293212</v>
+        <v>0.86690813302993697</v>
       </c>
       <c r="K138" s="1"/>
     </row>
-    <row r="139" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>138</v>
       </c>
@@ -8255,20 +8257,20 @@
         <v>0.61712348461151101</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>859</v>
+        <v>727</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>716</v>
+        <v>870</v>
       </c>
       <c r="I139" s="4">
         <v>0.938443303108215</v>
       </c>
       <c r="J139" s="4">
-        <v>0.938443303108215</v>
+        <v>0.69169336557388295</v>
       </c>
       <c r="K139" s="1"/>
     </row>
-    <row r="140" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>139</v>
       </c>
@@ -8288,20 +8290,20 @@
         <v>0.65348594387372305</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>860</v>
+        <v>728</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>717</v>
+        <v>871</v>
       </c>
       <c r="I140" s="4">
-        <v>0.90788803994655598</v>
+        <v>0.59055230394005698</v>
       </c>
       <c r="J140" s="4">
-        <v>0.47236022353172302</v>
+        <v>0.67053200304508198</v>
       </c>
       <c r="K140" s="1"/>
     </row>
-    <row r="141" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>140</v>
       </c>
@@ -8321,20 +8323,20 @@
         <v>0.866569677988688</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>861</v>
+        <v>632</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>718</v>
+        <v>872</v>
       </c>
       <c r="I141" s="4">
-        <v>0.84817299246788003</v>
+        <v>0.82956624031066895</v>
       </c>
       <c r="J141" s="4">
-        <v>0.83856453498204497</v>
+        <v>0.75784680247306802</v>
       </c>
       <c r="K141" s="1"/>
     </row>
-    <row r="142" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>141</v>
       </c>
@@ -8354,20 +8356,20 @@
         <v>0.783560176690419</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>601</v>
+        <v>729</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>601</v>
+        <v>873</v>
       </c>
       <c r="I142" s="4">
-        <v>0.83615106344223</v>
+        <v>0.80843678116798401</v>
       </c>
       <c r="J142" s="4">
-        <v>0.83615106344223</v>
+        <v>0.82717341184616</v>
       </c>
       <c r="K142" s="1"/>
     </row>
-    <row r="143" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>142</v>
       </c>
@@ -8387,20 +8389,20 @@
         <v>0.69818580647309603</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>862</v>
+        <v>730</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>719</v>
+        <v>874</v>
       </c>
       <c r="I143" s="4">
-        <v>0.78793238600095095</v>
+        <v>0.74750168124834604</v>
       </c>
       <c r="J143" s="4">
-        <v>0.76794331769148505</v>
+        <v>0.629479080438613</v>
       </c>
       <c r="K143" s="1"/>
     </row>
-    <row r="144" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>143</v>
       </c>
@@ -8423,17 +8425,17 @@
         <v>378</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>251</v>
+        <v>328</v>
       </c>
       <c r="I144" s="4">
         <v>0.96863827109336798</v>
       </c>
       <c r="J144" s="4">
-        <v>0.93727654218673695</v>
+        <v>0.999999940395355</v>
       </c>
       <c r="K144" s="1"/>
     </row>
-    <row r="145" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>144</v>
       </c>
@@ -8466,7 +8468,7 @@
       </c>
       <c r="K145" s="1"/>
     </row>
-    <row r="146" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>145</v>
       </c>
@@ -8486,20 +8488,20 @@
         <v>1</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>863</v>
+        <v>630</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>261</v>
+        <v>875</v>
       </c>
       <c r="I146" s="4">
+        <v>1</v>
+      </c>
+      <c r="J146" s="4">
         <v>0.86316540837287903</v>
       </c>
-      <c r="J146" s="4">
-        <v>1</v>
-      </c>
       <c r="K146" s="1"/>
     </row>
-    <row r="147" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>146</v>
       </c>
@@ -8519,20 +8521,20 @@
         <v>0.63825836777686995</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>864</v>
+        <v>636</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>383</v>
+        <v>255</v>
       </c>
       <c r="I147" s="4">
-        <v>0.68446236848831099</v>
+        <v>0.68698307871818498</v>
       </c>
       <c r="J147" s="4">
-        <v>0.63825836777686995</v>
+        <v>0.710384041070938</v>
       </c>
       <c r="K147" s="1"/>
     </row>
-    <row r="148" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>147</v>
       </c>
@@ -8552,20 +8554,20 @@
         <v>0.57585367560386602</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>865</v>
+        <v>731</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>385</v>
+        <v>876</v>
       </c>
       <c r="I148" s="4">
-        <v>0.92246052622795105</v>
+        <v>0.66696532070636705</v>
       </c>
       <c r="J148" s="4">
-        <v>0.57585367560386602</v>
+        <v>0.60336557030677795</v>
       </c>
       <c r="K148" s="1"/>
     </row>
-    <row r="149" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>148</v>
       </c>
@@ -8585,20 +8587,20 @@
         <v>0.79593882958094198</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>866</v>
+        <v>732</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>388</v>
+        <v>877</v>
       </c>
       <c r="I149" s="4">
-        <v>0.64762374758720398</v>
+        <v>0.75885313749313299</v>
       </c>
       <c r="J149" s="4">
-        <v>0.79593882958094198</v>
+        <v>0.79038582245508804</v>
       </c>
       <c r="K149" s="1"/>
     </row>
-    <row r="150" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>149</v>
       </c>
@@ -8618,20 +8620,20 @@
         <v>0.70595091581344604</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>720</v>
+        <v>391</v>
       </c>
       <c r="I150" s="4">
-        <v>0.89254005750020304</v>
+        <v>0.89578821261723796</v>
       </c>
       <c r="J150" s="4">
-        <v>0.83138704299926702</v>
+        <v>0.70595091581344604</v>
       </c>
       <c r="K150" s="1"/>
     </row>
-    <row r="151" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>150</v>
       </c>
@@ -8651,20 +8653,20 @@
         <v>0.76948544383049</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>868</v>
+        <v>734</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>721</v>
+        <v>878</v>
       </c>
       <c r="I151" s="4">
-        <v>0.84936106204986495</v>
+        <v>0.77047413587570102</v>
       </c>
       <c r="J151" s="4">
-        <v>0.78186193108558599</v>
+        <v>0.86888852715492204</v>
       </c>
       <c r="K151" s="1"/>
     </row>
-    <row r="152" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>151</v>
       </c>
@@ -8684,20 +8686,20 @@
         <v>0.95287695527076699</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>869</v>
+        <v>735</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>401</v>
+        <v>637</v>
       </c>
       <c r="I152" s="4">
-        <v>0.57855802774429299</v>
+        <v>0.50698903203010504</v>
       </c>
       <c r="J152" s="4">
-        <v>0.99556875228881803</v>
+        <v>0.99778437614440896</v>
       </c>
       <c r="K152" s="1"/>
     </row>
-    <row r="153" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>152</v>
       </c>
@@ -8717,10 +8719,10 @@
         <v>0.84029439091682401</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>399</v>
+        <v>879</v>
       </c>
       <c r="I153" s="4">
         <v>0.91852995753288202</v>
@@ -8730,7 +8732,7 @@
       </c>
       <c r="K153" s="1"/>
     </row>
-    <row r="154" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>153</v>
       </c>
@@ -8763,7 +8765,7 @@
       </c>
       <c r="K154" s="1"/>
     </row>
-    <row r="155" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>154</v>
       </c>
@@ -8783,20 +8785,17 @@
         <v>0.78962790966033902</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="H155" s="3" t="s">
-        <v>403</v>
+        <v>95</v>
       </c>
       <c r="I155" s="4">
-        <v>0.78962790966033902</v>
+        <v>0.85558956861495905</v>
       </c>
       <c r="J155" s="4">
-        <v>0.78962790966033902</v>
+        <v>0.16610771417617701</v>
       </c>
       <c r="K155" s="1"/>
     </row>
-    <row r="156" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>155</v>
       </c>
@@ -8816,20 +8815,20 @@
         <v>0.85919914642969697</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>870</v>
+        <v>736</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>722</v>
+        <v>880</v>
       </c>
       <c r="I156" s="4">
-        <v>0.97909218072891202</v>
+        <v>0.80663567036390305</v>
       </c>
       <c r="J156" s="4">
-        <v>0.772245973348617</v>
+        <v>0.83829134702682495</v>
       </c>
       <c r="K156" s="1"/>
     </row>
-    <row r="157" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>156</v>
       </c>
@@ -8849,20 +8848,20 @@
         <v>0.83693214257558102</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>871</v>
+        <v>737</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>723</v>
+        <v>881</v>
       </c>
       <c r="I157" s="4">
-        <v>0.74394666155179301</v>
+        <v>0.92395414908727003</v>
       </c>
       <c r="J157" s="4">
-        <v>0.80133199691772405</v>
+        <v>0.815301607052485</v>
       </c>
       <c r="K157" s="1"/>
     </row>
-    <row r="158" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>157</v>
       </c>
@@ -8882,20 +8881,20 @@
         <v>0.68388239542643203</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>872</v>
+        <v>738</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>724</v>
+        <v>882</v>
       </c>
       <c r="I158" s="4">
-        <v>0.56436455249786299</v>
+        <v>0.68674097458521499</v>
       </c>
       <c r="J158" s="4">
-        <v>0.42072222630182898</v>
+        <v>0.68388239542643203</v>
       </c>
       <c r="K158" s="1"/>
     </row>
-    <row r="159" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>158</v>
       </c>
@@ -8915,20 +8914,20 @@
         <v>0.821882784366607</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>873</v>
+        <v>739</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>725</v>
+        <v>883</v>
       </c>
       <c r="I159" s="4">
         <v>0.92246052622795105</v>
       </c>
       <c r="J159" s="4">
-        <v>0.82638618350028903</v>
+        <v>0.78879874944686801</v>
       </c>
       <c r="K159" s="1"/>
     </row>
-    <row r="160" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>159</v>
       </c>
@@ -8948,20 +8947,17 @@
         <v>0.21724188327789301</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="H160" s="3" t="s">
-        <v>726</v>
+        <v>740</v>
       </c>
       <c r="I160" s="4">
-        <v>0.21724188327789301</v>
+        <v>0.265953779220581</v>
       </c>
       <c r="J160" s="4">
-        <v>0.21724188327789301</v>
+        <v>0.23072980344295499</v>
       </c>
       <c r="K160" s="1"/>
     </row>
-    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8981,20 +8977,20 @@
         <v>0.54969921708106995</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>874</v>
+        <v>623</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>616</v>
+        <v>884</v>
       </c>
       <c r="I161" s="4">
         <v>0.56829671561717898</v>
       </c>
       <c r="J161" s="4">
-        <v>0.59009625017642897</v>
+        <v>0.55892637372016896</v>
       </c>
       <c r="K161" s="1"/>
     </row>
-    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>161</v>
       </c>
@@ -9015,7 +9011,7 @@
       </c>
       <c r="K162" s="1"/>
     </row>
-    <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>162</v>
       </c>
@@ -9035,20 +9031,20 @@
         <v>0.76370081305503801</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>875</v>
+        <v>741</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>422</v>
+        <v>633</v>
       </c>
       <c r="I163" s="4">
         <v>0.76370081305503801</v>
       </c>
       <c r="J163" s="4">
-        <v>0.76370081305503801</v>
+        <v>0.73226039111614205</v>
       </c>
       <c r="K163" s="1"/>
     </row>
-    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>163</v>
       </c>
@@ -9068,20 +9064,20 @@
         <v>0.90734491745630896</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>876</v>
+        <v>742</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>727</v>
+        <v>885</v>
       </c>
       <c r="I164" s="4">
-        <v>0.90279763936996404</v>
+        <v>0.90350355207919997</v>
       </c>
       <c r="J164" s="4">
-        <v>0.99999998013178504</v>
+        <v>0.99999998509883803</v>
       </c>
       <c r="K164" s="1"/>
     </row>
-    <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>164</v>
       </c>
@@ -9101,20 +9097,20 @@
         <v>0.35858868807554201</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>877</v>
+        <v>743</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>428</v>
+        <v>886</v>
       </c>
       <c r="I165" s="4">
-        <v>0.37945961207151402</v>
+        <v>0.36848568171262702</v>
       </c>
       <c r="J165" s="4">
-        <v>0.35858868807554201</v>
+        <v>0.57855385541915805</v>
       </c>
       <c r="K165" s="1"/>
     </row>
-    <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>165</v>
       </c>
@@ -9134,20 +9130,20 @@
         <v>0.499628946185112</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>878</v>
+        <v>744</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>728</v>
+        <v>887</v>
       </c>
       <c r="I166" s="4">
-        <v>0.65726982057094496</v>
+        <v>0.66887445747852303</v>
       </c>
       <c r="J166" s="4">
-        <v>0.52737784385681097</v>
+        <v>0.52967828512191695</v>
       </c>
       <c r="K166" s="1"/>
     </row>
-    <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>166</v>
       </c>
@@ -9180,7 +9176,7 @@
       </c>
       <c r="K167" s="1"/>
     </row>
-    <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>167</v>
       </c>
@@ -9213,7 +9209,7 @@
       </c>
       <c r="K168" s="1"/>
     </row>
-    <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>168</v>
       </c>
@@ -9233,20 +9229,20 @@
         <v>0.65049131214618605</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>879</v>
+        <v>745</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>617</v>
+        <v>888</v>
       </c>
       <c r="I169" s="4">
-        <v>0.83321585257848096</v>
+        <v>0.83839756250381403</v>
       </c>
       <c r="J169" s="4">
-        <v>0.82283668716748504</v>
+        <v>0.70033439993858304</v>
       </c>
       <c r="K169" s="1"/>
     </row>
-    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>169</v>
       </c>
@@ -9266,20 +9262,20 @@
         <v>0.49282786250114402</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>626</v>
+        <v>746</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>729</v>
+        <v>889</v>
       </c>
       <c r="I170" s="4">
-        <v>1</v>
+        <v>0.49282786250114402</v>
       </c>
       <c r="J170" s="4">
-        <v>0.478924751281738</v>
+        <v>0.51235210895538297</v>
       </c>
       <c r="K170" s="1"/>
     </row>
-    <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>170</v>
       </c>
@@ -9299,20 +9295,20 @@
         <v>0.52744399011135101</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>880</v>
+        <v>747</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>440</v>
+        <v>890</v>
       </c>
       <c r="I171" s="4">
-        <v>0.62381896376609802</v>
+        <v>0.89025974273681596</v>
       </c>
       <c r="J171" s="4">
-        <v>0.52744399011135101</v>
+        <v>0.525241538882255</v>
       </c>
       <c r="K171" s="1"/>
     </row>
-    <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>171</v>
       </c>
@@ -9332,20 +9328,20 @@
         <v>0.75056758522987299</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>881</v>
+        <v>748</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>730</v>
+        <v>891</v>
       </c>
       <c r="I172" s="4">
-        <v>0.57812848687171903</v>
+        <v>0.78829234838485696</v>
       </c>
       <c r="J172" s="4">
-        <v>0.732281774282455</v>
+        <v>0.65869569778442305</v>
       </c>
       <c r="K172" s="1"/>
     </row>
-    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>172</v>
       </c>
@@ -9365,20 +9361,20 @@
         <v>0.60511171817779497</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>882</v>
+        <v>749</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>446</v>
+        <v>892</v>
       </c>
       <c r="I173" s="4">
-        <v>0.63590085506439198</v>
+        <v>0.77440625429153398</v>
       </c>
       <c r="J173" s="4">
-        <v>0.60511171817779497</v>
+        <v>0.79699452718098895</v>
       </c>
       <c r="K173" s="1"/>
     </row>
-    <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>173</v>
       </c>
@@ -9411,7 +9407,7 @@
       </c>
       <c r="K174" s="1"/>
     </row>
-    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>174</v>
       </c>
@@ -9431,20 +9427,20 @@
         <v>0.861017346382141</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>36</v>
+        <v>750</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="I175" s="4">
-        <v>0.83233422040939298</v>
+        <v>0.91785529255867004</v>
       </c>
       <c r="J175" s="4">
         <v>0.94921699166297901</v>
       </c>
       <c r="K175" s="1"/>
     </row>
-    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>175</v>
       </c>
@@ -9464,20 +9460,20 @@
         <v>0.70332835912704394</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>883</v>
+        <v>751</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>731</v>
+        <v>893</v>
       </c>
       <c r="I176" s="4">
-        <v>0.69283046126365599</v>
+        <v>0.70927947163581795</v>
       </c>
       <c r="J176" s="4">
-        <v>0.73449078947305602</v>
+        <v>0.72013144493102998</v>
       </c>
       <c r="K176" s="1"/>
     </row>
-    <row r="177" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>176</v>
       </c>
@@ -9497,20 +9493,20 @@
         <v>0.74473161498705498</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>884</v>
+        <v>752</v>
       </c>
       <c r="H177" s="3" t="s">
         <v>454</v>
       </c>
       <c r="I177" s="4">
-        <v>0.83469861745834295</v>
+        <v>0.85560641686121597</v>
       </c>
       <c r="J177" s="4">
         <v>0.74473161498705498</v>
       </c>
       <c r="K177" s="1"/>
     </row>
-    <row r="178" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>177</v>
       </c>
@@ -9543,7 +9539,7 @@
       </c>
       <c r="K178" s="1"/>
     </row>
-    <row r="179" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>178</v>
       </c>
@@ -9563,20 +9559,20 @@
         <v>0.99778434634208601</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>885</v>
+        <v>753</v>
       </c>
       <c r="H179" s="3" t="s">
         <v>458</v>
       </c>
       <c r="I179" s="4">
-        <v>0.79118332266807501</v>
+        <v>0.83819627761840798</v>
       </c>
       <c r="J179" s="4">
         <v>0.99778434634208601</v>
       </c>
       <c r="K179" s="1"/>
     </row>
-    <row r="180" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>179</v>
       </c>
@@ -9596,20 +9592,20 @@
         <v>1</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>732</v>
+        <v>73</v>
       </c>
       <c r="I180" s="4">
-        <v>1</v>
+        <v>0.96863827109336798</v>
       </c>
       <c r="J180" s="4">
-        <v>0.87157395482063205</v>
+        <v>0.99999997019767695</v>
       </c>
       <c r="K180" s="1"/>
     </row>
-    <row r="181" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>180</v>
       </c>
@@ -9629,20 +9625,20 @@
         <v>0.93727654218673695</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>886</v>
+        <v>754</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>606</v>
+        <v>894</v>
       </c>
       <c r="I181" s="4">
-        <v>0.42984095215797402</v>
+        <v>0.40625989437103199</v>
       </c>
       <c r="J181" s="4">
-        <v>0.74314790964126498</v>
+        <v>0.41095736622810303</v>
       </c>
       <c r="K181" s="1"/>
     </row>
-    <row r="182" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>181</v>
       </c>
@@ -9662,20 +9658,20 @@
         <v>0.79156926274299599</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>887</v>
+        <v>755</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>461</v>
+        <v>895</v>
       </c>
       <c r="I182" s="4">
+        <v>0.812550008296966</v>
+      </c>
+      <c r="J182" s="4">
         <v>0.78441435098648005</v>
       </c>
-      <c r="J182" s="4">
-        <v>0.76020756363868702</v>
-      </c>
       <c r="K182" s="1"/>
     </row>
-    <row r="183" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>182</v>
       </c>
@@ -9695,20 +9691,20 @@
         <v>0.93486985564231795</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>888</v>
+        <v>756</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>733</v>
+        <v>896</v>
       </c>
       <c r="I183" s="4">
-        <v>0.57800351828336705</v>
+        <v>0.96001252532005299</v>
       </c>
       <c r="J183" s="4">
         <v>0.98381638526916504</v>
       </c>
       <c r="K183" s="1"/>
     </row>
-    <row r="184" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>183</v>
       </c>
@@ -9728,20 +9724,20 @@
         <v>0.89691883325576705</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>889</v>
+        <v>757</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>734</v>
+        <v>897</v>
       </c>
       <c r="I184" s="4">
-        <v>0.31683675199747002</v>
+        <v>0.497059345245361</v>
       </c>
       <c r="J184" s="4">
-        <v>0.92604601383209195</v>
+        <v>0.64558558166027002</v>
       </c>
       <c r="K184" s="1"/>
     </row>
-    <row r="185" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>184</v>
       </c>
@@ -9761,20 +9757,20 @@
         <v>0.60584956407546997</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>71</v>
+        <v>758</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>735</v>
+        <v>638</v>
       </c>
       <c r="I185" s="4">
-        <v>0.81005930900573697</v>
+        <v>0.66044718027114802</v>
       </c>
       <c r="J185" s="4">
-        <v>0.50697100162506104</v>
+        <v>0.58845716714858998</v>
       </c>
       <c r="K185" s="1"/>
     </row>
-    <row r="186" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>185</v>
       </c>
@@ -9794,7 +9790,7 @@
         <v>1</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>890</v>
+        <v>24</v>
       </c>
       <c r="H186" s="3" t="s">
         <v>24</v>
@@ -9807,7 +9803,7 @@
       </c>
       <c r="K186" s="1"/>
     </row>
-    <row r="187" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>186</v>
       </c>
@@ -9827,20 +9823,20 @@
         <v>0.65561620394388798</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>891</v>
+        <v>759</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>736</v>
+        <v>898</v>
       </c>
       <c r="I187" s="4">
-        <v>0.76776657501856405</v>
+        <v>0.75048567851384396</v>
       </c>
       <c r="J187" s="4">
-        <v>0.80012959241866999</v>
+        <v>0.79722893238067605</v>
       </c>
       <c r="K187" s="1"/>
     </row>
-    <row r="188" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>187</v>
       </c>
@@ -9860,20 +9856,20 @@
         <v>0.78640063603719002</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>892</v>
+        <v>760</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>737</v>
+        <v>899</v>
       </c>
       <c r="I188" s="4">
         <v>0.77240231037139895</v>
       </c>
       <c r="J188" s="4">
-        <v>0.76143495241800896</v>
+        <v>0.87326428294181802</v>
       </c>
       <c r="K188" s="1"/>
     </row>
-    <row r="189" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>188</v>
       </c>
@@ -9893,20 +9889,20 @@
         <v>0.77247613668441695</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>893</v>
+        <v>631</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>738</v>
+        <v>900</v>
       </c>
       <c r="I189" s="4">
-        <v>0.74396516879399599</v>
+        <v>0.90028945604960098</v>
       </c>
       <c r="J189" s="4">
-        <v>0.872374494870503</v>
+        <v>0.65302276611328103</v>
       </c>
       <c r="K189" s="1"/>
     </row>
-    <row r="190" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>189</v>
       </c>
@@ -9926,20 +9922,20 @@
         <v>0.84087582429249996</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>894</v>
+        <v>761</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>739</v>
+        <v>901</v>
       </c>
       <c r="I190" s="4">
-        <v>0.75516965985298101</v>
+        <v>0.81356045603752103</v>
       </c>
       <c r="J190" s="4">
-        <v>0.93404020865758197</v>
+        <v>0.84732416272163302</v>
       </c>
       <c r="K190" s="1"/>
     </row>
-    <row r="191" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>190</v>
       </c>
@@ -9959,20 +9955,20 @@
         <v>0.68158371746540003</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>895</v>
+        <v>762</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>740</v>
+        <v>613</v>
       </c>
       <c r="I191" s="4">
-        <v>0.62501518428325598</v>
+        <v>0.64111906290054299</v>
       </c>
       <c r="J191" s="4">
         <v>0.57200919091701496</v>
       </c>
       <c r="K191" s="1"/>
     </row>
-    <row r="192" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>191</v>
       </c>
@@ -9992,20 +9988,20 @@
         <v>0.876129150390625</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>896</v>
+        <v>614</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>741</v>
+        <v>639</v>
       </c>
       <c r="I192" s="4">
-        <v>0.96425279974937395</v>
+        <v>0.96040034294128396</v>
       </c>
       <c r="J192" s="4">
         <v>0.96040034294128396</v>
       </c>
       <c r="K192" s="1"/>
     </row>
-    <row r="193" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>192</v>
       </c>
@@ -10025,20 +10021,20 @@
         <v>0.56382494171460396</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>897</v>
+        <v>763</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>742</v>
+        <v>902</v>
       </c>
       <c r="I193" s="4">
-        <v>0.77389661471048898</v>
+        <v>0.79140710830688399</v>
       </c>
       <c r="J193" s="4">
-        <v>0.77853912115097001</v>
+        <v>0.70236269632975201</v>
       </c>
       <c r="K193" s="1"/>
     </row>
-    <row r="194" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>193</v>
       </c>
@@ -10058,20 +10054,20 @@
         <v>0.47462517023086498</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>898</v>
+        <v>764</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
       <c r="I194" s="4">
-        <v>0.86333286762237504</v>
+        <v>0.54929412901401498</v>
       </c>
       <c r="J194" s="4">
-        <v>0.50833638012409199</v>
+        <v>0.66044718027114802</v>
       </c>
       <c r="K194" s="1"/>
     </row>
-    <row r="195" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>194</v>
       </c>
@@ -10091,20 +10087,20 @@
         <v>0.57761778434117605</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>899</v>
+        <v>765</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>744</v>
+        <v>640</v>
       </c>
       <c r="I195" s="4">
-        <v>0.81349778175354004</v>
+        <v>0.92139768600463801</v>
       </c>
       <c r="J195" s="4">
-        <v>0.63923615217208796</v>
+        <v>0.743034640947977</v>
       </c>
       <c r="K195" s="1"/>
     </row>
-    <row r="196" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>195</v>
       </c>
@@ -10124,20 +10120,20 @@
         <v>0.80872301260630197</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>900</v>
+        <v>766</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>745</v>
+        <v>903</v>
       </c>
       <c r="I196" s="4">
-        <v>0.65599446495374003</v>
+        <v>0.70987850427627497</v>
       </c>
       <c r="J196" s="4">
-        <v>0.779406865437825</v>
+        <v>0.70408632357915202</v>
       </c>
       <c r="K196" s="1"/>
     </row>
-    <row r="197" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>196</v>
       </c>
@@ -10157,20 +10153,20 @@
         <v>0.70599542061487797</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>901</v>
+        <v>767</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>746</v>
+        <v>904</v>
       </c>
       <c r="I197" s="4">
-        <v>0.57356438040733304</v>
+        <v>0.66743598381678204</v>
       </c>
       <c r="J197" s="4">
-        <v>0.76046458880106604</v>
+        <v>0.54995983839035001</v>
       </c>
       <c r="K197" s="1"/>
     </row>
-    <row r="198" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>197</v>
       </c>
@@ -10190,20 +10186,20 @@
         <v>0.96863827109336798</v>
       </c>
       <c r="G198" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="H198" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="H198" s="3" t="s">
-        <v>747</v>
       </c>
       <c r="I198" s="4">
         <v>0.96863827109336798</v>
       </c>
       <c r="J198" s="4">
-        <v>0.89691883325576705</v>
+        <v>0.96863827109336798</v>
       </c>
       <c r="K198" s="1"/>
     </row>
-    <row r="199" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>198</v>
       </c>
@@ -10236,7 +10232,7 @@
       </c>
       <c r="K199" s="1"/>
     </row>
-    <row r="200" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>199</v>
       </c>
@@ -10256,20 +10252,20 @@
         <v>0.19616658985614699</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H200" s="3" t="s">
         <v>507</v>
       </c>
       <c r="I200" s="4">
-        <v>0.148445203900337</v>
+        <v>0.19616658985614699</v>
       </c>
       <c r="J200" s="4">
         <v>0.19616658985614699</v>
       </c>
       <c r="K200" s="1"/>
     </row>
-    <row r="201" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>200</v>
       </c>
@@ -10289,20 +10285,20 @@
         <v>0.313568234443664</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>902</v>
+        <v>510</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>748</v>
+        <v>905</v>
       </c>
       <c r="I201" s="4">
-        <v>0.41613146662711997</v>
+        <v>0.313568234443664</v>
       </c>
       <c r="J201" s="4">
-        <v>0.30647212266921903</v>
+        <v>0.34710678458213801</v>
       </c>
       <c r="K201" s="1"/>
     </row>
-    <row r="202" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>201</v>
       </c>
@@ -10322,20 +10318,20 @@
         <v>0.79997855424880904</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>903</v>
+        <v>768</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>749</v>
+        <v>906</v>
       </c>
       <c r="I202" s="4">
-        <v>0.69870339334011</v>
+        <v>0.78182652592658997</v>
       </c>
       <c r="J202" s="4">
-        <v>0.79834912220637</v>
+        <v>0.73378365486860198</v>
       </c>
       <c r="K202" s="1"/>
     </row>
-    <row r="203" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>202</v>
       </c>
@@ -10368,7 +10364,7 @@
       </c>
       <c r="K203" s="1"/>
     </row>
-    <row r="204" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>203</v>
       </c>
@@ -10388,20 +10384,20 @@
         <v>0.97460852563381195</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>904</v>
+        <v>769</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>750</v>
+        <v>515</v>
       </c>
       <c r="I204" s="4">
-        <v>0.90279766917228699</v>
+        <v>0.94523686170578003</v>
       </c>
       <c r="J204" s="4">
-        <v>0.87202546000480596</v>
+        <v>0.95892767608165697</v>
       </c>
       <c r="K204" s="1"/>
     </row>
-    <row r="205" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>204</v>
       </c>
@@ -10421,20 +10417,20 @@
         <v>0.63155215978622403</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>286</v>
+        <v>163</v>
       </c>
       <c r="H205" s="3" t="s">
         <v>163</v>
       </c>
       <c r="I205" s="4">
-        <v>0.63155215978622403</v>
+        <v>0.58313858509063698</v>
       </c>
       <c r="J205" s="4">
         <v>0.58313858509063698</v>
       </c>
       <c r="K205" s="1"/>
     </row>
-    <row r="206" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>205</v>
       </c>
@@ -10454,20 +10450,20 @@
         <v>0.823154017329216</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>905</v>
+        <v>770</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>751</v>
+        <v>907</v>
       </c>
       <c r="I206" s="4">
-        <v>0.77389653523763002</v>
+        <v>0.84355524182319597</v>
       </c>
       <c r="J206" s="4">
-        <v>0.78819157679875695</v>
+        <v>0.84003587067127194</v>
       </c>
       <c r="K206" s="1"/>
     </row>
-    <row r="207" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>206</v>
       </c>
@@ -10487,20 +10483,20 @@
         <v>0.863695949316024</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>627</v>
+        <v>524</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="I207" s="4">
-        <v>0.92210766673087996</v>
+        <v>0.863695949316024</v>
       </c>
       <c r="J207" s="4">
         <v>0.92210766673087996</v>
       </c>
       <c r="K207" s="1"/>
     </row>
-    <row r="208" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>207</v>
       </c>
@@ -10520,20 +10516,20 @@
         <v>0.78287658095359802</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>906</v>
+        <v>771</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>686</v>
+        <v>908</v>
       </c>
       <c r="I208" s="4">
-        <v>0.74710702896118097</v>
+        <v>0.81577607989311196</v>
       </c>
       <c r="J208" s="4">
-        <v>0.74405092000961304</v>
+        <v>0.99999997019767695</v>
       </c>
       <c r="K208" s="1"/>
     </row>
-    <row r="209" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>208</v>
       </c>
@@ -10566,7 +10562,7 @@
       </c>
       <c r="K209" s="1"/>
     </row>
-    <row r="210" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>209</v>
       </c>
@@ -10586,20 +10582,20 @@
         <v>1</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>907</v>
+        <v>772</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>24</v>
+        <v>909</v>
       </c>
       <c r="I210" s="4">
-        <v>0.79960411787033003</v>
+        <v>0.83522608876228299</v>
       </c>
       <c r="J210" s="4">
-        <v>1</v>
+        <v>0.85651206970214799</v>
       </c>
       <c r="K210" s="1"/>
     </row>
-    <row r="211" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>210</v>
       </c>
@@ -10619,20 +10615,20 @@
         <v>0.76341502666473304</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>908</v>
+        <v>773</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>752</v>
+        <v>910</v>
       </c>
       <c r="I211" s="4">
-        <v>0.784455627202987</v>
+        <v>0.77873925864696503</v>
       </c>
       <c r="J211" s="4">
-        <v>0.65316764116287196</v>
+        <v>0.80646898349126095</v>
       </c>
       <c r="K211" s="1"/>
     </row>
-    <row r="212" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>211</v>
       </c>
@@ -10652,20 +10648,20 @@
         <v>0.77475973963737399</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>909</v>
+        <v>774</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>536</v>
+        <v>641</v>
       </c>
       <c r="I212" s="4">
-        <v>0.62144425511360102</v>
+        <v>0.65423038601875305</v>
       </c>
       <c r="J212" s="4">
-        <v>0.77475973963737399</v>
+        <v>0.81966716051101596</v>
       </c>
       <c r="K212" s="1"/>
     </row>
-    <row r="213" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>212</v>
       </c>
@@ -10685,20 +10681,20 @@
         <v>0.83881008625030495</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>910</v>
+        <v>775</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>5</v>
+        <v>539</v>
       </c>
       <c r="I213" s="4">
-        <v>0.64698153361678101</v>
+        <v>0.78571063280105502</v>
       </c>
       <c r="J213" s="4">
-        <v>0.51243741810321797</v>
+        <v>0.83881008625030495</v>
       </c>
       <c r="K213" s="1"/>
     </row>
-    <row r="214" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>213</v>
       </c>
@@ -10721,17 +10717,17 @@
         <v>593</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>618</v>
+        <v>911</v>
       </c>
       <c r="I214" s="4">
         <v>0.67951172590255704</v>
       </c>
       <c r="J214" s="4">
-        <v>1.00000023841857</v>
+        <v>0.74075955152511597</v>
       </c>
       <c r="K214" s="1"/>
     </row>
-    <row r="215" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>214</v>
       </c>
@@ -10751,20 +10747,20 @@
         <v>0.58845824003219604</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>911</v>
+        <v>776</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>753</v>
+        <v>912</v>
       </c>
       <c r="I215" s="4">
-        <v>0.80753815174102705</v>
+        <v>0.77228042483329695</v>
       </c>
       <c r="J215" s="4">
-        <v>0.59018838405609098</v>
+        <v>0.75249901413917497</v>
       </c>
       <c r="K215" s="1"/>
     </row>
-    <row r="216" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>215</v>
       </c>
@@ -10784,20 +10780,20 @@
         <v>0.99999997019767695</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>628</v>
+        <v>777</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>548</v>
+        <v>913</v>
       </c>
       <c r="I216" s="4">
-        <v>0.96495440602302496</v>
+        <v>0.83469861745834295</v>
       </c>
       <c r="J216" s="4">
-        <v>0.99999997019767695</v>
+        <v>0.85560641686121597</v>
       </c>
       <c r="K216" s="1"/>
     </row>
-    <row r="217" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>216</v>
       </c>
@@ -10817,20 +10813,20 @@
         <v>0.84066373109817505</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>912</v>
+        <v>750</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>754</v>
+        <v>914</v>
       </c>
       <c r="I217" s="4">
-        <v>0.80700710415840105</v>
+        <v>0.91785529255867004</v>
       </c>
       <c r="J217" s="4">
-        <v>0.96863827109336798</v>
+        <v>0.87202543020248402</v>
       </c>
       <c r="K217" s="1"/>
     </row>
-    <row r="218" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>217</v>
       </c>
@@ -10850,20 +10846,20 @@
         <v>0.84569850564002902</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>629</v>
+        <v>553</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>755</v>
+        <v>915</v>
       </c>
       <c r="I218" s="4">
-        <v>0.70787286758422796</v>
+        <v>0.84569850564002902</v>
       </c>
       <c r="J218" s="4">
-        <v>0.7080659866333</v>
+        <v>0.99176207184791498</v>
       </c>
       <c r="K218" s="1"/>
     </row>
-    <row r="219" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>218</v>
       </c>
@@ -10883,20 +10879,20 @@
         <v>0.80681896209716797</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>913</v>
+        <v>778</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>756</v>
+        <v>916</v>
       </c>
       <c r="I219" s="4">
-        <v>0.97899578015009503</v>
+        <v>0.95364904403686501</v>
       </c>
       <c r="J219" s="4">
-        <v>0.63587400317192</v>
+        <v>0.76479812463124597</v>
       </c>
       <c r="K219" s="1"/>
     </row>
-    <row r="220" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>219</v>
       </c>
@@ -10916,20 +10912,20 @@
         <v>0.44760090112686102</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>914</v>
+        <v>779</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>757</v>
+        <v>917</v>
       </c>
       <c r="I220" s="4">
-        <v>0.48561486601829501</v>
+        <v>0.61330941319465604</v>
       </c>
       <c r="J220" s="4">
-        <v>0.57296532392501798</v>
+        <v>0.60820335149765004</v>
       </c>
       <c r="K220" s="1"/>
     </row>
-    <row r="221" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>220</v>
       </c>
@@ -10949,20 +10945,20 @@
         <v>0.99778437614440896</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>915</v>
+        <v>569</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>758</v>
+        <v>918</v>
       </c>
       <c r="I221" s="4">
-        <v>0.99778437614440896</v>
+        <v>0.95287695527076699</v>
       </c>
       <c r="J221" s="4">
         <v>0.99778437614440896</v>
       </c>
       <c r="K221" s="1"/>
     </row>
-    <row r="222" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>221</v>
       </c>
@@ -10982,20 +10978,20 @@
         <v>0.71404698491096497</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>916</v>
+        <v>565</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>565</v>
+        <v>422</v>
       </c>
       <c r="I222" s="4">
-        <v>0.73500726620356205</v>
+        <v>0.71404698491096497</v>
       </c>
       <c r="J222" s="4">
-        <v>0.71404698491096497</v>
+        <v>0.76370081305503801</v>
       </c>
       <c r="K222" s="1"/>
     </row>
-    <row r="223" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>222</v>
       </c>
@@ -11014,18 +11010,15 @@
       <c r="G223" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="H223" s="3" t="s">
-        <v>566</v>
-      </c>
       <c r="I223" s="4">
         <v>0.124797150492668</v>
       </c>
       <c r="J223" s="4">
-        <v>0.124797150492668</v>
+        <v>4.5313309878110802E-2</v>
       </c>
       <c r="K223" s="1"/>
     </row>
-    <row r="224" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>223</v>
       </c>
@@ -11048,17 +11041,17 @@
         <v>593</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>759</v>
+        <v>542</v>
       </c>
       <c r="I224" s="4">
         <v>0.67951172590255704</v>
       </c>
       <c r="J224" s="4">
-        <v>0.71338069438934304</v>
+        <v>0.71302413940429599</v>
       </c>
       <c r="K224" s="1"/>
     </row>
-    <row r="225" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>224</v>
       </c>
@@ -11078,20 +11071,20 @@
         <v>0.95287695527076699</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="H225" s="3" t="s">
         <v>562</v>
       </c>
       <c r="I225" s="4">
-        <v>0.95287695527076699</v>
+        <v>0.99778437614440896</v>
       </c>
       <c r="J225" s="4">
         <v>0.99778437614440896</v>
       </c>
       <c r="K225" s="1"/>
     </row>
-    <row r="226" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>225</v>
       </c>
@@ -11111,20 +11104,20 @@
         <v>0.75269122918446796</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>917</v>
+        <v>780</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>760</v>
+        <v>919</v>
       </c>
       <c r="I226" s="4">
-        <v>0.88992542028427102</v>
+        <v>0.78740038474400798</v>
       </c>
       <c r="J226" s="4">
-        <v>0.75972062349319402</v>
+        <v>0.82126718759536699</v>
       </c>
       <c r="K226" s="1"/>
     </row>
-    <row r="227" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>226</v>
       </c>
@@ -11144,20 +11137,20 @@
         <v>0.76984161138534501</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>761</v>
+        <v>920</v>
       </c>
       <c r="I227" s="4">
-        <v>0.968331158161163</v>
+        <v>1.00000011920928</v>
       </c>
       <c r="J227" s="4">
-        <v>0.66000556945800704</v>
+        <v>0.57961851358413696</v>
       </c>
       <c r="K227" s="1"/>
     </row>
-    <row r="228" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>227</v>
       </c>
@@ -11180,17 +11173,17 @@
         <v>575</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>762</v>
+        <v>642</v>
       </c>
       <c r="I228" s="4">
         <v>0.96863833069801297</v>
       </c>
       <c r="J228" s="4">
-        <v>0.94546279311180104</v>
+        <v>0.78340962529182401</v>
       </c>
       <c r="K228" s="1"/>
     </row>
-    <row r="229" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>228</v>
       </c>
@@ -11210,20 +11203,20 @@
         <v>0.73258450627326899</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>918</v>
+        <v>781</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>763</v>
+        <v>921</v>
       </c>
       <c r="I229" s="4">
-        <v>0.89317061503728201</v>
+        <v>0.84124239285786895</v>
       </c>
       <c r="J229" s="4">
-        <v>0.677164812882741</v>
+        <v>0.85162758827209395</v>
       </c>
       <c r="K229" s="1"/>
     </row>
-    <row r="230" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>229</v>
       </c>
@@ -11243,20 +11236,20 @@
         <v>0.62709197402000405</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>919</v>
+        <v>782</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>764</v>
+        <v>616</v>
       </c>
       <c r="I230" s="4">
-        <v>0.605968236923217</v>
+        <v>0.824435055255889</v>
       </c>
       <c r="J230" s="4">
         <v>0.60529243946075395</v>
       </c>
       <c r="K230" s="1"/>
     </row>
-    <row r="231" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>230</v>
       </c>
@@ -11276,20 +11269,20 @@
         <v>0.49900649487972198</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>920</v>
+        <v>783</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>619</v>
+        <v>922</v>
       </c>
       <c r="I231" s="4">
-        <v>0.43451306223869302</v>
+        <v>0.68596348166465704</v>
       </c>
       <c r="J231" s="4">
-        <v>0.26613069325685501</v>
+        <v>0.41243501752614897</v>
       </c>
       <c r="K231" s="1"/>
     </row>
-    <row r="232" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>231</v>
       </c>
@@ -11309,20 +11302,20 @@
         <v>0.96863827109336798</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>921</v>
+        <v>784</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>765</v>
+        <v>923</v>
       </c>
       <c r="I232" s="4">
+        <v>0.86967778205871504</v>
+      </c>
+      <c r="J232" s="4">
         <v>0.97909216086069695</v>
       </c>
-      <c r="J232" s="4">
-        <v>0.99999996026356996</v>
-      </c>
       <c r="K232" s="1"/>
     </row>
-    <row r="233" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>232</v>
       </c>
@@ -11345,17 +11338,17 @@
         <v>33</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="I233" s="4">
         <v>0.643765568733215</v>
       </c>
       <c r="J233" s="4">
-        <v>0.67762017250061002</v>
+        <v>0.643765568733215</v>
       </c>
       <c r="K233" s="1"/>
     </row>
-    <row r="234" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>233</v>
       </c>
@@ -11375,20 +11368,20 @@
         <v>0.53621900081634499</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>922</v>
+        <v>785</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>766</v>
+        <v>624</v>
       </c>
       <c r="I234" s="4">
+        <v>0.70560967922210605</v>
+      </c>
+      <c r="J234" s="4">
         <v>0.53621900081634499</v>
       </c>
-      <c r="J234" s="4">
-        <v>0.61657476425170898</v>
-      </c>
       <c r="K234" s="1"/>
     </row>
-    <row r="235" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>234</v>
       </c>
@@ -11421,7 +11414,7 @@
       </c>
       <c r="K235" s="1"/>
     </row>
-    <row r="236" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>235</v>
       </c>
@@ -11441,20 +11434,20 @@
         <v>0.82942995429039001</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>923</v>
+        <v>786</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>767</v>
+        <v>924</v>
       </c>
       <c r="I236" s="4">
-        <v>0.66056671738624495</v>
+        <v>0.83906240761280004</v>
       </c>
       <c r="J236" s="4">
-        <v>0.80467974394559805</v>
+        <v>0.97460862994193997</v>
       </c>
       <c r="K236" s="1"/>
     </row>
-    <row r="237" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>236</v>
       </c>
@@ -11471,20 +11464,20 @@
         <v>0.17694132030010201</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>593</v>
+        <v>542</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>542</v>
+        <v>607</v>
       </c>
       <c r="I237" s="4">
-        <v>0.67951172590255704</v>
+        <v>0.71302413940429599</v>
       </c>
       <c r="J237" s="4">
-        <v>0.71302413940429599</v>
+        <v>1.00000023841857</v>
       </c>
       <c r="K237" s="1"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.4">
       <c r="E239" s="5" t="s">
         <v>597</v>
       </c>
@@ -11498,7 +11491,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.4">
       <c r="E240" s="4">
         <f>COUNTIF(E2:E237, "&gt;=0.85")</f>
         <v>68</v>
@@ -11509,75 +11502,43 @@
       </c>
       <c r="I240" s="4">
         <f>COUNTIF(I2:I237, "&gt;=0.85")</f>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J240" s="4">
         <f>COUNTIF(J2:J237, "&gt;=0.85")</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="242" spans="5:10" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="242" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E242" s="5" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="J242" s="5" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="243" spans="5:10" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="243" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E243" s="4">
-        <f>COUNTIF(E2:E237, "&gt;=0.65")</f>
-        <v>170</v>
-      </c>
-      <c r="F243" s="4">
-        <f>COUNTIF(F2:F237, "&gt;=0.65")</f>
-        <v>179</v>
-      </c>
-      <c r="I243" s="4">
-        <f>COUNTIF(I2:I237, "&gt;=0.65")</f>
-        <v>171</v>
-      </c>
-      <c r="J243" s="4">
-        <f>COUNTIF(J2:J237, "&gt;=0.65")</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="245" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E245" s="5" t="s">
-        <v>924</v>
-      </c>
-      <c r="F245" s="5" t="s">
-        <v>924</v>
-      </c>
-      <c r="I245" s="5" t="s">
-        <v>924</v>
-      </c>
-      <c r="J245" s="5" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="246" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E246" s="4">
         <f>AVERAGE(E2:E237)</f>
         <v>0.74288041415301853</v>
       </c>
-      <c r="F246" s="4">
+      <c r="F243" s="4">
         <f>AVERAGE(F2:F237)</f>
         <v>0.74998102077809881</v>
       </c>
-      <c r="I246" s="4">
+      <c r="I243" s="4">
         <f>AVERAGE(I2:I237)</f>
-        <v>0.75036623501613464</v>
-      </c>
-      <c r="J246" s="4">
+        <v>0.78066986456702825</v>
+      </c>
+      <c r="J243" s="4">
         <f>AVERAGE(J2:J237)</f>
-        <v>0.76671821424095643</v>
+        <v>0.76849443346421309</v>
       </c>
     </row>
   </sheetData>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evan Su\Documents\GitHub\FinetuneLLM-NLP-Quiz\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F29B63-1EDF-4689-B6EC-000DCA8CFE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1D9A81-E96F-4307-BEFE-82542B87BB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{18726F21-B83D-40FF-84A4-04DF132C406D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="906">
   <si>
     <t>case_id</t>
   </si>
@@ -1835,9 +1835,6 @@
     <t>nothink_ft_qwen3_4b_scores</t>
   </si>
   <si>
-    <t>renal cyst, renal calculus</t>
-  </si>
-  <si>
     <t>liver lesion</t>
   </si>
   <si>
@@ -1853,60 +1850,24 @@
     <t>renal cyst, ascites</t>
   </si>
   <si>
-    <t>adrenal calcification, renal cyst</t>
-  </si>
-  <si>
     <t>fatty liver</t>
   </si>
   <si>
     <t>hydronephrosis</t>
   </si>
   <si>
-    <t>gallbladder stone, renal cyst</t>
-  </si>
-  <si>
-    <t>renal cyst, hepatic cyst, splenomegaly</t>
-  </si>
-  <si>
     <t>ileal thickening, mesenteric lymphadenopathy</t>
   </si>
   <si>
     <t>liver lesion, adrenal hyperplasia</t>
   </si>
   <si>
-    <t>duodenal neuroendocrine tumor, hepatic cyst, renal calcification, appendiceal mass</t>
-  </si>
-  <si>
     <t>bile duct dilation, hepatic cyst</t>
   </si>
   <si>
     <t>hepatic cyst, gallstone</t>
   </si>
   <si>
-    <t>gallbladder wall thickening, renal calculus, aortic calcification, iliac artery calcification</t>
-  </si>
-  <si>
-    <t>intestinal wall thickening, foreign body in abdomen</t>
-  </si>
-  <si>
-    <t>hepatic mass, gallbladder calcification, renal calcification</t>
-  </si>
-  <si>
-    <t>hepatic calcification, hepatic cyst, splenomegaly, mesenteric lymphadenopathy</t>
-  </si>
-  <si>
-    <t>adrenal hyperplasia, renal cyst, hepatic cyst</t>
-  </si>
-  <si>
-    <t>splenomegaly, hepatic cyst</t>
-  </si>
-  <si>
-    <t>renal cyst, splenic nodule, adrenal nodule, pneumoperitoneum</t>
-  </si>
-  <si>
-    <t>renal calculus, renal pelvis dilation</t>
-  </si>
-  <si>
     <t>gallbladder enlargement</t>
   </si>
   <si>
@@ -1916,898 +1877,880 @@
     <t>hydronephrosis, ureteral stone</t>
   </si>
   <si>
-    <t>hepatic lesion, adrenal hyperplasia, adrenal nodule</t>
-  </si>
-  <si>
-    <t>renal cell carcinoma, adrenal hyperplasia, hepatic cyst, ascites</t>
-  </si>
-  <si>
     <t>pancreatic cyst, renal cyst</t>
   </si>
   <si>
     <t>splenomegaly, splenic nodule, renal cyst</t>
   </si>
   <si>
-    <t>hepatic lesion, renal cyst, hydronephrosis, chronic pyelonephritis</t>
-  </si>
-  <si>
     <t>hepatic cyst, lymphadenopathy</t>
   </si>
   <si>
-    <t>renal cyst, abdominal aortic calcification</t>
-  </si>
-  <si>
-    <t>renal cyst, adrenal calcification, adrenal hyperplasia</t>
-  </si>
-  <si>
     <t>intestinal wall thickening, liver cyst, renal calculus</t>
   </si>
   <si>
-    <t>hepatic cysts, renal calcification</t>
-  </si>
-  <si>
-    <t>ascites, liver calcification</t>
-  </si>
-  <si>
-    <t>ileocecal thickening, ascending colon thickening</t>
-  </si>
-  <si>
-    <t>hepatic cyst, bile duct dilation</t>
-  </si>
-  <si>
-    <t>colorectal neoplasm, liver metastases, gallbladder wall thickening</t>
-  </si>
-  <si>
-    <t>renal calculus, liver calcification</t>
-  </si>
-  <si>
     <t>gallbladder wall thickening, liver cyst</t>
   </si>
   <si>
-    <t>hepatic cysts, renal cyst, pancreatic calcification, splenic nodules, gastric antral thickening</t>
-  </si>
-  <si>
-    <t>fatty liver, cholecystitis, colorectal cancer, renal cyst, ascites</t>
-  </si>
-  <si>
-    <t>liver calcification, bile duct calcification</t>
-  </si>
-  <si>
-    <t>foreign body, metal foreign body, bile duct stone, gallbladder stone, metastatic lymph nodes, liver portal mass, adrenal hyperplasia, adrenal tumor</t>
-  </si>
-  <si>
-    <t>liver mass, liver metastasis, hepatic cyst, lymphadenopathy, hepatic nodule</t>
-  </si>
-  <si>
-    <t>hepatocellular carcinoma, splenomegaly, gallstone, renal cyst</t>
-  </si>
-  <si>
-    <t>hepatocellular carcinoma, splenomegaly, chronic pyelonephritis</t>
-  </si>
-  <si>
-    <t>renal cell carcinoma, hydronephrosis, renal calcification</t>
-  </si>
-  <si>
-    <t>renal cyst, gastric wall thickening, ascites, lymphadenopathy</t>
-  </si>
-  <si>
-    <t>ileocecal wall thickening, intestinal thickening, postoperative intestinal inflammation</t>
-  </si>
-  <si>
-    <t>hepatic cyst, cholecystitis, renal cyst, renal pelvis calcification</t>
-  </si>
-  <si>
-    <t>ascites, mesenteric lymphadenopathy, drainage tube, gallbladder stone, splenomegaly, adrenal hyperplasia, adrenal nodule, bile duct stone</t>
-  </si>
-  <si>
-    <t>adrenal hyperplasia, splenomegaly, cholecystitis, gastritis</t>
-  </si>
-  <si>
-    <t>hepatic cyst, splenomegaly, chronic pancreatitis, lymphadenopathy</t>
-  </si>
-  <si>
-    <t>colorectal cancer</t>
-  </si>
-  <si>
-    <t>acute pancreatitis, gallstone, postoperative colon cancer changes</t>
-  </si>
-  <si>
-    <t>gastric wall thickening, gallbladder polyp, renal cyst, hepatic cyst</t>
-  </si>
-  <si>
-    <t>cirrhosis, splenomegaly, renal calculi, intestinal thickening</t>
-  </si>
-  <si>
-    <t>intestinal obstruction</t>
-  </si>
-  <si>
-    <t>hepatic cyst, renal cyst, fatty nodule</t>
-  </si>
-  <si>
-    <t>hepatocellular carcinoma, metastatic liver tumor, biliary tract dilatation, adrenal metastasis</t>
-  </si>
-  <si>
-    <t>hepatic nodule, liver metastasis</t>
-  </si>
-  <si>
-    <t>rectal cancer, gallbladder polyp, splenic cyst, ovarian cyst, renal cyst</t>
-  </si>
-  <si>
-    <t>adrenal adenoma, adrenal hyperplasia, renal cyst, adrenal calcification</t>
-  </si>
-  <si>
-    <t>intestinal thickening, liver cyst, renal calculi</t>
-  </si>
-  <si>
-    <t>small bowel obstruction, ileus, mesenteric inflammation</t>
-  </si>
-  <si>
-    <t>gallbladder enlargement, gallbladder wall thickening, gallbladder mucocele, hepatic cyst</t>
-  </si>
-  <si>
-    <t>hepatic cyst, bile duct dilatation, adrenal nodule, renal cyst</t>
-  </si>
-  <si>
-    <t>retroperitoneal tumor</t>
-  </si>
-  <si>
-    <t>renal cyst, aortic calcification, aortic aneurysm, liver calcification</t>
-  </si>
-  <si>
-    <t>hepatic cyst, focal nodular hyperplasia, renal stone, renal pelvis stone</t>
-  </si>
-  <si>
-    <t>esophagogastric junction cancer, colorectal cancer, liver cirrhosis, hepatic adenoma, gallbladder mass</t>
-  </si>
-  <si>
-    <t>ascending colon cancer, liver metastasis, portal vein metastasis</t>
-  </si>
-  <si>
-    <t>ureteral nodule, ureteral dilation, renal calyx calcification, renal parenchymal calcification, splenic nodule</t>
-  </si>
-  <si>
-    <t>colonic thickening, inflammatory bowel disease</t>
-  </si>
-  <si>
-    <t>rectal cancer, focal nodular hyperplasia, adrenal adenoma, renal cell carcinoma, atherosclerosis, ascites</t>
-  </si>
-  <si>
-    <t>aortic dissection, endoleak, intramural hematoma</t>
-  </si>
-  <si>
-    <t>liver metastases, portal vein tumor thrombosis, splenic infarction</t>
-  </si>
-  <si>
-    <t>rectal cancer, hepatocellular carcinoma</t>
-  </si>
-  <si>
-    <t>cirrhosis, splenomegaly, portal hypertension, gallbladder cancer, cholangiocarcinoma, hepatic cyst</t>
-  </si>
-  <si>
-    <t>chronic cholecystitis, gallstone, renal stone, appendicitis</t>
-  </si>
-  <si>
-    <t>fistula, foreign body</t>
-  </si>
-  <si>
-    <t>ureteral stone, hydronephrosis, perirenal fat plane haze, renal pelvis calcification</t>
-  </si>
-  <si>
-    <t>gallbladder enlargement, liver fatty infiltration, fat necrosis, colonic inflammation</t>
-  </si>
-  <si>
-    <t>splenic nodules, renal cyst, renal calcification, pancreatic calcification</t>
-  </si>
-  <si>
-    <t>left renal hypoplasia, renal hydronephrosis, renal calcifications, adrenal hyperplasia, renal cysts, pelvic calcifications</t>
-  </si>
-  <si>
-    <t>bile duct calcification, renal cyst, adrenal hyperplasia, renal pelvis calcification</t>
-  </si>
-  <si>
-    <t>hepatic cyst, hepatocellular adenoma, pancreatic duct dilatation, renal stone, ureteral stone</t>
-  </si>
-  <si>
-    <t>gastritis, liver cyst, liver calcification, kidney cyst</t>
-  </si>
-  <si>
-    <t>splenic nodule, gastritis, liver atrophy</t>
-  </si>
-  <si>
-    <t>renal cyst, adrenal hyperplasia, rectal mass</t>
-  </si>
-  <si>
-    <t>rectal cancer, renal cyst, hepatic cyst</t>
-  </si>
-  <si>
-    <t>focal liver lesion, adrenal mass, renal cyst</t>
-  </si>
-  <si>
-    <t>splenomegaly, bowel thickening, mesenteric lymphadenopathy, appendicitis</t>
-  </si>
-  <si>
-    <t>adrenal calcification, spleen calcification, retroperitoneal calcification, ascites, omentum thickening, abdominal wall nodule</t>
-  </si>
-  <si>
-    <t>renal cyst, splenic nodule, colonic mural thickening, gallbladder duct abnormality</t>
-  </si>
-  <si>
-    <t>gallbladder nodule</t>
-  </si>
-  <si>
-    <t>splenomegaly, renal cyst, bile duct dilation, hepatic lesion</t>
-  </si>
-  <si>
-    <t>liver cyst, adrenal hyperplasia, renal cyst, splenic nodularity, hepatocellular adenoma</t>
-  </si>
-  <si>
-    <t>hepatic cyst, adrenal hyperplasia, splenomegaly</t>
-  </si>
-  <si>
-    <t>liver lesion, adrenal calcification, adrenal hyperplasia</t>
-  </si>
-  <si>
-    <t>liver cirrhosis, splenomegaly, renal cyst, gallstones, chronic pancreatitis</t>
-  </si>
-  <si>
-    <t>hepatic cyst, renal cyst, gallbladder stone, gallbladder wall thickening, renal pelvis calculus</t>
-  </si>
-  <si>
-    <t>gastrointestinal perforation, renal abscess, pyelonephritis</t>
-  </si>
-  <si>
-    <t>renal stone, hydronephrosis, pneumoperitoneum</t>
-  </si>
-  <si>
-    <t>gallbladder polyp, renal calculi, pneumoperitoneum, intestinal obstruction</t>
-  </si>
-  <si>
     <t>thyroid cyst, liver cyst, gallbladder stones</t>
   </si>
   <si>
-    <t>renal cyst, hydronephrosis, adrenal hyperplasia, liver cirrhosis</t>
-  </si>
-  <si>
-    <t>hepatic mass, lymphadenopathy, splenomegaly, renal cyst</t>
-  </si>
-  <si>
-    <t>hepatic mass, hepatocellular carcinoma</t>
-  </si>
-  <si>
-    <t>hepatocellular carcinoma, liver metastasis</t>
-  </si>
-  <si>
-    <t>hepatic cysts, bile duct dilatation, gallbladder atrophy, pancreatic atrophy, renal cysts</t>
-  </si>
-  <si>
-    <t>liver abscess, postoperative liver changes</t>
-  </si>
-  <si>
-    <t>gastritis, liver cyst</t>
-  </si>
-  <si>
-    <t>gallstone, chronic cholecystitis</t>
-  </si>
-  <si>
-    <t>gallbladder polyp, gallbladder wall thickening, splenic calcification, adrenal hyperplasia, renal cyst, renal calcification</t>
-  </si>
-  <si>
-    <t>enlarged gallbladder, adrenal hyperplasia, lymphadenopathy, enlarged pancreatic head, pancreatic mass, gallbladder effusion</t>
-  </si>
-  <si>
-    <t>hepatic cyst, enlarged spleen, chronic pancreatitis</t>
-  </si>
-  <si>
     <t>ileal thickening, lymphadenopathy</t>
   </si>
   <si>
-    <t>liver abscess, bile duct dilation, bile duct obstruction</t>
-  </si>
-  <si>
     <t>adrenal hyperplasia, adrenal nodule, hepatic nodule</t>
   </si>
   <si>
-    <t>hepatic cyst, hepatic abscess, hepatic calcification</t>
-  </si>
-  <si>
-    <t>colorectal mass, atherosclerosis, liver cirrhosis</t>
-  </si>
-  <si>
-    <t>splenomegaly, gallbladder enlargement, adrenal hyperplasia, renal calculus</t>
-  </si>
-  <si>
-    <t>hepatic abscess, hepatic fistula</t>
-  </si>
-  <si>
-    <t>hepatic mass, hepatic hemangioma, spleen enlargement, lymphadenopathy</t>
-  </si>
-  <si>
-    <t>hepatic mass, adrenal hyperplasia</t>
-  </si>
-  <si>
-    <t>liver metastases, hepatocellular carcinoma, gallbladder cancer, hydronephrosis, ascites, bowel obstruction, lymphoma</t>
-  </si>
-  <si>
-    <t>ureteral stone, adrenal calcification, renal calyx calcification</t>
-  </si>
-  <si>
-    <t>spleen enlargement, renal stone</t>
-  </si>
-  <si>
-    <t>hydronephrosis, renal calculi, renal cyst</t>
-  </si>
-  <si>
-    <t>liver cirrhosis, bowel obstruction</t>
-  </si>
-  <si>
-    <t>postoperative changes of gastrointestinal tracts, abdominal fluid and gas, focal liver lesions</t>
-  </si>
-  <si>
-    <t>liver cysts, renal cysts, ureteral stone, renal calyceal calcifications</t>
-  </si>
-  <si>
-    <t>hydronephrosis, ureteral stone, renal pelvis stone, adrenal hyperplasia, liver lesions</t>
-  </si>
-  <si>
-    <t>liver calcification, splenic nodule, intestinal dilatation, ascites, liver metastasis</t>
-  </si>
-  <si>
-    <t>ureteral stone, hydronephrosis, renal pelvis calcification, perirenal fat infiltration, renal parenchymal calcification</t>
-  </si>
-  <si>
-    <t>normal kidney, adrenal calcification</t>
-  </si>
-  <si>
-    <t>renal cyst, intestinal leakage, aortic calcification</t>
-  </si>
-  <si>
-    <t>hepatic cyst, gallbladder polyp, renal cyst, adrenal hyperplasia</t>
-  </si>
-  <si>
-    <t>aortic dissection, aortic calcification, aortic dilation</t>
-  </si>
-  <si>
-    <t>renal pelvis dilation, ureter dilation, ureteral stone</t>
-  </si>
-  <si>
-    <t>renal cyst, appendicitis, hepatocellular adenoma</t>
-  </si>
-  <si>
-    <t>renal pelvis dilation, calyx dilation</t>
-  </si>
-  <si>
-    <t>hydronephrosis, ureteral dilation, bladder stone</t>
-  </si>
-  <si>
-    <t>abdominal perforation, hepatic cyst, peritoneal effusion, peritoneal gas</t>
-  </si>
-  <si>
-    <t>hepatic cyst, renal calcifications, spleen nodule</t>
-  </si>
-  <si>
-    <t>hepatic cyst, gallstones</t>
-  </si>
-  <si>
-    <t>renal cyst, renal calcification, ascites, focal liver lesion, bowel abnormality</t>
-  </si>
-  <si>
-    <t>liver cyst, gallbladder wall thickening, renal cyst, renal nodule</t>
-  </si>
-  <si>
-    <t>focal liver lesions, intestinal obstruction</t>
-  </si>
-  <si>
-    <t>postoperative gallbladder changes</t>
-  </si>
-  <si>
-    <t>hepatic adenoma, hepatic cyst</t>
-  </si>
-  <si>
-    <t>pancreatic inflammation, ascites</t>
-  </si>
-  <si>
-    <t>adrenal hyperplasia, adrenal calcification, hepatocellular adenoma, renal calcification, pneumatosis intestinalis</t>
-  </si>
-  <si>
     <t>bowel wall thickening</t>
   </si>
   <si>
-    <t>renal cyst, renal calculus, liver metastases</t>
-  </si>
-  <si>
-    <t>bile duct mass, cholecystitis, adrenal adenoma, pancreatic atrophy, hepatic cyst</t>
-  </si>
-  <si>
-    <t>hepatocellular carcinoma, liver calcification</t>
-  </si>
-  <si>
-    <t>duodenal schwannoma, liver parenchymal atrophy, hepatic cyst, renal calculi, appendiceal mass</t>
-  </si>
-  <si>
-    <t>renal mass, adrenal hyperplasia, liver mass, gallbladder stones</t>
-  </si>
-  <si>
-    <t>abdominal wall lipoma, intestinal fibroma</t>
-  </si>
-  <si>
-    <t>colorectal cancer, liver metastases, cholecystitis</t>
-  </si>
-  <si>
-    <t>hepatocellular_carcinoma, hepatic_cyst, hepatic_adenoma</t>
-  </si>
-  <si>
-    <t>gallbladder wall thickening, gallbladder calculus, left hepatic duct dilation, liver nodule, pancreatic enlargement</t>
-  </si>
-  <si>
-    <t>liver lobe disproportionality, splenomegaly, gallbladder wall thickening, lymphadenopathy, duodenal diverticulum</t>
-  </si>
-  <si>
     <t>hepatic cyst, gallstones, renal cyst</t>
   </si>
   <si>
-    <t>liver mass, liver calcifications, adrenal hyperplasia, renal cyst</t>
-  </si>
-  <si>
-    <t>gallstone, hepatocellular carcinoma</t>
-  </si>
-  <si>
-    <t>liver atrophy, renal cyst</t>
-  </si>
-  <si>
-    <t>hepatocellular carcinoma, gallstones, ureteral calculi, renal cyst</t>
-  </si>
-  <si>
-    <t>renal nodule, liver nodule</t>
-  </si>
-  <si>
-    <t>renal cyst, renal calcification, liver cirrhosis</t>
-  </si>
-  <si>
-    <t>bile duct stricture, hepatocellular carcinoma, bile duct stone</t>
-  </si>
-  <si>
-    <t>hepatic cyst, adrenal hyperplasia, gallbladder wall thickening</t>
-  </si>
-  <si>
-    <t>acute cholecystitis</t>
-  </si>
-  <si>
-    <t>liver cirrhosis, gallbladder stone, arterial calcification</t>
-  </si>
-  <si>
-    <t>acute pancreatitis, renal cell carcinoma, cirrhosis of the liver</t>
-  </si>
-  <si>
-    <t>cholecystitis, gallbladder stone, liver cirrhosis</t>
-  </si>
-  <si>
-    <t>cholecystitis, renal calyx calcification, aortic calcification, iliac artery calcification</t>
-  </si>
-  <si>
-    <t>ureteral calculus, renal calyx blunting, liver parenchymal density reduction, abdominal aortic calcification, iliac artery calcification</t>
-  </si>
-  <si>
-    <t>portal hypertension, hepatic vein anomaly, splenomegaly</t>
-  </si>
-  <si>
-    <t>gallbladder inflammation</t>
-  </si>
-  <si>
-    <t>atherosclerosis, thyroid nodule, thyroid calcification, gallbladder polyp, liver cirrhosis, splenic cyst</t>
-  </si>
-  <si>
-    <t>liver cyst, pancreatic calcification, renal cyst</t>
-  </si>
-  <si>
-    <t>liver calcification, gallstones</t>
-  </si>
-  <si>
-    <t>metal foreign body, bile duct gas, retroperitoneal lymphadenopathy, adrenal hyperplasia, adrenal nodule</t>
-  </si>
-  <si>
-    <t>liver cyst, liver calcification, liver mass, enlarged lymph nodes</t>
-  </si>
-  <si>
-    <t>hepatic hemangioma, gallbladder stone, splenomegaly, renal cyst</t>
-  </si>
-  <si>
-    <t>liver steatosis, renal collecting system density increase</t>
-  </si>
-  <si>
-    <t>liver cyst, gallbladder calculus</t>
-  </si>
-  <si>
-    <t>liver metastasis, splenic nodules, renal cyst</t>
-  </si>
-  <si>
-    <t>hepatic cyst, renal calculus, splenic nodule</t>
-  </si>
-  <si>
-    <t>renal cyst, gastric lesion</t>
-  </si>
-  <si>
-    <t>foreign body</t>
-  </si>
-  <si>
-    <t>gallstones, renal calcification, liver mass</t>
-  </si>
-  <si>
-    <t>ileocecal thickening, bowel perforation, intestinal obstruction</t>
-  </si>
-  <si>
-    <t>cholelithiasis, splenomegaly, adrenal nodule, choledocholithiasis</t>
-  </si>
-  <si>
-    <t>common bile duct dilation, gallbladder wall thickening, splenomegaly, gastric wall thickening, adrenal hyperplasia</t>
-  </si>
-  <si>
-    <t>ascites, gallstone, acute pancreatitis, postoperative colon cancer</t>
-  </si>
-  <si>
-    <t>gastrectomy changes, liver cyst, gallbladder polyp, renal cyst</t>
-  </si>
-  <si>
-    <t>pancreatic atrophy, biliary duct dilation, gallbladder enlargement, renal cyst</t>
-  </si>
-  <si>
-    <t>thyroid cyst, adrenal hyperplasia, gallbladder wall thickening, renal cyst, abdominal aortic calcification</t>
-  </si>
-  <si>
-    <t>ascites, liver atrophy, gallbladder wall thickening, gallstone, splenomegaly, renal cyst, small intestinal wall thickening</t>
-  </si>
-  <si>
-    <t>liver cyst, renal cyst, renal fatty nodule</t>
-  </si>
-  <si>
-    <t>liver mass, bile duct mass, lymphadenopathy, adrenal nodules</t>
-  </si>
-  <si>
-    <t>hepatic adenoma, hepatic hemangioma</t>
-  </si>
-  <si>
-    <t>rectal cancer, gallstones, splenic mass, adnexal masses, renal masses</t>
-  </si>
-  <si>
-    <t>adrenal calcification, adrenal hyperplasia, renal myelolipoma</t>
-  </si>
-  <si>
-    <t>ureteral calculus</t>
-  </si>
-  <si>
-    <t>small intestinal dilation, mesenteric fat turbidity</t>
-  </si>
-  <si>
-    <t>gallbladder mucocele, liver cyst</t>
-  </si>
-  <si>
-    <t>retroperitoneal mass, adrenal calcification</t>
-  </si>
-  <si>
-    <t>renal cyst, abdominal aortic calcification, abdominal aortic aneurysm</t>
-  </si>
-  <si>
-    <t>hepatic nodule, hepatic cyst, renal calculus</t>
-  </si>
-  <si>
-    <t>esophagogastric junction cancer, colonic neoplasm, hepatic calcification, gallbladder calculi</t>
-  </si>
-  <si>
-    <t>ischemic colitis, Crohn's disease</t>
-  </si>
-  <si>
-    <t>rectal cancer, adrenal adenoma, renal cyst, aortic wall thickening, liver hypoenhancement</t>
-  </si>
-  <si>
     <t>renal mass</t>
   </si>
   <si>
-    <t>iodized oil, liver nodule, liver cyst, splenic lesion, splenic calcification, ascites, portal vein thrombosis</t>
-  </si>
-  <si>
-    <t>rectal cancer, liver metastasis</t>
-  </si>
-  <si>
-    <t>cirrhosis, portal hypertension, splenomegaly, ascites, gallstones, varices, choledocholithiasis</t>
-  </si>
-  <si>
-    <t>gastrointestinal fistula</t>
-  </si>
-  <si>
-    <t>ureteral calculus, hydronephrosis, perinephric inflammation</t>
-  </si>
-  <si>
-    <t>fatty liver, gallstones</t>
-  </si>
-  <si>
-    <t>abdominal mass, gastric wall contact</t>
-  </si>
-  <si>
-    <t>renal calculus, renal cyst, adrenal cyst, pelvic calculus</t>
-  </si>
-  <si>
-    <t>bile duct calculi, renal calculus, adrenal hyperplasia</t>
-  </si>
-  <si>
-    <t>hepatic calcification, hepatic cyst, renal calcification, ureteral calculus</t>
-  </si>
-  <si>
-    <t>liver cyst, hepatic hemangioma, liver calcification, renal cyst</t>
-  </si>
-  <si>
     <t>fatty liver, splenic nodule, gastric wall thickening</t>
   </si>
   <si>
-    <t>renal calcification, adrenal hyperplasia, rectal polyp</t>
-  </si>
-  <si>
-    <t>colonic wall thickening, renal cyst</t>
-  </si>
-  <si>
-    <t>hepatic cyst, adrenal mass, adrenal hyperplasia, renal cyst</t>
-  </si>
-  <si>
-    <t>mesenteric lymphadenopathy, splenomegaly, appendicitis, colitis</t>
-  </si>
-  <si>
-    <t>adrenal calcification, spleen calcification, retroperitoneal calcification</t>
-  </si>
-  <si>
-    <t>splenic cyst, gallbladder stones, renal cyst, colonic wall thickening</t>
-  </si>
-  <si>
-    <t>liver cyst, liver hemangioma</t>
-  </si>
-  <si>
-    <t>gallbladder calcification</t>
-  </si>
-  <si>
-    <t>liver cyst, splenomegaly, renal cyst</t>
-  </si>
-  <si>
-    <t>liver cyst, liver hemangioma, splenic nodule, renal cyst, adrenal hyperplasia</t>
-  </si>
-  <si>
-    <t>adrenal hyperplasia, splenomegaly, gallstones</t>
-  </si>
-  <si>
-    <t>hepatic mass, pancreatic calcification, adrenal hyperplasia, adrenal calcification</t>
-  </si>
-  <si>
-    <t>renal cyst, splenomegaly, gallstones</t>
-  </si>
-  <si>
-    <t>liver cysts, renal cysts</t>
-  </si>
-  <si>
     <t>liver cyst, renal calculi</t>
   </si>
   <si>
-    <t>hepatic cyst, renal cyst, renal calcification, gallbladder calculi</t>
-  </si>
-  <si>
-    <t>renal atrophy, hydronephrosis</t>
-  </si>
-  <si>
-    <t>postoperative hematoma, fat necrosis</t>
-  </si>
-  <si>
-    <t>gastrointestinal perforation, renal cyst, renal calcification</t>
-  </si>
-  <si>
-    <t>aortic calcification, aortic wall thickening, adrenal hyperplasia</t>
-  </si>
-  <si>
-    <t>renal mass, adrenal hyperplasia</t>
-  </si>
-  <si>
-    <t>gallbladder wall thickening, renal calcification, free gas</t>
-  </si>
-  <si>
-    <t>thyroid cyst, hepatic cyst, gallstones</t>
-  </si>
-  <si>
-    <t>renal cyst, hydronephrosis, adrenal hyperplasia, hepatic steatosis</t>
-  </si>
-  <si>
-    <t>ascites, liver lesion, adrenal nodule</t>
-  </si>
-  <si>
-    <t>liver mass, splenomegaly, lymphadenopathy, renal cyst</t>
-  </si>
-  <si>
-    <t>hepatocellular carcinoma, liver mass</t>
-  </si>
-  <si>
-    <t>liver cyst, pneumoperitoneum</t>
-  </si>
-  <si>
-    <t>renal cyst, adrenal hyperplasia, liver mass, ascites</t>
-  </si>
-  <si>
-    <t>gastric wall thickening, liver cyst, splenic nodule</t>
-  </si>
-  <si>
-    <t>gallbladder calculi, gallbladder wall thickening, splenic calcification, adrenal gland enlargement, renal cyst, renal calcification</t>
-  </si>
-  <si>
-    <t>fatty liver, cholecystitis, adrenal hyperplasia, lymphadenopathy, cystic lesion</t>
-  </si>
-  <si>
-    <t>hepatic abscess, biliary obstruction, ascites, retroperitoneal lymphadenopathy</t>
-  </si>
-  <si>
-    <t>adrenal hyperplasia, renal mass, liver nodule</t>
-  </si>
-  <si>
-    <t>renal calculi, adrenal hyperplasia</t>
-  </si>
-  <si>
-    <t>hepatic nodule, splenomegaly</t>
-  </si>
-  <si>
-    <t>liver cyst, bile leak</t>
-  </si>
-  <si>
-    <t>hepatocellular carcinoma, liver metastases, lymphadenopathy</t>
-  </si>
-  <si>
-    <t>hepatic cyst, retroperitoneal lymphadenopathy</t>
-  </si>
-  <si>
-    <t>liver mass, portal vein thrombosis, superior vena cava thrombosis, adrenal thickening</t>
-  </si>
-  <si>
-    <t>renal pelvis dilation, renal cyst, gallbladder calcification, hepatic abscess, ascites, abdominal abscess</t>
-  </si>
-  <si>
-    <t>splenic enlargement, renal cyst</t>
-  </si>
-  <si>
-    <t>renal calcification, renal calculus</t>
-  </si>
-  <si>
-    <t>gallbladder calculus, renal calculus, splenomegaly</t>
-  </si>
-  <si>
-    <t>liver density abnormality, intestinal obstruction</t>
-  </si>
-  <si>
-    <t>renal cyst, adrenal cyst, adrenal calcification</t>
-  </si>
-  <si>
-    <t>renal cyst, ureteral calculus, hepatic cyst</t>
-  </si>
-  <si>
-    <t>adrenal hyperplasia, ureteral calcification, liver cysts</t>
-  </si>
-  <si>
-    <t>liver calcification, ascites, intestinal dilatation</t>
-  </si>
-  <si>
-    <t>ureteral calculus, hydronephrosis</t>
-  </si>
-  <si>
-    <t>renal calculus, ureteral calculus</t>
-  </si>
-  <si>
-    <t>liver cyst, gallstone, renal cyst, adrenal hyperplasia</t>
-  </si>
-  <si>
-    <t>aortic dissection, renal artery involvement, aortic calcification</t>
-  </si>
-  <si>
     <t>ureteral calculus, renal pelvis dilation</t>
   </si>
   <si>
-    <t>renal cyst, appendiceal thickening, liver nodules</t>
-  </si>
-  <si>
-    <t>renal pelvis dilatation</t>
-  </si>
-  <si>
-    <t>bladder calculus, ureteral obstruction, renal pelvis dilation</t>
-  </si>
-  <si>
-    <t>gastrointestinal perforation, pneumoperitoneum</t>
-  </si>
-  <si>
-    <t>liver cyst, spleen nodule, renal calcification</t>
-  </si>
-  <si>
-    <t>liver calcification, liver cyst, renal calcification, renal cyst, ascites</t>
-  </si>
-  <si>
-    <t>gallbladder absence</t>
-  </si>
-  <si>
     <t>hepatic cyst, hepatocellular carcinoma</t>
   </si>
   <si>
     <t>acute pancreatitis, ascites</t>
   </si>
   <si>
-    <t>adrenal hyperplasia, liver cyst, renal calcification</t>
-  </si>
-  <si>
-    <t>renal cyst, renal calculus, liver steatosis</t>
-  </si>
-  <si>
-    <t>common bile duct mass, gallbladder wall thickening, liver cyst, adrenal nodule</t>
-  </si>
-  <si>
-    <t>renal cyst, renal parenchymal disease, perirenal fluid</t>
-  </si>
-  <si>
-    <t>liver calcification, liver mass</t>
-  </si>
-  <si>
-    <t>renal cyst, adrenal cyst, gallstones, liver nodules</t>
-  </si>
-  <si>
-    <t>hepatic mass, simple hepatic cyst, calcified nodule</t>
-  </si>
-  <si>
-    <t>gallbladder calculus, gallbladder wall thickening, liver calcification</t>
-  </si>
-  <si>
-    <t>gastric hemangioma, duodenal hemangioma</t>
-  </si>
-  <si>
-    <t>splenomegaly, duodenal diverticulum, retroperitoneal lymphadenopathy, gallbladder wall thickening</t>
-  </si>
-  <si>
-    <t>liver mass, liver calcification, renal cyst, adrenal mass</t>
-  </si>
-  <si>
-    <t>gallstone, liver lesion</t>
-  </si>
-  <si>
-    <t>hepatic steatosis, renal cyst</t>
-  </si>
-  <si>
-    <t>renal cyst, ureteral calculi, gallbladder stones</t>
-  </si>
-  <si>
-    <t>low liver density</t>
-  </si>
-  <si>
-    <t>bile duct stone, liver hemangioma</t>
-  </si>
-  <si>
-    <t>liver cyst, adrenal hyperplasia, gallbladder wall thickening</t>
-  </si>
-  <si>
-    <t>liver cyst, gallbladder calculi</t>
-  </si>
-  <si>
-    <t>bile duct dilation, abdominal aortic aneurysm</t>
-  </si>
-  <si>
-    <t>gallbladder calculi, gallbladder wall thickening, bile duct dilation</t>
-  </si>
-  <si>
-    <t>liver parenchymal density reduction, abdominal aortic calcification, iliac artery calcification</t>
-  </si>
-  <si>
-    <t>liver calcification, renal cyst, metal foreign body in colon</t>
-  </si>
-  <si>
-    <t>pancreatitis, renal fascia thickening, fatty liver disease, renal cyst, retroperitoneal lymphadenopathy</t>
-  </si>
-  <si>
-    <t>ileocecal inflammation, appendiceal mass</t>
-  </si>
-  <si>
-    <t>gallbladder nodule, fatty liver</t>
-  </si>
-  <si>
-    <t>ureteral calculus, aortic calcification, iliac artery calcification</t>
-  </si>
-  <si>
     <t>hepatic cyst, portal hypertension, splenomegaly</t>
   </si>
   <si>
-    <t>atherosclerosis, thyroid calcification, gallstones, splenic cyst, fatty liver</t>
+    <t>hepatic cyst, renal cyst, splenic nodule, pancreatic calcification</t>
+  </si>
+  <si>
+    <t>fatty liver, chronic cholecystitis, colorectal mass, renal cyst, ascites</t>
+  </si>
+  <si>
+    <t>liver calcification, gallbladder calcification</t>
+  </si>
+  <si>
+    <t>gastrointestinal tract foreign body, pancreatic foreign body, bile duct dilation, bile duct gas, gallbladder stone, retroperitoneal lymphadenopathy, liver portal mass, right adrenal mass, left adrenal hyperplasia</t>
+  </si>
+  <si>
+    <t>liver mass, hepatic cyst, lymphadenopathy</t>
+  </si>
+  <si>
+    <t>hepatic hemangioma, splenomegaly, gallstone, lymphadenopathy, renal cyst</t>
+  </si>
+  <si>
+    <t>renal pelvis stone</t>
+  </si>
+  <si>
+    <t>hepatocellular carcinoma, splenomegaly</t>
+  </si>
+  <si>
+    <t>left renal hydronephrosis, left renal mass, right renal calcification</t>
+  </si>
+  <si>
+    <t>intestinal wall thickening</t>
+  </si>
+  <si>
+    <t>hepatic mass, gallbladder polyps, renal calcification</t>
+  </si>
+  <si>
+    <t>ileocecal abscess, ileocecal wall thickening, post-operative fistula</t>
+  </si>
+  <si>
+    <t>liver cyst, renal cyst, gallbladder wall thickening, renal pelvis calcification</t>
+  </si>
+  <si>
+    <t>ascites, mesenteric lymphadenopathy, gallbladder stone, bile duct stone, splenomegaly, adrenal hyperplasia, adrenal nodule</t>
+  </si>
+  <si>
+    <t>bile duct dilation, gastritis, splenomegaly, adrenal hyperplasia</t>
+  </si>
+  <si>
+    <t>hepatic calcification, splenomegaly, chronic pancreatitis, lymphadenopathy</t>
+  </si>
+  <si>
+    <t>colorectal wall thickening</t>
+  </si>
+  <si>
+    <t>hepatic cyst, hepatocellular carcinoma, splenomegaly, renal cyst</t>
+  </si>
+  <si>
+    <t>colorectal cancer, gallbladder mass, pancreatic mass, ascites</t>
+  </si>
+  <si>
+    <t>post-gastrectomycystic changes, hepatic cysts, gallbladder polyps, renal cyst</t>
+  </si>
+  <si>
+    <t>pancreatic duct dilation, bile duct dilation, gallbladder enlargement, renal cyst, pancreatic atrophy</t>
+  </si>
+  <si>
+    <t>adrenal hyperplasia, renal cyst, liver atrophy</t>
+  </si>
+  <si>
+    <t>adrenal hyperplasia, abdominal aortic calcification, renal cyst</t>
+  </si>
+  <si>
+    <t>liver cirrhosis, splenomegaly, renal calculi, gallbladder mass, intestinal thickening</t>
+  </si>
+  <si>
+    <t>hepatocellular_carcinoma, cholangiocarcinoma, adrenal_hyperplasia, lymphadenopathy, ascites</t>
+  </si>
+  <si>
+    <t>rectal tumor, gallbladder polyp, ovarian cyst, renal cyst, splenic cyst</t>
+  </si>
+  <si>
+    <t>hepatic cyst, renal calculi, intestinal thickening</t>
+  </si>
+  <si>
+    <t>small bowel obstruction</t>
+  </si>
+  <si>
+    <t>gallbladder enlargement, gallbladder wall thickening, hepatic cyst</t>
+  </si>
+  <si>
+    <t>liver cyst, renal cyst, adrenal nodule</t>
+  </si>
+  <si>
+    <t>liver cyst, renal cyst, cholecystitis</t>
+  </si>
+  <si>
+    <t>retroperitoneal recurrence, retroperitoneal mass</t>
+  </si>
+  <si>
+    <t>renal cyst, aortic aneurysm, abdominal aortic calcification</t>
+  </si>
+  <si>
+    <t>hepatic nodule, hepatic cyst, renal calcification, renal pelvis stone</t>
+  </si>
+  <si>
+    <t>esophagogastric junction cancer, colorectal cancer, hepatic cyst, gallbladder mass</t>
+  </si>
+  <si>
+    <t>postoperative changes of ascending colon cancer, hepatic metastases, portal vein metastasis, bile duct dilation</t>
+  </si>
+  <si>
+    <t>ureteral stone, renal calculus, splenic nodule, renal calyx calculus</t>
+  </si>
+  <si>
+    <t>inflammatory bowel disease, colonic wall thickening</t>
+  </si>
+  <si>
+    <t>rectal tumor, adrenal adenoma, renal cyst, aortic atherosclerosis, focal liver lesion</t>
+  </si>
+  <si>
+    <t>aortic dissection, intramural hematoma, stent graft displacement</t>
+  </si>
+  <si>
+    <t>liver cyst, hepatocellular carcinoma, splenic infarction, portal hypertension</t>
+  </si>
+  <si>
+    <t>rectal cancer, hepatic lesion, lymphadenopathy, rectal wall thickening, rectal mesenteric invasion</t>
+  </si>
+  <si>
+    <t>liver cirrhosis, splenomegaly, portal hypertension, primary sclerosing cholangitis</t>
+  </si>
+  <si>
+    <t>cholecystitis, renal calculus, appendicitis</t>
+  </si>
+  <si>
+    <t>fistula</t>
+  </si>
+  <si>
+    <t>fatty liver, gallbladder enlargement</t>
+  </si>
+  <si>
+    <t>renal cyst, chronic pancreatitis, splenic nodule</t>
+  </si>
+  <si>
+    <t>renal cyst, adrenal hyperplasia, hydronephrosis, renal pelvis stone, pelvic mass</t>
+  </si>
+  <si>
+    <t>common bile duct stone, adrenal hyperplasia, renal cyst, renal pelvis calcification</t>
+  </si>
+  <si>
+    <t>liver lesion, renal calcification, ureteral stone, pancreatic duct dilation</t>
+  </si>
+  <si>
+    <t>gastritis, ileitis, liver cyst, liver calcification, renal cyst</t>
+  </si>
+  <si>
+    <t>hepatic lesion, colonic lesion</t>
+  </si>
+  <si>
+    <t>renal calcification, adrenal hyperplasia, rectal tumor</t>
+  </si>
+  <si>
+    <t>rectal cancer recurrence, liver metastasis, renal cyst</t>
+  </si>
+  <si>
+    <t>colitis, appendicitis, splenomegaly, mesenteric lymphadenopathy</t>
+  </si>
+  <si>
+    <t>adrenal calcification, spleen calcification, retroperitoneal calcification, ascites, liver lesion, omentum thickening, subphrenic lesion, colorectal lesion, enhanced nodule</t>
+  </si>
+  <si>
+    <t>renal cyst, gallbladder stones, colorectal cancer, splenic nodule</t>
+  </si>
+  <si>
+    <t>gallbladder polyp, splenic nodules</t>
+  </si>
+  <si>
+    <t>liver metastasis, common bile duct dilation, splenomegaly, renal cyst</t>
+  </si>
+  <si>
+    <t>focal liver lesions, splenic nodules, adrenal hyperplasia, renal cyst</t>
+  </si>
+  <si>
+    <t>hepatic lesion, adrenal hyperplasia, adrenal calcification, pancreatic calcification</t>
+  </si>
+  <si>
+    <t>renal cyst, spleen enlargement, cholelithiasis, pancreatic changes, liver parenchymal changes</t>
+  </si>
+  <si>
+    <t>hepatic cyst, gallbladder wall thickening, gallstones, renal cyst, renal pelvis stone</t>
+  </si>
+  <si>
+    <t>hydronephrosis, renal pelvis dilatation</t>
+  </si>
+  <si>
+    <t>fat plane disruption, adrenal calcification</t>
+  </si>
+  <si>
+    <t>perforated viscus, renal abscess, renal cell carcinoma</t>
+  </si>
+  <si>
+    <t>renal cyst, renal stone, hydronephrosis, pneumoperitoneum</t>
+  </si>
+  <si>
+    <t>cholecystitis, renal calcification, bowel perforation</t>
+  </si>
+  <si>
+    <t>renal cyst, adrenal hyperplasia, surgical site gas, renal pelvis dilation, liver cirrhosis, renal hypoplasia</t>
+  </si>
+  <si>
+    <t>liver lesion, adrenal hyperplasia, adrenal nodule</t>
+  </si>
+  <si>
+    <t>hepatic mass, hepatic cyst, lymphadenopathy, splenomegaly, renal cyst</t>
+  </si>
+  <si>
+    <t>liver mass, hepatic mass</t>
+  </si>
+  <si>
+    <t>hepatic cyst, renal cyst, pancreatic atrophy</t>
+  </si>
+  <si>
+    <t>postoperative liver changes, pneumoperitoneum</t>
+  </si>
+  <si>
+    <t>renal cell carcinoma, adrenal hyperplasia, hepatocellular carcinoma, ascites</t>
+  </si>
+  <si>
+    <t>gastric antral wall thickening, liver cyst, splenic nodule</t>
+  </si>
+  <si>
+    <t>gallbladder calculus, splenic nodules</t>
+  </si>
+  <si>
+    <t>gallbladder polyp, adrenal hyperplasia, renal cyst, renal calcification</t>
+  </si>
+  <si>
+    <t>liver cirrhosis, cholecystitis, pancreatic mass, adrenal hyperplasia, lymphadenopathy, pancreatic pseudotumor</t>
+  </si>
+  <si>
+    <t>liver cyst, enlarged spleen</t>
+  </si>
+  <si>
+    <t>liver abscess, biliary obstruction</t>
+  </si>
+  <si>
+    <t>liver cyst, liver calcification, liver metastasis</t>
+  </si>
+  <si>
+    <t>pancreatic cyst, chronic pancreatitis, renal cyst</t>
+  </si>
+  <si>
+    <t>liver steatosis, colonic mass, arterial wall calcification</t>
+  </si>
+  <si>
+    <t>splenomegaly, renal calculus, adrenal hyperplasia, gallbladder enlargement</t>
+  </si>
+  <si>
+    <t>focal liver lesion, splenomegaly</t>
+  </si>
+  <si>
+    <t>hepatocellular carcinoma, splenomegaly, peritoneal effusion</t>
+  </si>
+  <si>
+    <t>hepatic cysts, retroperitoneal lymphadenopathy, abdominal wall soft tissue swelling, ascites, pneumoperitoneum</t>
+  </si>
+  <si>
+    <t>hepatic mass, portal vein filling defect, adrenal hyperplasia</t>
+  </si>
+  <si>
+    <t>liver metastases, gallbladder mass, splenomegaly, renal pelvic dilatation, ureteral dilation, ascites, intestinal thickening</t>
+  </si>
+  <si>
+    <t>ureteral stone, renal calcification</t>
+  </si>
+  <si>
+    <t>renal pelvis dilation, renal cyst, ureteral stone, hydronephrosis</t>
+  </si>
+  <si>
+    <t>focal liver lesion, intestinal dilatation</t>
+  </si>
+  <si>
+    <t>liver nodules</t>
+  </si>
+  <si>
+    <t>hepatic cyst, renal cyst, renal calyx calcification, ureteral stone, renal pelvic dilation</t>
+  </si>
+  <si>
+    <t>hydronephrosis, adrenal hyperplasia, adrenal calcification, liver cysts, renal cell carcinoma</t>
+  </si>
+  <si>
+    <t>liver metastases, liver calcification, ascites, intestinal dilatation</t>
+  </si>
+  <si>
+    <t>ureteral stone, hydronephrosis, renal pelvis calcification, perirenal fat space haziness</t>
+  </si>
+  <si>
+    <t>adrenal calcification</t>
+  </si>
+  <si>
+    <t>renal calculus, left renal pelvis dilation</t>
+  </si>
+  <si>
+    <t>renal cyst, aortic atheroma, intestinal leakage</t>
+  </si>
+  <si>
+    <t>renal cyst, adrenal hyperplasia, gallbladder polyp</t>
+  </si>
+  <si>
+    <t>aortic sclerosis, aortic kinking, aortic calcification</t>
+  </si>
+  <si>
+    <t>renal pelvis dilation, ureter dilation, ureteral mass</t>
+  </si>
+  <si>
+    <t>renal cyst, appendicitis, fatty liver</t>
+  </si>
+  <si>
+    <t>hydronephrosis, bladder stone</t>
+  </si>
+  <si>
+    <t>perforated viscus, hepatic cyst</t>
+  </si>
+  <si>
+    <t>liver cyst, renal calcification, splenic nodule</t>
+  </si>
+  <si>
+    <t>ascites, bowel obstruction, renal cyst, renal calcification, hepatic lesion, renal calyx calcification</t>
+  </si>
+  <si>
+    <t>hepatic cyst, gallbladder wall thickening, renal cyst, renal nodule</t>
+  </si>
+  <si>
+    <t>renal cyst, adrenal hyperplasia, adrenal adenoma</t>
+  </si>
+  <si>
+    <t>liver atrophy, hepatic calcification, intestinal obstruction</t>
+  </si>
+  <si>
+    <t>renal cyst, focal liver lesion</t>
+  </si>
+  <si>
+    <t>postoperative gallbladder</t>
+  </si>
+  <si>
+    <t>lymphadenopathy, hepatocellular carcinoma, renal calculi, pneumatosis intestinalis</t>
+  </si>
+  <si>
+    <t>renal cyst, left renal pelvis compression</t>
+  </si>
+  <si>
+    <t>renal cyst, renal calculi, liver abnormal density</t>
+  </si>
+  <si>
+    <t>bile duct cancer, liver metastasis, adrenal metastasis, pancreatic atrophy</t>
+  </si>
+  <si>
+    <t>renal cyst, renal pelvis dilation, chronic pyelonephritis, hepatic lesion</t>
+  </si>
+  <si>
+    <t>hepatocellular carcinoma, hepatic calcification</t>
+  </si>
+  <si>
+    <t>duodenal neuroendocrine tumor, liver cirrhosis, hepatic cyst, renal calcification, appendiceal mass</t>
+  </si>
+  <si>
+    <t>renal cell carcinoma, adrenal metastases, liver metastases, gallbladder stones</t>
+  </si>
+  <si>
+    <t>mesenteric fat stranding, intestinal wall thickening</t>
+  </si>
+  <si>
+    <t>colorectal cancer, hepatocellular carcinoma, cholecystitis</t>
+  </si>
+  <si>
+    <t>hepatocellular carcinoma, hepatic cyst, calcified nodule</t>
+  </si>
+  <si>
+    <t>cholecystitis, gallstone, hepatic nodule, bile duct dilation</t>
+  </si>
+  <si>
+    <t>splenomegaly, cholecystitis, lymphadenopathy, duodenal diverticulum</t>
+  </si>
+  <si>
+    <t>hepatic cyst, cholecystitis, gallstones, renal cyst</t>
+  </si>
+  <si>
+    <t>hepatocellular carcinoma, liver calcification, renal cyst, adrenal adenoma</t>
+  </si>
+  <si>
+    <t>gallstones, hepatic lesion</t>
+  </si>
+  <si>
+    <t>liver cirrhosis, renal cyst, perinephric fat calcification</t>
+  </si>
+  <si>
+    <t>liver metastasis, gallbladder stones, cholecystitis, ureteral calculi, renal cyst</t>
+  </si>
+  <si>
+    <t>renal stone, liver nodule</t>
+  </si>
+  <si>
+    <t>renal cyst, renal calcification, ascites, liver parenchymal atrophy, liver abscess</t>
+  </si>
+  <si>
+    <t>bile duct dilation, bile duct wall thickening, hepatic lesion</t>
+  </si>
+  <si>
+    <t>hepatic cyst, cholecystitis, adrenal hyperplasia</t>
+  </si>
+  <si>
+    <t>liver cyst, gallstones, gallbladder wall thickening</t>
+  </si>
+  <si>
+    <t>aortic dilation</t>
+  </si>
+  <si>
+    <t>cholecystitis, gallstones</t>
+  </si>
+  <si>
+    <t>gallstones, arterial calcification</t>
+  </si>
+  <si>
+    <t>renal cyst, renal calcification, aortic calcification</t>
+  </si>
+  <si>
+    <t>pancreatitis, chronic liver disease, renal cyst</t>
+  </si>
+  <si>
+    <t>cholecystitis, liver cyst</t>
+  </si>
+  <si>
+    <t>gallbladder wall thickening, hepatic congestion</t>
+  </si>
+  <si>
+    <t>gallbladder enlargement, cholecystitis, renal calyx calcification, aortic calcification, iliac artery calcification</t>
+  </si>
+  <si>
+    <t>ureteral stone, renal calyx dilation, fatty liver, aortic calcification</t>
+  </si>
+  <si>
+    <t>hepatic vein thrombosis, portal hypertension, splenomegaly</t>
+  </si>
+  <si>
+    <t>atherosclerosis, thyroid nodule, thyroid calcification, cirrhosis, gallstone, splenic lesion</t>
+  </si>
+  <si>
+    <t>hepatic mass, splenic mass</t>
+  </si>
+  <si>
+    <t>liver cyst, renal cyst, pancreatic calcification, splenic nodule</t>
+  </si>
+  <si>
+    <t>calcified hepatic nodule, gallstone</t>
+  </si>
+  <si>
+    <t>gastrointestinal foreign body, pancreatic foreign body, bile duct gas, gallbladder stone, retroperitoneal mass, adrenal nodule, adrenal hyperplasia</t>
+  </si>
+  <si>
+    <t>cyst, calcification, mass, lymphadenopathy</t>
+  </si>
+  <si>
+    <t>iodine oil embolization, liver lesion, gallbladder calculus, lymphadenopathy, renal cyst</t>
+  </si>
+  <si>
+    <t>liver density reduction, renal collecting system density increase</t>
+  </si>
+  <si>
+    <t>liver metastases, splenic nodules</t>
+  </si>
+  <si>
+    <t>hepatic cyst, splenic nodule, renal calculus, left renal mass</t>
+  </si>
+  <si>
+    <t>intestinal wall thickening, metal foreign body</t>
+  </si>
+  <si>
+    <t>liver mass, gallstones, renal calcification</t>
+  </si>
+  <si>
+    <t>intestinal perforation, enterocutaneous fistula, ileocecal thickening</t>
+  </si>
+  <si>
+    <t>hepatic cyst, gallbladder wall thickening, renal cyst, renal calcification</t>
+  </si>
+  <si>
+    <t>ascites, mesenteric thickening, gallbladder stone, splenomegaly, adrenal nodule</t>
+  </si>
+  <si>
+    <t>gallbladder wall thickening, common bile duct dilation, adrenal hyperplasia</t>
+  </si>
+  <si>
+    <t>liver calcification, splenomegaly, mesenteric lymphadenopathy</t>
+  </si>
+  <si>
+    <t>acute pancreatitis, gallstone, postoperative changes</t>
+  </si>
+  <si>
+    <t>hepatic cyst, gallbladder polyp, renal cyst</t>
+  </si>
+  <si>
+    <t>renal cyst, bile duct dilation, pancreatic duct dilation, pancreatic head enlargement</t>
+  </si>
+  <si>
+    <t>adrenal hyperplasia, renal cyst, hepatic cyst, liver calcification</t>
+  </si>
+  <si>
+    <t>thyroid nodule, adrenal hyperplasia, gallbladder wall thickening, renal cyst, aortic wall calcification</t>
+  </si>
+  <si>
+    <t>ascites, liver atrophy, gallbladder mucocele, splenomegaly, renal cysts, intestinal inflammation</t>
+  </si>
+  <si>
+    <t>liver mass, bile duct mass, lymphadenopathy, adrenal nodule</t>
+  </si>
+  <si>
+    <t>liver nodule, subcapsular liver nodule</t>
+  </si>
+  <si>
+    <t>rectal cancer, gallbladder stones, splenic cyst, renal cyst, adnexal cyst</t>
+  </si>
+  <si>
+    <t>adrenal adenoma, adrenal hyperplasia, renal cyst</t>
+  </si>
+  <si>
+    <t>renal pelvis dilation, ureteral calculus</t>
+  </si>
+  <si>
+    <t>gallbladder wall thickening, gallbladder edema, liver cysts</t>
+  </si>
+  <si>
+    <t>hepatic cyst, adrenal hyperplasia, renal cyst</t>
+  </si>
+  <si>
+    <t>retroperitoneal mass, mesenteric mass</t>
+  </si>
+  <si>
+    <t>renal cyst, abdominal aortic aneurysm</t>
+  </si>
+  <si>
+    <t>hepatic cyst, renal calculus, hepatic nodule</t>
+  </si>
+  <si>
+    <t>postoperative changes, gallbladder calculi, hepatic calcification</t>
+  </si>
+  <si>
+    <t>ulcerative colitis</t>
+  </si>
+  <si>
+    <t>rectal cancer, adrenal adenoma, renal cyst, aortic atherosclerosis, iliac artery atherosclerosis</t>
+  </si>
+  <si>
+    <t>de novo endoleak, intramural hematoma</t>
+  </si>
+  <si>
+    <t>iodized oil deposition, liver nodule, liver cyst, splenomegaly, splenic calcification, ascites, portal vein thrombosis</t>
+  </si>
+  <si>
+    <t>rectal cancer, lymphadenopathy, liver metastasis</t>
+  </si>
+  <si>
+    <t>cirrhosis, portal hypertension, gallstones, splenomegaly, biliary calculus</t>
+  </si>
+  <si>
+    <t>gallbladder wall thickening, appendicitis, renal calculus</t>
+  </si>
+  <si>
+    <t>ureteral calculus, hydronephrosis, renal calculi</t>
+  </si>
+  <si>
+    <t>abdominal calcifications, colonic calcifications, pelvic calcifications</t>
+  </si>
+  <si>
+    <t>abdominal mass, gastric wall invasion</t>
+  </si>
+  <si>
+    <t>renal calculi, renal cyst, adrenal hyperplasia, adrenal cyst</t>
+  </si>
+  <si>
+    <t>bile duct calculi, renal calculi, renal calcification, adrenal hyperplasia</t>
+  </si>
+  <si>
+    <t>liver calcification, renal calculus, ureteral calculus</t>
+  </si>
+  <si>
+    <t>liver cyst, liver calcification, renal cyst</t>
+  </si>
+  <si>
+    <t>renal calcification, adrenal hyperplasia, rectal mass</t>
+  </si>
+  <si>
+    <t>renal cyst, colorectal cancer recurrence, liver metastasis</t>
+  </si>
+  <si>
+    <t>splenomegaly, ileocecal thickening, appendicitis, mesenteric lymphadenopathy</t>
+  </si>
+  <si>
+    <t>adrenal calcification, subphrenic abscess, liver surface lesion, omentum thickening, ascites, retroperitoneal calcification, anterior abdominal wall nodule</t>
+  </si>
+  <si>
+    <t>splenic nodule, renal cyst, colorectal mass, gallbladder duct nodules</t>
+  </si>
+  <si>
+    <t>gallbladder stones, splenic nodule</t>
+  </si>
+  <si>
+    <t>liver cyst, liver hemangioma, splenic nodules, renal cyst, adrenal hyperplasia</t>
+  </si>
+  <si>
+    <t>adrenal hyperplasia, adrenal calcification, pancreatic calcification</t>
+  </si>
+  <si>
+    <t>renal cyst, splenomegaly, gallbladder calcification</t>
+  </si>
+  <si>
+    <t>renal cyst, liver cyst, gallbladder stones, renal calculi</t>
+  </si>
+  <si>
+    <t>hepatic cyst, hydronephrosis</t>
+  </si>
+  <si>
+    <t>postoperative hematoma, postoperative calcification</t>
+  </si>
+  <si>
+    <t>bowel perforation, renal cyst, pancreatic inflammation, reactive lymphadenopathy, renal calcification</t>
+  </si>
+  <si>
+    <t>aortic dissection, adrenal hyperplasia</t>
+  </si>
+  <si>
+    <t>liver cyst, gallbladder wall thickening, renal calcification, pneumoperitoneum, mesenteric lymphadenopathy</t>
+  </si>
+  <si>
+    <t>thyroid cyst, liver cyst, liver calcification, gallbladder calculus, gastric calcification</t>
+  </si>
+  <si>
+    <t>renal atrophy, renal cyst, hydronephrosis, adrenal hyperplasia</t>
+  </si>
+  <si>
+    <t>renal cyst, liver cyst</t>
+  </si>
+  <si>
+    <t>ascites, hepatic hemangioma, adrenal hyperplasia</t>
+  </si>
+  <si>
+    <t>liver mass, hepatic cyst, lymphadenopathy, splenomegaly, renal cyst</t>
+  </si>
+  <si>
+    <t>liver mass, hepatic tumor</t>
+  </si>
+  <si>
+    <t>renal cyst, biliary duct dilation</t>
+  </si>
+  <si>
+    <t>renal cyst, adrenal hyperplasia, ascites, liver cyst</t>
+  </si>
+  <si>
+    <t>gallstone</t>
+  </si>
+  <si>
+    <t>gallstones, splenic calcification, adrenal hyperplasia, renal cyst</t>
+  </si>
+  <si>
+    <t>adrenal hyperplasia, gallbladder effusion, ring-enhancing lesion</t>
+  </si>
+  <si>
+    <t>hydatid cyst, biliary fistula, choledocholithiasis</t>
+  </si>
+  <si>
+    <t>adrenal hyperplasia, hepatic nodule</t>
+  </si>
+  <si>
+    <t>hepatic cyst, liver calcification</t>
+  </si>
+  <si>
+    <t>colorectal mass, arterial wall calcification</t>
+  </si>
+  <si>
+    <t>adrenal hyperplasia, renal calculus</t>
+  </si>
+  <si>
+    <t>adrenal nodule, adrenal thickening</t>
+  </si>
+  <si>
+    <t>hepatic abscess, gas in the abdomen</t>
+  </si>
+  <si>
+    <t>hepatocellular carcinoma, metastatic liver lesion, lymphadenopathy</t>
+  </si>
+  <si>
+    <t>lymphadenopathy</t>
+  </si>
+  <si>
+    <t>liver mass, portal vein thrombosis, adrenal hyperplasia</t>
+  </si>
+  <si>
+    <t>liver cyst, liver mass, gallbladder stone, splenomegaly, ascites, hydronephrosis, abdominal mass</t>
+  </si>
+  <si>
+    <t>ureteral calculus, renal calculi</t>
+  </si>
+  <si>
+    <t>gallstones, splenomegaly, renal calculus</t>
+  </si>
+  <si>
+    <t>renal calculi, ureteral calculi, renal cyst</t>
+  </si>
+  <si>
+    <t>renal cyst, adrenal calcification</t>
+  </si>
+  <si>
+    <t>hepatic cyst, renal cyst, ureteral calculus, renal calcification</t>
+  </si>
+  <si>
+    <t>renal calculus, ureteral calculi, adrenal hyperplasia, hepatic cysts</t>
+  </si>
+  <si>
+    <t>liver calcification, intestinal dilatation, ascites</t>
+  </si>
+  <si>
+    <t>left ureteral calculus, hydronephrosis, renal parenchymal calcification</t>
+  </si>
+  <si>
+    <t>renal calculus, hydronephrosis</t>
+  </si>
+  <si>
+    <t>renal cyst, appendiceal mass, liver calcification</t>
+  </si>
+  <si>
+    <t>ureteral calculus, bladder calculus, hydronephrosis</t>
+  </si>
+  <si>
+    <t>gastrointestinal perforation, liver cyst</t>
+  </si>
+  <si>
+    <t>renal cyst, renal calcification, hepatic calcification</t>
+  </si>
+  <si>
+    <t>liver cyst, renal cyst, gallbladder thickening, renal calcification</t>
+  </si>
+  <si>
+    <t>liver atrophy, liver calcification</t>
+  </si>
+  <si>
+    <t>adrenal hyperplasia, renal calculi</t>
+  </si>
+  <si>
+    <t>ileocecal wall thickening, ascending colon wall thickening</t>
+  </si>
+  <si>
+    <t>bile duct stone, bile duct thickening, hepatic cyst, pancreatic atrophy, adrenal adenoma</t>
+  </si>
+  <si>
+    <t>hepatic mass, renal cyst, perirenal fluid collection</t>
+  </si>
+  <si>
+    <t>hepatic hemangioma, hepatic calcification, ascites</t>
+  </si>
+  <si>
+    <t>duodenal neuroendocrine tumor, hepatic cyst, renal cyst, appendiceal nodule</t>
+  </si>
+  <si>
+    <t>renal mass, adrenal adenoma, gallbladder stones</t>
+  </si>
+  <si>
+    <t>colorectal cancer, liver metastases, gallbladder wall thickening, lymphadenopathy</t>
+  </si>
+  <si>
+    <t>focal nodular hyperplasia, simple hepatic cyst, calcified nodule</t>
+  </si>
+  <si>
+    <t>gallbladder calculus, gallbladder wall thickening, liver nodule, pancreatic enlargement</t>
+  </si>
+  <si>
+    <t>gastric submucosal tumor, duodenal submucosal tumor</t>
+  </si>
+  <si>
+    <t>splenomegaly, retroperitoneal lymphadenopathy, duodenal diverticulum</t>
+  </si>
+  <si>
+    <t>liver calcification, adrenal hyperplasia, renal cyst</t>
+  </si>
+  <si>
+    <t>gallbladder stone, cholecystitis, renal cyst</t>
+  </si>
+  <si>
+    <t>cholelithiasis, liver lesion</t>
+  </si>
+  <si>
+    <t>fatty liver, renal cyst, perinephric calcification</t>
+  </si>
+  <si>
+    <t>gallstones, ureteral calculi, renal cyst, pelvic mass</t>
+  </si>
+  <si>
+    <t>cholangitis, cholangiopathy, liver lesion</t>
+  </si>
+  <si>
+    <t>cholecystitis, gallstone</t>
+  </si>
+  <si>
+    <t>abdominal arterial calcification, iliac arterial calcification</t>
+  </si>
+  <si>
+    <t>liver calcification, renal cyst, metal foreign body</t>
+  </si>
+  <si>
+    <t>fatty liver disease</t>
+  </si>
+  <si>
+    <t>pancreatic thickening, renal fascial thickening, liver parenchymal changes, liver calcification, renal cyst, retroperitoneal lymphadenopathy</t>
+  </si>
+  <si>
+    <t>appendicitis, ileocecal inflammation</t>
+  </si>
+  <si>
+    <t>gallbladder calculus, gallbladder wall thickening, liver fat infiltration</t>
+  </si>
+  <si>
+    <t>renal calculi, aortic calcification, iliac artery calcification</t>
+  </si>
+  <si>
+    <t>aortic calcification, iliac artery calcification, renal pelvis and calyx dilation</t>
+  </si>
+  <si>
+    <t>atherosclerosis, thyroid calcification, gallbladder calculi, splenic cyst</t>
   </si>
 </sst>
 </file>
@@ -3708,7 +3651,7 @@
     <col min="3" max="4" width="23.69140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="23.69140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="23.53515625" style="4" customWidth="1"/>
-    <col min="7" max="8" width="24.53515625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="23.69140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="24.53515625" style="4" customWidth="1"/>
     <col min="10" max="10" width="24.765625" style="4" customWidth="1"/>
     <col min="11" max="11" width="23.84375" customWidth="1"/>
@@ -3737,13 +3680,13 @@
         <v>598</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>599</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -3769,12 +3712,12 @@
         <v>5</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="I2" s="4">
+        <v>5</v>
+      </c>
+      <c r="I2">
         <v>0.99999998013178504</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2">
         <v>0.99999998013178504</v>
       </c>
       <c r="K2" s="1"/>
@@ -3802,13 +3745,13 @@
         <v>7</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="4">
+        <v>779</v>
+      </c>
+      <c r="I3">
         <v>0.49964179098606099</v>
       </c>
-      <c r="J3" s="4">
-        <v>0.49964179098606099</v>
+      <c r="J3">
+        <v>0.44117043912410697</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -3832,16 +3775,16 @@
         <v>0.835554718971252</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.82892990112304599</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.99334528048833204</v>
+        <v>780</v>
+      </c>
+      <c r="I4">
+        <v>0.851061731576919</v>
+      </c>
+      <c r="J4">
+        <v>0.86674258112907399</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -3865,15 +3808,15 @@
         <v>0.86689925193786599</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1.0000000397364299</v>
-      </c>
-      <c r="J5" s="4">
+        <v>604</v>
+      </c>
+      <c r="I5">
+        <v>0.98660504817962602</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" s="1"/>
@@ -3898,16 +3841,16 @@
         <v>0.82490241527557295</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.76389619708061196</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.94700139760971003</v>
+        <v>781</v>
+      </c>
+      <c r="I6">
+        <v>0.85880175232887201</v>
+      </c>
+      <c r="J6">
+        <v>0.89582175016403198</v>
       </c>
       <c r="K6" s="1"/>
     </row>
@@ -3931,15 +3874,15 @@
         <v>0.77520492672920205</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.80694216489791804</v>
-      </c>
-      <c r="J7" s="4">
+        <v>782</v>
+      </c>
+      <c r="I7">
+        <v>0.96882569789886397</v>
+      </c>
+      <c r="J7">
         <v>0.82719361782073897</v>
       </c>
       <c r="K7" s="1"/>
@@ -3964,16 +3907,16 @@
         <v>0.84852959513664195</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.67600529193878101</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0.73762549459934201</v>
+        <v>783</v>
+      </c>
+      <c r="I8">
+        <v>0.87594095865885402</v>
+      </c>
+      <c r="J8">
+        <v>0.65049600973725297</v>
       </c>
       <c r="K8" s="1"/>
     </row>
@@ -4002,10 +3945,10 @@
       <c r="H9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" s="1"/>
@@ -4035,10 +3978,10 @@
       <c r="H10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10">
         <v>0.81577607989311196</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10">
         <v>0.79156929254531805</v>
       </c>
       <c r="K10" s="1"/>
@@ -4063,16 +4006,16 @@
         <v>0.82130464911460799</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.90788803994655598</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0.856838479638099</v>
+        <v>784</v>
+      </c>
+      <c r="I11">
+        <v>0.89578464627265897</v>
+      </c>
+      <c r="J11">
+        <v>0.76574503630399704</v>
       </c>
       <c r="K11" s="1"/>
     </row>
@@ -4096,16 +4039,16 @@
         <v>0.643765568733215</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>608</v>
+        <v>637</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0.494580268859863</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0.66330203413963296</v>
+        <v>785</v>
+      </c>
+      <c r="I12">
+        <v>0.90017408132553101</v>
+      </c>
+      <c r="J12">
+        <v>0.65798303484916598</v>
       </c>
       <c r="K12" s="1"/>
     </row>
@@ -4129,16 +4072,16 @@
         <v>0.83233422040939298</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="I13" s="4">
+        <v>36</v>
+      </c>
+      <c r="I13">
         <v>0.96863827109336798</v>
       </c>
-      <c r="J13" s="4">
-        <v>0.86369591951370195</v>
+      <c r="J13">
+        <v>0.83233422040939298</v>
       </c>
       <c r="K13" s="1"/>
     </row>
@@ -4162,16 +4105,16 @@
         <v>0.74916890263557401</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="I14" s="4">
+        <v>786</v>
+      </c>
+      <c r="I14">
         <v>0.81577607989311196</v>
       </c>
-      <c r="J14" s="4">
-        <v>0.73637261986732405</v>
+      <c r="J14">
+        <v>0.74131402373313904</v>
       </c>
       <c r="K14" s="1"/>
     </row>
@@ -4195,16 +4138,16 @@
         <v>0.77991980314254705</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0.76684226592381799</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0.71530822912851899</v>
+        <v>787</v>
+      </c>
+      <c r="I15">
+        <v>0.80579022566477398</v>
+      </c>
+      <c r="J15">
+        <v>0.75923298299312503</v>
       </c>
       <c r="K15" s="1"/>
     </row>
@@ -4228,16 +4171,16 @@
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>651</v>
+        <v>45</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0.91214641928672702</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0.91470426321029596</v>
+        <v>45</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
       </c>
       <c r="K16" s="1"/>
     </row>
@@ -4261,16 +4204,16 @@
         <v>0.55352979898452703</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="I17" s="4">
+        <v>788</v>
+      </c>
+      <c r="I17">
         <v>0.55352979898452703</v>
       </c>
-      <c r="J17" s="4">
-        <v>0.196660846471786</v>
+      <c r="J17">
+        <v>0.55352979898452703</v>
       </c>
       <c r="K17" s="1"/>
     </row>
@@ -4294,15 +4237,15 @@
         <v>0.70691688855489099</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0.67217616240183498</v>
-      </c>
-      <c r="J18" s="4">
+        <v>789</v>
+      </c>
+      <c r="I18">
+        <v>0.65613591670989901</v>
+      </c>
+      <c r="J18">
         <v>0.75837792952855398</v>
       </c>
       <c r="K18" s="1"/>
@@ -4327,16 +4270,16 @@
         <v>0.55638861656188898</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0.67581549286842302</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0.92964795231819097</v>
+        <v>790</v>
+      </c>
+      <c r="I19">
+        <v>0.60541138052940302</v>
+      </c>
+      <c r="J19">
+        <v>0.78759735822677601</v>
       </c>
       <c r="K19" s="1"/>
     </row>
@@ -4360,16 +4303,16 @@
         <v>0.87163223822911495</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0.89836370944976796</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0.89254003763198797</v>
+        <v>791</v>
+      </c>
+      <c r="I20">
+        <v>0.80574935674667303</v>
+      </c>
+      <c r="J20">
+        <v>0.79542900621891</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -4393,16 +4336,16 @@
         <v>0.80938148871064097</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="I21" s="4">
+        <v>792</v>
+      </c>
+      <c r="I21">
         <v>1.0000000149011601</v>
       </c>
-      <c r="J21" s="4">
-        <v>0.71841065958142203</v>
+      <c r="J21">
+        <v>0.95502176880836398</v>
       </c>
       <c r="K21" s="1"/>
     </row>
@@ -4431,10 +4374,10 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22">
         <v>0.83083805441856295</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22">
         <v>0.88605058193206698</v>
       </c>
       <c r="K22" s="1"/>
@@ -4459,16 +4402,16 @@
         <v>0.73278199881315198</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0.82876054197549798</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0.73248643428087201</v>
+        <v>793</v>
+      </c>
+      <c r="I23">
+        <v>0.72857535630464498</v>
+      </c>
+      <c r="J23">
+        <v>0.64331524570782905</v>
       </c>
       <c r="K23" s="1"/>
     </row>
@@ -4492,16 +4435,16 @@
         <v>0.95287695527076699</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0.74982371926307601</v>
-      </c>
-      <c r="J24" s="4">
+        <v>794</v>
+      </c>
+      <c r="I24">
         <v>0.95287695527076699</v>
+      </c>
+      <c r="J24">
+        <v>0.99778437614440896</v>
       </c>
       <c r="K24" s="1"/>
     </row>
@@ -4525,15 +4468,15 @@
         <v>0.36376929283142001</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I25" s="4">
-        <v>0.97500115633010798</v>
-      </c>
-      <c r="J25" s="4">
+      <c r="I25">
+        <v>0.64592093229293801</v>
+      </c>
+      <c r="J25">
         <v>0.47421866655349698</v>
       </c>
       <c r="K25" s="1"/>
@@ -4558,15 +4501,15 @@
         <v>0.95125621557235696</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>610</v>
+        <v>648</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="I26" s="4">
-        <v>0.88637749354044504</v>
-      </c>
-      <c r="J26" s="4">
+      <c r="I26">
+        <v>0.783744476735591</v>
+      </c>
+      <c r="J26">
         <v>0.88637749354044504</v>
       </c>
       <c r="K26" s="1"/>
@@ -4591,16 +4534,16 @@
         <v>0.40046427398919998</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0.570630222558975</v>
-      </c>
-      <c r="J27" s="4">
-        <v>0.57641489058732898</v>
+        <v>795</v>
+      </c>
+      <c r="I27">
+        <v>0.52013291418552399</v>
+      </c>
+      <c r="J27">
+        <v>0.630446597933769</v>
       </c>
       <c r="K27" s="1"/>
     </row>
@@ -4624,16 +4567,16 @@
         <v>0.96495440602302496</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="I28" s="4">
+        <v>796</v>
+      </c>
+      <c r="I28">
+        <v>0.96495440602302496</v>
+      </c>
+      <c r="J28">
         <v>0.96863827109336798</v>
-      </c>
-      <c r="J28" s="4">
-        <v>0.99999997019767695</v>
       </c>
       <c r="K28" s="1"/>
     </row>
@@ -4657,16 +4600,16 @@
         <v>0.90004488825798001</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>83</v>
+        <v>651</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0.90004488825798001</v>
-      </c>
-      <c r="J29" s="4">
-        <v>0.77343718210856105</v>
+        <v>797</v>
+      </c>
+      <c r="I29">
+        <v>0.79445064067840498</v>
+      </c>
+      <c r="J29">
+        <v>0.75268542766571001</v>
       </c>
       <c r="K29" s="1"/>
     </row>
@@ -4690,16 +4633,16 @@
         <v>0.99221444129943803</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>620</v>
+        <v>652</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0.87080601851145401</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0.99221444129943803</v>
+        <v>798</v>
+      </c>
+      <c r="I30">
+        <v>0.77486801147460904</v>
+      </c>
+      <c r="J30">
+        <v>0.90199670195579496</v>
       </c>
       <c r="K30" s="1"/>
     </row>
@@ -4723,15 +4666,15 @@
         <v>1</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>88</v>
+        <v>653</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="I31" s="4">
+        <v>799</v>
+      </c>
+      <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31">
         <v>1</v>
       </c>
       <c r="K31" s="1"/>
@@ -4756,16 +4699,16 @@
         <v>0.66041297316551195</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="I32" s="4">
-        <v>0.77993609756231297</v>
-      </c>
-      <c r="J32" s="4">
-        <v>0.78260200719038597</v>
+        <v>800</v>
+      </c>
+      <c r="I32">
+        <v>0.75936815142631497</v>
+      </c>
+      <c r="J32">
+        <v>0.72229206065336804</v>
       </c>
       <c r="K32" s="1"/>
     </row>
@@ -4789,16 +4732,16 @@
         <v>0.96863827109336798</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I33" s="4">
-        <v>0.96863827109336798</v>
-      </c>
-      <c r="J33" s="4">
-        <v>0.96863827109336798</v>
+        <v>73</v>
+      </c>
+      <c r="I33">
+        <v>0.99999997019767695</v>
+      </c>
+      <c r="J33">
+        <v>0.99999997019767695</v>
       </c>
       <c r="K33" s="1"/>
     </row>
@@ -4822,16 +4765,16 @@
         <v>0.85558956861495905</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>661</v>
+        <v>95</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0.999999940395355</v>
-      </c>
-      <c r="J34" s="4">
-        <v>0.999999940395355</v>
+        <v>95</v>
+      </c>
+      <c r="I34">
+        <v>0.85558956861495905</v>
+      </c>
+      <c r="J34">
+        <v>0.85558956861495905</v>
       </c>
       <c r="K34" s="1"/>
     </row>
@@ -4860,10 +4803,10 @@
       <c r="H35" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35">
         <v>1</v>
       </c>
       <c r="K35" s="1"/>
@@ -4888,16 +4831,16 @@
         <v>0.69907957315444902</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="I36" s="4">
+        <v>251</v>
+      </c>
+      <c r="I36">
         <v>0.999999940395355</v>
       </c>
-      <c r="J36" s="4">
-        <v>0.61687356233596802</v>
+      <c r="J36">
+        <v>0.659132480621337</v>
       </c>
       <c r="K36" s="1"/>
     </row>
@@ -4921,16 +4864,16 @@
         <v>0.72202822566032399</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>662</v>
+        <v>102</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="I37" s="4">
-        <v>0.74526974558830195</v>
-      </c>
-      <c r="J37" s="4">
-        <v>0.766263127326965</v>
+        <v>73</v>
+      </c>
+      <c r="I37">
+        <v>0.74535532792409198</v>
+      </c>
+      <c r="J37">
+        <v>0.99999997019767695</v>
       </c>
       <c r="K37" s="1"/>
     </row>
@@ -4959,10 +4902,10 @@
       <c r="H38" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38">
         <v>1</v>
       </c>
       <c r="K38" s="1"/>
@@ -4987,16 +4930,16 @@
         <v>0.75427855551242795</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="I39" s="4">
-        <v>0.767320036888122</v>
-      </c>
-      <c r="J39" s="4">
-        <v>0.81273986399173703</v>
+        <v>801</v>
+      </c>
+      <c r="I39">
+        <v>0.65267425775527899</v>
+      </c>
+      <c r="J39">
+        <v>0.802943795919418</v>
       </c>
       <c r="K39" s="1"/>
     </row>
@@ -5020,16 +4963,16 @@
         <v>0.73381626605987504</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>664</v>
+        <v>481</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="I40" s="4">
-        <v>0.77930897474288896</v>
-      </c>
-      <c r="J40" s="4">
-        <v>0.68782347440719604</v>
+        <v>802</v>
+      </c>
+      <c r="I40">
+        <v>0.63155215978622403</v>
+      </c>
+      <c r="J40">
+        <v>0.80082666873931796</v>
       </c>
       <c r="K40" s="1"/>
     </row>
@@ -5053,16 +4996,16 @@
         <v>0.75668183565139702</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="I41" s="4">
-        <v>0.86556035280227595</v>
-      </c>
-      <c r="J41" s="4">
-        <v>0.65038370490074104</v>
+        <v>803</v>
+      </c>
+      <c r="I41">
+        <v>0.85236735343933101</v>
+      </c>
+      <c r="J41">
+        <v>0.82556803226470898</v>
       </c>
       <c r="K41" s="1"/>
     </row>
@@ -5086,16 +5029,16 @@
         <v>0.74325593312581295</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>666</v>
+        <v>114</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="I42" s="4">
+        <v>804</v>
+      </c>
+      <c r="I42">
         <v>0.82092060645421305</v>
       </c>
-      <c r="J42" s="4">
-        <v>0.82239540417989099</v>
+      <c r="J42">
+        <v>0.79658212264378803</v>
       </c>
       <c r="K42" s="1"/>
     </row>
@@ -5122,13 +5065,13 @@
         <v>118</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I43" s="4">
+        <v>539</v>
+      </c>
+      <c r="I43">
         <v>0.88996568322181702</v>
       </c>
-      <c r="J43" s="4">
-        <v>0.88996568322181702</v>
+      <c r="J43">
+        <v>0.605217784643173</v>
       </c>
       <c r="K43" s="1"/>
     </row>
@@ -5152,15 +5095,15 @@
         <v>0.78430225451787305</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="I44" s="4">
-        <v>0.80521005392074496</v>
-      </c>
-      <c r="J44" s="4">
+        <v>617</v>
+      </c>
+      <c r="I44">
+        <v>0.78430225451787305</v>
+      </c>
+      <c r="J44">
         <v>0.78064054250717096</v>
       </c>
       <c r="K44" s="1"/>
@@ -5185,16 +5128,16 @@
         <v>0.50567318499088199</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="I45" s="4">
+        <v>805</v>
+      </c>
+      <c r="I45">
         <v>0.92246052622795105</v>
       </c>
-      <c r="J45" s="4">
-        <v>0.57759749889373702</v>
+      <c r="J45">
+        <v>0.52967828512191695</v>
       </c>
       <c r="K45" s="1"/>
     </row>
@@ -5215,16 +5158,13 @@
         <v>0.16610771417617701</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="I46" s="4">
+        <v>658</v>
+      </c>
+      <c r="I46">
         <v>0.82594674825668302</v>
       </c>
-      <c r="J46" s="4">
-        <v>0.75175213813781705</v>
+      <c r="J46">
+        <v>0.16610771417617701</v>
       </c>
       <c r="K46" s="1"/>
     </row>
@@ -5248,16 +5188,16 @@
         <v>0.75204792618751504</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="I47" s="4">
-        <v>0.66590749224027002</v>
-      </c>
-      <c r="J47" s="4">
-        <v>0.82436558604240395</v>
+        <v>806</v>
+      </c>
+      <c r="I47">
+        <v>0.63860351840655005</v>
+      </c>
+      <c r="J47">
+        <v>0.66927124063173904</v>
       </c>
       <c r="K47" s="1"/>
     </row>
@@ -5286,10 +5226,10 @@
       <c r="H48" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48">
         <v>0.67762017250061002</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48">
         <v>0.67762017250061002</v>
       </c>
       <c r="K48" s="1"/>
@@ -5314,15 +5254,15 @@
         <v>0.97909216086069695</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="I49" s="4">
-        <v>0.98431912064552296</v>
-      </c>
-      <c r="J49" s="4">
+        <v>807</v>
+      </c>
+      <c r="I49">
+        <v>0.99999996026356996</v>
+      </c>
+      <c r="J49">
         <v>0.87080601851145401</v>
       </c>
       <c r="K49" s="1"/>
@@ -5340,10 +5280,10 @@
       <c r="F50" s="4">
         <v>0.22638063132762901</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50">
         <v>0.22638063132762901</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50">
         <v>0.22638063132762901</v>
       </c>
       <c r="K50" s="1"/>
@@ -5368,15 +5308,15 @@
         <v>0.99999997019767695</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>252</v>
+        <v>661</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I51" s="4">
-        <v>0.96863827109336798</v>
-      </c>
-      <c r="J51" s="4">
+      <c r="I51">
+        <v>1.00000001986821</v>
+      </c>
+      <c r="J51">
         <v>0.96863827109336798</v>
       </c>
       <c r="K51" s="1"/>
@@ -5401,15 +5341,15 @@
         <v>0.659839928150177</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="I52" s="4">
-        <v>0.68375790119171098</v>
-      </c>
-      <c r="J52" s="4">
+        <v>808</v>
+      </c>
+      <c r="I52">
+        <v>0.70650571584701505</v>
+      </c>
+      <c r="J52">
         <v>0.659839928150177</v>
       </c>
       <c r="K52" s="1"/>
@@ -5434,16 +5374,16 @@
         <v>0.84246720870335901</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="I53" s="4">
-        <v>0.87008012831211001</v>
-      </c>
-      <c r="J53" s="4">
-        <v>0.84822956720987897</v>
+        <v>809</v>
+      </c>
+      <c r="I53">
+        <v>0.83401294549306204</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
       </c>
       <c r="K53" s="1"/>
     </row>
@@ -5467,15 +5407,15 @@
         <v>0.63128798206647196</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="I54" s="4">
-        <v>0.78169631958007801</v>
-      </c>
-      <c r="J54" s="4">
+        <v>810</v>
+      </c>
+      <c r="I54">
+        <v>0.85708896319071404</v>
+      </c>
+      <c r="J54">
         <v>0.771619458993276</v>
       </c>
       <c r="K54" s="1"/>
@@ -5500,16 +5440,16 @@
         <v>0.580509573221206</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="I55" s="4">
-        <v>0.88403250773747699</v>
-      </c>
-      <c r="J55" s="4">
-        <v>0.666329026222229</v>
+        <v>811</v>
+      </c>
+      <c r="I55">
+        <v>0.75020027160644498</v>
+      </c>
+      <c r="J55">
+        <v>0.533095349868138</v>
       </c>
       <c r="K55" s="1"/>
     </row>
@@ -5533,15 +5473,15 @@
         <v>0.88965448737144404</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="I56" s="4">
-        <v>0.65321462353070503</v>
-      </c>
-      <c r="J56" s="4">
+      <c r="I56">
+        <v>0.83338860670725501</v>
+      </c>
+      <c r="J56">
         <v>0.88965448737144404</v>
       </c>
       <c r="K56" s="1"/>
@@ -5566,15 +5506,15 @@
         <v>0.53492907683054602</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I57" s="4">
-        <v>0.55770824104547501</v>
-      </c>
-      <c r="J57" s="4">
+      <c r="I57">
+        <v>0.59973746538162198</v>
+      </c>
+      <c r="J57">
         <v>0.53492907683054602</v>
       </c>
       <c r="K57" s="1"/>
@@ -5599,16 +5539,16 @@
         <v>0.64582124352455095</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="I58" s="4">
-        <v>0.79069602489471402</v>
-      </c>
-      <c r="J58" s="4">
-        <v>0.55768533051013902</v>
+        <v>812</v>
+      </c>
+      <c r="I58">
+        <v>0.73710945248603799</v>
+      </c>
+      <c r="J58">
+        <v>0.81742382049560502</v>
       </c>
       <c r="K58" s="1"/>
     </row>
@@ -5632,16 +5572,16 @@
         <v>0.74293364087740499</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="I59" s="4">
-        <v>0.71764900783697705</v>
-      </c>
-      <c r="J59" s="4">
-        <v>0.65934739708900403</v>
+        <v>813</v>
+      </c>
+      <c r="I59">
+        <v>0.690788221359252</v>
+      </c>
+      <c r="J59">
+        <v>0.68798810541629796</v>
       </c>
       <c r="K59" s="1"/>
     </row>
@@ -5665,16 +5605,16 @@
         <v>0.75035083293914795</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I60" s="4">
+        <v>814</v>
+      </c>
+      <c r="I60">
         <v>0.75035083293914795</v>
       </c>
-      <c r="J60" s="4">
-        <v>0.75035083293914795</v>
+      <c r="J60">
+        <v>0.29144170880317599</v>
       </c>
       <c r="K60" s="1"/>
     </row>
@@ -5703,10 +5643,10 @@
       <c r="H61" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I61">
         <v>0.63155215978622403</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J61">
         <v>0.63155215978622403</v>
       </c>
       <c r="K61" s="1"/>
@@ -5731,16 +5671,16 @@
         <v>0.625701904296875</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>165</v>
+        <v>624</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="I62" s="4">
-        <v>0.63658869266509999</v>
-      </c>
-      <c r="J62" s="4">
+        <v>24</v>
+      </c>
+      <c r="I62">
         <v>1.00000023841857</v>
+      </c>
+      <c r="J62">
+        <v>0.625701904296875</v>
       </c>
       <c r="K62" s="1"/>
     </row>
@@ -5764,16 +5704,16 @@
         <v>0.76918554306030196</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="I63" s="4">
-        <v>0.79486936330795199</v>
-      </c>
-      <c r="J63" s="4">
-        <v>0.78278822898864697</v>
+        <v>815</v>
+      </c>
+      <c r="I63">
+        <v>0.56813042610883702</v>
+      </c>
+      <c r="J63">
+        <v>0.82725313901901198</v>
       </c>
       <c r="K63" s="1"/>
     </row>
@@ -5797,16 +5737,16 @@
         <v>0.67143967747688205</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="I64" s="4">
-        <v>0.64130806922912598</v>
-      </c>
-      <c r="J64" s="4">
-        <v>0.71518647670745805</v>
+        <v>816</v>
+      </c>
+      <c r="I64">
+        <v>0.67351970076560896</v>
+      </c>
+      <c r="J64">
+        <v>0.81012431780497196</v>
       </c>
       <c r="K64" s="1"/>
     </row>
@@ -5830,16 +5770,16 @@
         <v>0.85971024206706403</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="I65" s="4">
-        <v>0.84531321128209402</v>
-      </c>
-      <c r="J65" s="4">
-        <v>0.86045750124113896</v>
+        <v>817</v>
+      </c>
+      <c r="I65">
+        <v>0.92089039087295499</v>
+      </c>
+      <c r="J65">
+        <v>0.86204278469085605</v>
       </c>
       <c r="K65" s="1"/>
     </row>
@@ -5863,16 +5803,16 @@
         <v>0.70300630728403701</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="I66" s="4">
-        <v>0.97551115353902096</v>
-      </c>
-      <c r="J66" s="4">
-        <v>0.70300630728403701</v>
+        <v>818</v>
+      </c>
+      <c r="I66">
+        <v>0.63583363095919199</v>
+      </c>
+      <c r="J66">
+        <v>0.59138959646224898</v>
       </c>
       <c r="K66" s="1"/>
     </row>
@@ -5896,16 +5836,16 @@
         <v>0.229509443044662</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="I67" s="4">
+        <v>675</v>
+      </c>
+      <c r="I67">
         <v>0.227014601230621</v>
       </c>
-      <c r="J67" s="4">
-        <v>0.35358825325965798</v>
+      <c r="J67">
+        <v>0.227014601230621</v>
       </c>
       <c r="K67" s="1"/>
     </row>
@@ -5929,16 +5869,16 @@
         <v>0.56513267755508401</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>685</v>
+        <v>181</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="I68" s="4">
+        <v>819</v>
+      </c>
+      <c r="I68">
         <v>0.92246052622795105</v>
       </c>
-      <c r="J68" s="4">
-        <v>0.78879874944686801</v>
+      <c r="J68">
+        <v>0.84368231892585699</v>
       </c>
       <c r="K68" s="1"/>
     </row>
@@ -5962,16 +5902,16 @@
         <v>0.424301261703173</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="I69" s="4">
-        <v>0.44847878317038198</v>
-      </c>
-      <c r="J69" s="4">
-        <v>0.64152497053146296</v>
+        <v>820</v>
+      </c>
+      <c r="I69">
+        <v>0.60642156004905701</v>
+      </c>
+      <c r="J69">
+        <v>0.26995798821250599</v>
       </c>
       <c r="K69" s="1"/>
     </row>
@@ -5997,10 +5937,10 @@
       <c r="H70" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I70">
         <v>0.48693448305129999</v>
       </c>
-      <c r="J70" s="4">
+      <c r="J70">
         <v>0.48693448305129999</v>
       </c>
       <c r="K70" s="1"/>
@@ -6025,15 +5965,15 @@
         <v>0.86084529757499695</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I71" s="4">
-        <v>0.86084529757499695</v>
-      </c>
-      <c r="J71" s="4">
+      <c r="I71">
+        <v>0.69036905467510201</v>
+      </c>
+      <c r="J71">
         <v>0.86084529757499695</v>
       </c>
       <c r="K71" s="1"/>
@@ -6061,13 +6001,13 @@
         <v>192</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="I72" s="4">
+        <v>821</v>
+      </c>
+      <c r="I72">
         <v>0.380455821752548</v>
       </c>
-      <c r="J72" s="4">
-        <v>0.34702534973621302</v>
+      <c r="J72">
+        <v>0.37276154756545998</v>
       </c>
       <c r="K72" s="1"/>
     </row>
@@ -6091,16 +6031,16 @@
         <v>0.79558616876602095</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="I73" s="4">
-        <v>0.77093802392482702</v>
-      </c>
-      <c r="J73" s="4">
-        <v>0.65578394010662999</v>
+        <v>822</v>
+      </c>
+      <c r="I73">
+        <v>0.78720887005329099</v>
+      </c>
+      <c r="J73">
+        <v>0.65314877033233598</v>
       </c>
       <c r="K73" s="1"/>
     </row>
@@ -6124,16 +6064,16 @@
         <v>0.77724428971608395</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="I74" s="4">
-        <v>0.79221571981906802</v>
-      </c>
-      <c r="J74" s="4">
-        <v>0.87069445848464899</v>
+        <v>823</v>
+      </c>
+      <c r="I74">
+        <v>0.81713497638702304</v>
+      </c>
+      <c r="J74">
+        <v>0.82271793484687805</v>
       </c>
       <c r="K74" s="1"/>
     </row>
@@ -6162,10 +6102,10 @@
       <c r="H75" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I75" s="4">
+      <c r="I75">
         <v>0.41947683691978399</v>
       </c>
-      <c r="J75" s="4">
+      <c r="J75">
         <v>0.41947683691978399</v>
       </c>
       <c r="K75" s="1"/>
@@ -6190,16 +6130,16 @@
         <v>0.78681901097297602</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="I76" s="4">
-        <v>0.72201599180698395</v>
-      </c>
-      <c r="J76" s="4">
-        <v>0.74868445098400105</v>
+        <v>824</v>
+      </c>
+      <c r="I76">
+        <v>0.62211651355028097</v>
+      </c>
+      <c r="J76">
+        <v>0.70447383324305202</v>
       </c>
       <c r="K76" s="1"/>
     </row>
@@ -6223,16 +6163,16 @@
         <v>0.89125227928161599</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="I77" s="4">
-        <v>0.912098988890647</v>
-      </c>
-      <c r="J77" s="4">
-        <v>0.83746461570262898</v>
+        <v>825</v>
+      </c>
+      <c r="I77">
+        <v>0.91782541573047605</v>
+      </c>
+      <c r="J77">
+        <v>0.99852289756139101</v>
       </c>
       <c r="K77" s="1"/>
     </row>
@@ -6259,13 +6199,13 @@
         <v>99</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="I78" s="4">
+        <v>100</v>
+      </c>
+      <c r="I78">
         <v>0.89636671543121305</v>
       </c>
-      <c r="J78" s="4">
-        <v>0.61687356233596802</v>
+      <c r="J78">
+        <v>0.69907957315444902</v>
       </c>
       <c r="K78" s="1"/>
     </row>
@@ -6289,15 +6229,15 @@
         <v>0.99556875228881803</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>206</v>
+        <v>682</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I79" s="4">
-        <v>0.73878365755081099</v>
-      </c>
-      <c r="J79" s="4">
+      <c r="I79">
+        <v>0.66195499897003096</v>
+      </c>
+      <c r="J79">
         <v>0.99556875228881803</v>
       </c>
       <c r="K79" s="1"/>
@@ -6327,10 +6267,10 @@
       <c r="H80" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I80" s="4">
+      <c r="I80">
         <v>1</v>
       </c>
-      <c r="J80" s="4">
+      <c r="J80">
         <v>1</v>
       </c>
       <c r="K80" s="1"/>
@@ -6355,15 +6295,15 @@
         <v>0.74346736073493902</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>692</v>
+        <v>625</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="I81" s="4">
-        <v>0.57869333028793302</v>
-      </c>
-      <c r="J81" s="4">
+        <v>211</v>
+      </c>
+      <c r="I81">
+        <v>0.74346736073493902</v>
+      </c>
+      <c r="J81">
         <v>0.74346736073493902</v>
       </c>
       <c r="K81" s="1"/>
@@ -6388,15 +6328,15 @@
         <v>0.83881008625030495</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="I82" s="4">
-        <v>0.81078824400901695</v>
-      </c>
-      <c r="J82" s="4">
+        <v>826</v>
+      </c>
+      <c r="I82">
+        <v>0.83881008625030495</v>
+      </c>
+      <c r="J82">
         <v>0.83881008625030495</v>
       </c>
       <c r="K82" s="1"/>
@@ -6421,16 +6361,16 @@
         <v>0.83259695768356301</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="I83" s="4">
-        <v>0.86278017361958803</v>
-      </c>
-      <c r="J83" s="4">
-        <v>0.73710933327674799</v>
+        <v>827</v>
+      </c>
+      <c r="I83">
+        <v>0.73854660987854004</v>
+      </c>
+      <c r="J83">
+        <v>0.83928896983464496</v>
       </c>
       <c r="K83" s="1"/>
     </row>
@@ -6454,16 +6394,16 @@
         <v>0.87268748879432601</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>695</v>
+        <v>219</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="I84" s="4">
-        <v>0.84659621119499195</v>
-      </c>
-      <c r="J84" s="4">
-        <v>0.96863821148872298</v>
+        <v>4</v>
+      </c>
+      <c r="I84">
+        <v>0.84234872460365295</v>
+      </c>
+      <c r="J84">
+        <v>0.74639800190925598</v>
       </c>
       <c r="K84" s="1"/>
     </row>
@@ -6487,16 +6427,16 @@
         <v>0.58233012755711799</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="I85" s="4">
-        <v>0.80849638581275896</v>
-      </c>
-      <c r="J85" s="4">
+        <v>828</v>
+      </c>
+      <c r="I85">
         <v>0.787923137346903</v>
+      </c>
+      <c r="J85">
+        <v>0.79876006642977304</v>
       </c>
       <c r="K85" s="1"/>
     </row>
@@ -6520,16 +6460,16 @@
         <v>0.77715887129306704</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="I86" s="4">
-        <v>0.66705634444952</v>
-      </c>
-      <c r="J86" s="4">
-        <v>0.45768392086028997</v>
+        <v>829</v>
+      </c>
+      <c r="I86">
+        <v>0.90859135985374395</v>
+      </c>
+      <c r="J86">
+        <v>0.71328727900981903</v>
       </c>
       <c r="K86" s="1"/>
     </row>
@@ -6553,16 +6493,16 @@
         <v>0.64777341485023499</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="I87" s="4">
-        <v>0.67791897058486905</v>
-      </c>
-      <c r="J87" s="4">
-        <v>0.74316383898258198</v>
+        <v>830</v>
+      </c>
+      <c r="I87">
+        <v>0.82409293949604001</v>
+      </c>
+      <c r="J87">
+        <v>0.72007629275321905</v>
       </c>
       <c r="K87" s="1"/>
     </row>
@@ -6586,16 +6526,16 @@
         <v>0.83554640412330605</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="I88" s="4">
-        <v>0.76020756363868702</v>
-      </c>
-      <c r="J88" s="4">
-        <v>0.84960603713989202</v>
+        <v>628</v>
+      </c>
+      <c r="I88">
+        <v>0.83554640412330605</v>
+      </c>
+      <c r="J88">
+        <v>0.78441435098648005</v>
       </c>
       <c r="K88" s="1"/>
     </row>
@@ -6619,16 +6559,16 @@
         <v>0.58183607459068298</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="I89" s="4">
-        <v>0.70325493812561002</v>
-      </c>
-      <c r="J89" s="4">
-        <v>0.722034752368927</v>
+        <v>831</v>
+      </c>
+      <c r="I89">
+        <v>0.60031959414482094</v>
+      </c>
+      <c r="J89">
+        <v>0.66068530082702603</v>
       </c>
       <c r="K89" s="1"/>
     </row>
@@ -6645,10 +6585,10 @@
       <c r="F90" s="4">
         <v>0.13911400735378199</v>
       </c>
-      <c r="I90" s="4">
+      <c r="I90">
         <v>0.13911400735378199</v>
       </c>
-      <c r="J90" s="4">
+      <c r="J90">
         <v>0.13911400735378199</v>
       </c>
       <c r="K90" s="1"/>
@@ -6673,16 +6613,16 @@
         <v>0.97909218072891202</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="I91" s="4">
-        <v>0.89304733276367099</v>
-      </c>
-      <c r="J91" s="4">
-        <v>0.99999998013178504</v>
+        <v>238</v>
+      </c>
+      <c r="I91">
+        <v>0.88611471652984597</v>
+      </c>
+      <c r="J91">
+        <v>0.97909218072891202</v>
       </c>
       <c r="K91" s="1"/>
     </row>
@@ -6706,16 +6646,16 @@
         <v>0.78536005318164803</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="I92" s="4">
-        <v>0.80390070676803504</v>
-      </c>
-      <c r="J92" s="4">
-        <v>0.83722931146621704</v>
+        <v>832</v>
+      </c>
+      <c r="I92">
+        <v>0.84898251295089699</v>
+      </c>
+      <c r="J92">
+        <v>0.84462271928787203</v>
       </c>
       <c r="K92" s="1"/>
     </row>
@@ -6739,16 +6679,16 @@
         <v>0.87080601851145401</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>702</v>
+        <v>244</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="I93" s="4">
-        <v>0.97909218072891202</v>
-      </c>
-      <c r="J93" s="4">
-        <v>0.96614468097686701</v>
+        <v>547</v>
+      </c>
+      <c r="I93">
+        <v>0.87080601851145401</v>
+      </c>
+      <c r="J93">
+        <v>0.96863827109336798</v>
       </c>
       <c r="K93" s="1"/>
     </row>
@@ -6772,16 +6712,16 @@
         <v>0.81644618511199896</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="I94" s="4">
-        <v>0.658095876375834</v>
-      </c>
-      <c r="J94" s="4">
-        <v>0.63887577503919601</v>
+        <v>833</v>
+      </c>
+      <c r="I94">
+        <v>0.71267257630824998</v>
+      </c>
+      <c r="J94">
+        <v>0.65144119660059596</v>
       </c>
       <c r="K94" s="1"/>
     </row>
@@ -6805,16 +6745,16 @@
         <v>1</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="I95" s="4">
-        <v>0.79506518691778105</v>
-      </c>
-      <c r="J95" s="4">
-        <v>0.83163401484489397</v>
+        <v>834</v>
+      </c>
+      <c r="I95">
+        <v>0.67055912315845401</v>
+      </c>
+      <c r="J95">
+        <v>0.87323850393295199</v>
       </c>
       <c r="K95" s="1"/>
     </row>
@@ -6843,10 +6783,10 @@
       <c r="H96" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="I96" s="4">
+      <c r="I96">
         <v>0.93727654218673695</v>
       </c>
-      <c r="J96" s="4">
+      <c r="J96">
         <v>0.999999940395355</v>
       </c>
       <c r="K96" s="1"/>
@@ -6871,16 +6811,16 @@
         <v>1</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="I97" s="4">
+        <v>24</v>
+      </c>
+      <c r="I97">
         <v>0.96863827109336798</v>
       </c>
-      <c r="J97" s="4">
-        <v>0.97365152835845903</v>
+      <c r="J97">
+        <v>1</v>
       </c>
       <c r="K97" s="1"/>
     </row>
@@ -6907,12 +6847,12 @@
         <v>254</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="I98" s="4">
+        <v>626</v>
+      </c>
+      <c r="I98">
         <v>0.79672735929489102</v>
       </c>
-      <c r="J98" s="4">
+      <c r="J98">
         <v>0.84368228912353505</v>
       </c>
       <c r="K98" s="1"/>
@@ -6937,16 +6877,16 @@
         <v>0.781334549188613</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="I99" s="4">
-        <v>0.79694617986678995</v>
-      </c>
-      <c r="J99" s="4">
-        <v>0.83973690867424</v>
+        <v>835</v>
+      </c>
+      <c r="I99">
+        <v>0.86054079532623295</v>
+      </c>
+      <c r="J99">
+        <v>0.88045017421245497</v>
       </c>
       <c r="K99" s="1"/>
     </row>
@@ -6973,12 +6913,12 @@
         <v>261</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I100" s="4">
+        <v>261</v>
+      </c>
+      <c r="I100">
         <v>1</v>
       </c>
-      <c r="J100" s="4">
+      <c r="J100">
         <v>1</v>
       </c>
       <c r="K100" s="1"/>
@@ -7003,16 +6943,16 @@
         <v>0.80672341585159302</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>608</v>
+        <v>694</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="I101" s="4">
-        <v>1</v>
-      </c>
-      <c r="J101" s="4">
-        <v>1.0000000596046399</v>
+        <v>836</v>
+      </c>
+      <c r="I101">
+        <v>0.85136374831199602</v>
+      </c>
+      <c r="J101">
+        <v>0.82956624031066895</v>
       </c>
       <c r="K101" s="1"/>
     </row>
@@ -7036,16 +6976,16 @@
         <v>0.83659446239471402</v>
       </c>
       <c r="G102" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H102" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I102" s="4">
+      <c r="I102">
+        <v>0.67762017250061002</v>
+      </c>
+      <c r="J102">
         <v>0.83659446239471402</v>
-      </c>
-      <c r="J102" s="4">
-        <v>0.67762017250061002</v>
       </c>
       <c r="K102" s="1"/>
     </row>
@@ -7069,16 +7009,16 @@
         <v>0.22423873841762501</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>417</v>
+        <v>695</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="I103" s="4">
-        <v>0.41947683691978399</v>
-      </c>
-      <c r="J103" s="4">
-        <v>0.28694364428520203</v>
+        <v>837</v>
+      </c>
+      <c r="I103">
+        <v>0.26645958423614502</v>
+      </c>
+      <c r="J103">
+        <v>0.27410018444061202</v>
       </c>
       <c r="K103" s="1"/>
     </row>
@@ -7102,16 +7042,16 @@
         <v>0.59527246654033605</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="I104" s="4">
-        <v>0.58453387022018399</v>
-      </c>
-      <c r="J104" s="4">
-        <v>0.60333427786826999</v>
+        <v>838</v>
+      </c>
+      <c r="I104">
+        <v>0.4989964812994</v>
+      </c>
+      <c r="J104">
+        <v>0.59527246654033605</v>
       </c>
       <c r="K104" s="1"/>
     </row>
@@ -7138,13 +7078,13 @@
         <v>273</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="I105" s="4">
+        <v>839</v>
+      </c>
+      <c r="I105">
         <v>0.97867506742477395</v>
       </c>
-      <c r="J105" s="4">
-        <v>0.86370858550071705</v>
+      <c r="J105">
+        <v>0.87517541646957397</v>
       </c>
       <c r="K105" s="1"/>
     </row>
@@ -7171,13 +7111,13 @@
         <v>276</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="I106" s="4">
+        <v>276</v>
+      </c>
+      <c r="I106">
         <v>0.81829434633255005</v>
       </c>
-      <c r="J106" s="4">
-        <v>1.00000011920928</v>
+      <c r="J106">
+        <v>0.81829434633255005</v>
       </c>
       <c r="K106" s="1"/>
     </row>
@@ -7201,16 +7141,16 @@
         <v>0.72348267833391799</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="I107" s="4">
-        <v>0.98890610535939505</v>
-      </c>
-      <c r="J107" s="4">
-        <v>0.821882784366607</v>
+        <v>539</v>
+      </c>
+      <c r="I107">
+        <v>0.99167957901954595</v>
+      </c>
+      <c r="J107">
+        <v>0.83881008625030495</v>
       </c>
       <c r="K107" s="1"/>
     </row>
@@ -7234,16 +7174,16 @@
         <v>0.99999997019767695</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>621</v>
+        <v>378</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I108" s="4">
+        <v>328</v>
+      </c>
+      <c r="I108">
         <v>0.96863827109336798</v>
       </c>
-      <c r="J108" s="4">
-        <v>0.99999997019767695</v>
+      <c r="J108">
+        <v>0.999999940395355</v>
       </c>
       <c r="K108" s="1"/>
     </row>
@@ -7267,16 +7207,16 @@
         <v>0.43834111094474698</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="I109" s="4">
-        <v>0.71971119195222799</v>
-      </c>
-      <c r="J109" s="4">
-        <v>0.35934233665466297</v>
+        <v>840</v>
+      </c>
+      <c r="I109">
+        <v>0.65598232547442104</v>
+      </c>
+      <c r="J109">
+        <v>0.62600362300872803</v>
       </c>
       <c r="K109" s="1"/>
     </row>
@@ -7303,13 +7243,13 @@
         <v>251</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I110" s="4">
+        <v>328</v>
+      </c>
+      <c r="I110">
         <v>0.93727654218673695</v>
       </c>
-      <c r="J110" s="4">
-        <v>0.93727654218673695</v>
+      <c r="J110">
+        <v>0.999999940395355</v>
       </c>
       <c r="K110" s="1"/>
     </row>
@@ -7333,16 +7273,16 @@
         <v>0.80653929710388095</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>709</v>
+        <v>619</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="I111" s="4">
+        <v>841</v>
+      </c>
+      <c r="I111">
         <v>0.70210994283358197</v>
       </c>
-      <c r="J111" s="4">
-        <v>0.70253478487332599</v>
+      <c r="J111">
+        <v>0.82189408938090003</v>
       </c>
       <c r="K111" s="1"/>
     </row>
@@ -7371,10 +7311,10 @@
       <c r="H112" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="I112" s="4">
+      <c r="I112">
         <v>0.75433379411697299</v>
       </c>
-      <c r="J112" s="4">
+      <c r="J112">
         <v>0.75433379411697299</v>
       </c>
       <c r="K112" s="1"/>
@@ -7399,15 +7339,15 @@
         <v>0.81391134858131398</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>622</v>
+        <v>293</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="I113" s="4">
-        <v>0.99999998013178504</v>
-      </c>
-      <c r="J113" s="4">
+      <c r="I113">
+        <v>0.81391134858131398</v>
+      </c>
+      <c r="J113">
         <v>0.81391134858131398</v>
       </c>
       <c r="K113" s="1"/>
@@ -7432,16 +7372,16 @@
         <v>0.68249901135762503</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="I114" s="4">
-        <v>0.75101053714752197</v>
-      </c>
-      <c r="J114" s="4">
-        <v>0.76218134164810103</v>
+        <v>842</v>
+      </c>
+      <c r="I114">
+        <v>0.79915148019790605</v>
+      </c>
+      <c r="J114">
+        <v>0.80948385596275296</v>
       </c>
       <c r="K114" s="1"/>
     </row>
@@ -7468,13 +7408,13 @@
         <v>252</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="I115" s="4">
+        <v>843</v>
+      </c>
+      <c r="I115">
         <v>0.96863827109336798</v>
       </c>
-      <c r="J115" s="4">
-        <v>0.96863827109336798</v>
+      <c r="J115">
+        <v>0.99999997019767695</v>
       </c>
       <c r="K115" s="1"/>
     </row>
@@ -7498,16 +7438,16 @@
         <v>0.76411952450871401</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>627</v>
+        <v>700</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="I116" s="4">
-        <v>0.68549269934495205</v>
-      </c>
-      <c r="J116" s="4">
-        <v>0.99999996026356996</v>
+        <v>844</v>
+      </c>
+      <c r="I116">
+        <v>0.720037107666333</v>
+      </c>
+      <c r="J116">
+        <v>0.75276003281275405</v>
       </c>
       <c r="K116" s="1"/>
     </row>
@@ -7531,15 +7471,15 @@
         <v>0.93578697741031602</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="I117" s="4">
-        <v>0.904218390583992</v>
-      </c>
-      <c r="J117" s="4">
+        <v>845</v>
+      </c>
+      <c r="I117">
+        <v>0.91478312015533403</v>
+      </c>
+      <c r="J117">
         <v>0.92476989328861203</v>
       </c>
       <c r="K117" s="1"/>
@@ -7564,16 +7504,16 @@
         <v>0.51199764013290405</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="I118" s="4">
-        <v>0.45648097991943298</v>
-      </c>
-      <c r="J118" s="4">
-        <v>0.40874720364808997</v>
+        <v>846</v>
+      </c>
+      <c r="I118">
+        <v>0.47147598862647999</v>
+      </c>
+      <c r="J118">
+        <v>0.52000087499618497</v>
       </c>
       <c r="K118" s="1"/>
     </row>
@@ -7597,16 +7537,16 @@
         <v>0.704438596963882</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>713</v>
+        <v>286</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I119" s="4">
-        <v>0.63009162247180905</v>
-      </c>
-      <c r="J119" s="4">
-        <v>0.69907957315444902</v>
+        <v>309</v>
+      </c>
+      <c r="I119">
+        <v>0.63155215978622403</v>
+      </c>
+      <c r="J119">
+        <v>0.61687356233596802</v>
       </c>
       <c r="K119" s="1"/>
     </row>
@@ -7630,16 +7570,16 @@
         <v>1</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I120" s="4">
-        <v>0.976329565048217</v>
-      </c>
-      <c r="J120" s="4">
-        <v>1</v>
+        <v>847</v>
+      </c>
+      <c r="I120">
+        <v>0.97909218072891202</v>
+      </c>
+      <c r="J120">
+        <v>0.90719419717788696</v>
       </c>
       <c r="K120" s="1"/>
     </row>
@@ -7663,16 +7603,16 @@
         <v>0.73101449012756303</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="I121" s="4">
-        <v>0.536256164312362</v>
-      </c>
-      <c r="J121" s="4">
-        <v>0.99999997019767695</v>
+        <v>328</v>
+      </c>
+      <c r="I121">
+        <v>0.81178206205367998</v>
+      </c>
+      <c r="J121">
+        <v>0.999999940395355</v>
       </c>
       <c r="K121" s="1"/>
     </row>
@@ -7696,16 +7636,16 @@
         <v>0.97909218072891202</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>628</v>
+        <v>705</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="I122" s="4">
-        <v>0.90628500282764402</v>
-      </c>
-      <c r="J122" s="4">
-        <v>0.89727258682250899</v>
+        <v>848</v>
+      </c>
+      <c r="I122">
+        <v>0.81174094974994604</v>
+      </c>
+      <c r="J122">
+        <v>0.99999998509883803</v>
       </c>
       <c r="K122" s="1"/>
     </row>
@@ -7729,16 +7669,16 @@
         <v>0.712105512619018</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="I123" s="4">
-        <v>0.83786645531654302</v>
-      </c>
-      <c r="J123" s="4">
-        <v>0.71184003353118896</v>
+        <v>321</v>
+      </c>
+      <c r="I123">
+        <v>0.70527774095535201</v>
+      </c>
+      <c r="J123">
+        <v>0.712105512619018</v>
       </c>
       <c r="K123" s="1"/>
     </row>
@@ -7762,16 +7702,16 @@
         <v>0.74346724152565002</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="I124" s="4">
-        <v>0.97990757226943903</v>
-      </c>
-      <c r="J124" s="4">
-        <v>0.74346724152565002</v>
+        <v>849</v>
+      </c>
+      <c r="I124">
+        <v>0.62564671039581299</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
       </c>
       <c r="K124" s="1"/>
     </row>
@@ -7795,16 +7735,16 @@
         <v>0.83695700764656</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="I125" s="4">
+        <v>850</v>
+      </c>
+      <c r="I125">
         <v>0.83836883306503296</v>
       </c>
-      <c r="J125" s="4">
-        <v>0.87202546000480596</v>
+      <c r="J125">
+        <v>0.94921702146530096</v>
       </c>
       <c r="K125" s="1"/>
     </row>
@@ -7831,13 +7771,13 @@
         <v>251</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I126" s="4">
+        <v>328</v>
+      </c>
+      <c r="I126">
         <v>0.93727654218673695</v>
       </c>
-      <c r="J126" s="4">
-        <v>0.93727654218673695</v>
+      <c r="J126">
+        <v>0.999999940395355</v>
       </c>
       <c r="K126" s="1"/>
     </row>
@@ -7861,16 +7801,16 @@
         <v>0.65954259634017898</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="I127" s="4">
-        <v>0.72151341438293404</v>
-      </c>
-      <c r="J127" s="4">
-        <v>0.75725636482238701</v>
+        <v>851</v>
+      </c>
+      <c r="I127">
+        <v>0.736723268032074</v>
+      </c>
+      <c r="J127">
+        <v>0.67795057098070699</v>
       </c>
       <c r="K127" s="1"/>
     </row>
@@ -7894,15 +7834,15 @@
         <v>0.87157395482063205</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="I128" s="4">
-        <v>0.77257969975471497</v>
-      </c>
-      <c r="J128" s="4">
+      <c r="I128">
+        <v>0.80394139885902405</v>
+      </c>
+      <c r="J128">
         <v>0.99999997019767695</v>
       </c>
       <c r="K128" s="1"/>
@@ -7927,15 +7867,15 @@
         <v>0.74766591191291798</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>721</v>
+        <v>620</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="I129" s="4">
+        <v>607</v>
+      </c>
+      <c r="I129">
         <v>0.72827111184597004</v>
       </c>
-      <c r="J129" s="4">
+      <c r="J129">
         <v>0.66631846129894201</v>
       </c>
       <c r="K129" s="1"/>
@@ -7960,16 +7900,16 @@
         <v>0.65441878636677997</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="I130" s="4">
-        <v>0.80218741297721796</v>
-      </c>
-      <c r="J130" s="4">
-        <v>0.64532040556271797</v>
+        <v>852</v>
+      </c>
+      <c r="I130">
+        <v>0.83297753334045399</v>
+      </c>
+      <c r="J130">
+        <v>0.41970948378244999</v>
       </c>
       <c r="K130" s="1"/>
     </row>
@@ -7993,16 +7933,16 @@
         <v>0.79977047443389804</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>723</v>
+        <v>621</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="I131" s="4">
+        <v>853</v>
+      </c>
+      <c r="I131">
         <v>0.79977047443389804</v>
       </c>
-      <c r="J131" s="4">
-        <v>0.80884285767873099</v>
+      <c r="J131">
+        <v>0.86690813302993697</v>
       </c>
       <c r="K131" s="1"/>
     </row>
@@ -8029,12 +7969,12 @@
         <v>344</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="I132" s="4">
+        <v>608</v>
+      </c>
+      <c r="I132">
         <v>0.94818335771560602</v>
       </c>
-      <c r="J132" s="4">
+      <c r="J132">
         <v>0.99999997019767695</v>
       </c>
       <c r="K132" s="1"/>
@@ -8059,16 +7999,16 @@
         <v>0.92151522636413497</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="I133" s="4">
-        <v>0.92151522636413497</v>
-      </c>
-      <c r="J133" s="4">
-        <v>0.92151522636413497</v>
+        <v>854</v>
+      </c>
+      <c r="I133">
+        <v>0.99778434634208601</v>
+      </c>
+      <c r="J133">
+        <v>0.96642264723777704</v>
       </c>
       <c r="K133" s="1"/>
     </row>
@@ -8092,15 +8032,15 @@
         <v>0.92398694157600403</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>629</v>
+        <v>713</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="I134" s="4">
-        <v>0.92398694157600403</v>
-      </c>
-      <c r="J134" s="4">
+        <v>614</v>
+      </c>
+      <c r="I134">
+        <v>0.92623049020767201</v>
+      </c>
+      <c r="J134">
         <v>0.92398694157600403</v>
       </c>
       <c r="K134" s="1"/>
@@ -8125,16 +8065,16 @@
         <v>0.38596880435943598</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="I135" s="4">
-        <v>0.70917567610740595</v>
-      </c>
-      <c r="J135" s="4">
-        <v>0.38596880435943598</v>
+        <v>855</v>
+      </c>
+      <c r="I135">
+        <v>0.62829440832137995</v>
+      </c>
+      <c r="J135">
+        <v>0.53461752831935805</v>
       </c>
       <c r="K135" s="1"/>
     </row>
@@ -8158,16 +8098,16 @@
         <v>0.90983358025550798</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="I136" s="4">
+        <v>856</v>
+      </c>
+      <c r="I136">
         <v>0.758783839643001</v>
       </c>
-      <c r="J136" s="4">
-        <v>0.84368231892585699</v>
+      <c r="J136">
+        <v>0.821882784366607</v>
       </c>
       <c r="K136" s="1"/>
     </row>
@@ -8191,15 +8131,15 @@
         <v>0.67514151334762496</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>97</v>
+        <v>358</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="I137" s="4">
-        <v>0.67514151334762496</v>
-      </c>
-      <c r="J137" s="4">
+        <v>857</v>
+      </c>
+      <c r="I137">
+        <v>0.999999940395355</v>
+      </c>
+      <c r="J137">
         <v>0.999999940395355</v>
       </c>
       <c r="K137" s="1"/>
@@ -8224,16 +8164,16 @@
         <v>1</v>
       </c>
       <c r="G138" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="H138" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="H138" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="I138" s="4">
+      <c r="I138">
+        <v>0.94193679094314497</v>
+      </c>
+      <c r="J138">
         <v>1</v>
-      </c>
-      <c r="J138" s="4">
-        <v>0.86690813302993697</v>
       </c>
       <c r="K138" s="1"/>
     </row>
@@ -8257,16 +8197,16 @@
         <v>0.61712348461151101</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>727</v>
+        <v>363</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="I139" s="4">
+        <v>858</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
         <v>0.938443303108215</v>
-      </c>
-      <c r="J139" s="4">
-        <v>0.69169336557388295</v>
       </c>
       <c r="K139" s="1"/>
     </row>
@@ -8290,16 +8230,16 @@
         <v>0.65348594387372305</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="I140" s="4">
-        <v>0.59055230394005698</v>
-      </c>
-      <c r="J140" s="4">
-        <v>0.67053200304508198</v>
+        <v>859</v>
+      </c>
+      <c r="I140">
+        <v>0.67404870192209798</v>
+      </c>
+      <c r="J140">
+        <v>0.70402303834756197</v>
       </c>
       <c r="K140" s="1"/>
     </row>
@@ -8323,16 +8263,16 @@
         <v>0.866569677988688</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>632</v>
+        <v>718</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="I141" s="4">
-        <v>0.82956624031066895</v>
-      </c>
-      <c r="J141" s="4">
-        <v>0.75784680247306802</v>
+        <v>860</v>
+      </c>
+      <c r="I141">
+        <v>0.85096903642018595</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
       </c>
       <c r="K141" s="1"/>
     </row>
@@ -8356,16 +8296,16 @@
         <v>0.783560176690419</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="I142" s="4">
-        <v>0.80843678116798401</v>
-      </c>
-      <c r="J142" s="4">
-        <v>0.82717341184616</v>
+        <v>861</v>
+      </c>
+      <c r="I142">
+        <v>0.82341498136520297</v>
+      </c>
+      <c r="J142">
+        <v>0.89969319105148304</v>
       </c>
       <c r="K142" s="1"/>
     </row>
@@ -8389,16 +8329,16 @@
         <v>0.69818580647309603</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="I143" s="4">
-        <v>0.74750168124834604</v>
-      </c>
-      <c r="J143" s="4">
-        <v>0.629479080438613</v>
+        <v>862</v>
+      </c>
+      <c r="I143">
+        <v>0.73636556168397205</v>
+      </c>
+      <c r="J143">
+        <v>0.83408801754315698</v>
       </c>
       <c r="K143" s="1"/>
     </row>
@@ -8427,10 +8367,10 @@
       <c r="H144" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="I144" s="4">
+      <c r="I144">
         <v>0.96863827109336798</v>
       </c>
-      <c r="J144" s="4">
+      <c r="J144">
         <v>0.999999940395355</v>
       </c>
       <c r="K144" s="1"/>
@@ -8460,10 +8400,10 @@
       <c r="H145" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I145" s="4">
+      <c r="I145">
         <v>1</v>
       </c>
-      <c r="J145" s="4">
+      <c r="J145">
         <v>1</v>
       </c>
       <c r="K145" s="1"/>
@@ -8488,16 +8428,16 @@
         <v>1</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="I146" s="4">
+        <v>189</v>
+      </c>
+      <c r="I146">
         <v>1</v>
       </c>
-      <c r="J146" s="4">
-        <v>0.86316540837287903</v>
+      <c r="J146">
+        <v>0.85092353820800704</v>
       </c>
       <c r="K146" s="1"/>
     </row>
@@ -8521,15 +8461,15 @@
         <v>0.63825836777686995</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>636</v>
+        <v>255</v>
       </c>
       <c r="H147" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="I147" s="4">
-        <v>0.68698307871818498</v>
-      </c>
-      <c r="J147" s="4">
+      <c r="I147">
+        <v>0.710384041070938</v>
+      </c>
+      <c r="J147">
         <v>0.710384041070938</v>
       </c>
       <c r="K147" s="1"/>
@@ -8554,16 +8494,16 @@
         <v>0.57585367560386602</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="I148" s="4">
-        <v>0.66696532070636705</v>
-      </c>
-      <c r="J148" s="4">
-        <v>0.60336557030677795</v>
+        <v>863</v>
+      </c>
+      <c r="I148">
+        <v>0.68414294719696001</v>
+      </c>
+      <c r="J148">
+        <v>0.58072590827941895</v>
       </c>
       <c r="K148" s="1"/>
     </row>
@@ -8587,16 +8527,16 @@
         <v>0.79593882958094198</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>732</v>
+        <v>260</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="I149" s="4">
-        <v>0.75885313749313299</v>
-      </c>
-      <c r="J149" s="4">
-        <v>0.79038582245508804</v>
+        <v>864</v>
+      </c>
+      <c r="I149">
+        <v>0.58628222346305803</v>
+      </c>
+      <c r="J149">
+        <v>0.84739987055460597</v>
       </c>
       <c r="K149" s="1"/>
     </row>
@@ -8620,16 +8560,16 @@
         <v>0.70595091581344604</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="I150" s="4">
-        <v>0.89578821261723796</v>
-      </c>
-      <c r="J150" s="4">
-        <v>0.70595091581344604</v>
+        <v>865</v>
+      </c>
+      <c r="I150">
+        <v>0.9483070174853</v>
+      </c>
+      <c r="J150">
+        <v>0.72003992398579897</v>
       </c>
       <c r="K150" s="1"/>
     </row>
@@ -8653,16 +8593,16 @@
         <v>0.76948544383049</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="I151" s="4">
-        <v>0.77047413587570102</v>
-      </c>
-      <c r="J151" s="4">
-        <v>0.86888852715492204</v>
+        <v>658</v>
+      </c>
+      <c r="I151">
+        <v>0.72354567050933805</v>
+      </c>
+      <c r="J151">
+        <v>0.82594674825668302</v>
       </c>
       <c r="K151" s="1"/>
     </row>
@@ -8686,16 +8626,16 @@
         <v>0.95287695527076699</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="I152" s="4">
-        <v>0.50698903203010504</v>
-      </c>
-      <c r="J152" s="4">
-        <v>0.99778437614440896</v>
+        <v>401</v>
+      </c>
+      <c r="I152">
+        <v>0.62806189060211104</v>
+      </c>
+      <c r="J152">
+        <v>0.99556875228881803</v>
       </c>
       <c r="K152" s="1"/>
     </row>
@@ -8719,16 +8659,16 @@
         <v>0.84029439091682401</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>606</v>
+        <v>399</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="I153" s="4">
+        <v>866</v>
+      </c>
+      <c r="I153">
+        <v>0.67971751093864397</v>
+      </c>
+      <c r="J153">
         <v>0.91852995753288202</v>
-      </c>
-      <c r="J153" s="4">
-        <v>0.67971751093864397</v>
       </c>
       <c r="K153" s="1"/>
     </row>
@@ -8752,15 +8692,15 @@
         <v>0.99556875228881803</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>251</v>
+        <v>328</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="I154" s="4">
-        <v>0.49964743852615301</v>
-      </c>
-      <c r="J154" s="4">
+      <c r="I154">
+        <v>0.56544709205627397</v>
+      </c>
+      <c r="J154">
         <v>0.99556875228881803</v>
       </c>
       <c r="K154" s="1"/>
@@ -8785,13 +8725,16 @@
         <v>0.78962790966033902</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I155" s="4">
-        <v>0.85558956861495905</v>
-      </c>
-      <c r="J155" s="4">
-        <v>0.16610771417617701</v>
+        <v>403</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I155">
+        <v>0.78962790966033902</v>
+      </c>
+      <c r="J155">
+        <v>0.78962790966033902</v>
       </c>
       <c r="K155" s="1"/>
     </row>
@@ -8815,16 +8758,16 @@
         <v>0.85919914642969697</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="I156" s="4">
-        <v>0.80663567036390305</v>
-      </c>
-      <c r="J156" s="4">
-        <v>0.83829134702682495</v>
+        <v>867</v>
+      </c>
+      <c r="I156">
+        <v>0.81780179589986801</v>
+      </c>
+      <c r="J156">
+        <v>0.772245973348617</v>
       </c>
       <c r="K156" s="1"/>
     </row>
@@ -8848,16 +8791,16 @@
         <v>0.83693214257558102</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="I157" s="4">
-        <v>0.92395414908727003</v>
-      </c>
-      <c r="J157" s="4">
-        <v>0.815301607052485</v>
+        <v>868</v>
+      </c>
+      <c r="I157">
+        <v>0.99063120285669903</v>
+      </c>
+      <c r="J157">
+        <v>0.81967326005299801</v>
       </c>
       <c r="K157" s="1"/>
     </row>
@@ -8881,15 +8824,15 @@
         <v>0.68388239542643203</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="I158" s="4">
-        <v>0.68674097458521499</v>
-      </c>
-      <c r="J158" s="4">
+        <v>869</v>
+      </c>
+      <c r="I158">
+        <v>0.68561989068984897</v>
+      </c>
+      <c r="J158">
         <v>0.68388239542643203</v>
       </c>
       <c r="K158" s="1"/>
@@ -8914,16 +8857,16 @@
         <v>0.821882784366607</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="I159" s="4">
+        <v>870</v>
+      </c>
+      <c r="I159">
         <v>0.92246052622795105</v>
       </c>
-      <c r="J159" s="4">
-        <v>0.78879874944686801</v>
+      <c r="J159">
+        <v>0.82638618350028903</v>
       </c>
       <c r="K159" s="1"/>
     </row>
@@ -8947,13 +8890,16 @@
         <v>0.21724188327789301</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="I160" s="4">
-        <v>0.265953779220581</v>
-      </c>
-      <c r="J160" s="4">
-        <v>0.23072980344295499</v>
+        <v>729</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="I160">
+        <v>0.21724188327789301</v>
+      </c>
+      <c r="J160">
+        <v>0.21724188327789301</v>
       </c>
       <c r="K160" s="1"/>
     </row>
@@ -8977,16 +8923,16 @@
         <v>0.54969921708106995</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>623</v>
+        <v>730</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="I161" s="4">
-        <v>0.56829671561717898</v>
-      </c>
-      <c r="J161" s="4">
-        <v>0.55892637372016896</v>
+        <v>871</v>
+      </c>
+      <c r="I161">
+        <v>0.54606418311595895</v>
+      </c>
+      <c r="J161">
+        <v>0.821882784366607</v>
       </c>
       <c r="K161" s="1"/>
     </row>
@@ -9003,10 +8949,10 @@
       <c r="F162" s="4">
         <v>0.22638063132762901</v>
       </c>
-      <c r="I162" s="4">
+      <c r="I162">
         <v>0.22638063132762901</v>
       </c>
-      <c r="J162" s="4">
+      <c r="J162">
         <v>0.22638063132762901</v>
       </c>
       <c r="K162" s="1"/>
@@ -9031,16 +8977,16 @@
         <v>0.76370081305503801</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="I163" s="4">
+        <v>422</v>
+      </c>
+      <c r="I163">
+        <v>0.84854403138160694</v>
+      </c>
+      <c r="J163">
         <v>0.76370081305503801</v>
-      </c>
-      <c r="J163" s="4">
-        <v>0.73226039111614205</v>
       </c>
       <c r="K163" s="1"/>
     </row>
@@ -9064,16 +9010,16 @@
         <v>0.90734491745630896</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="I164" s="4">
-        <v>0.90350355207919997</v>
-      </c>
-      <c r="J164" s="4">
-        <v>0.99999998509883803</v>
+        <v>425</v>
+      </c>
+      <c r="I164">
+        <v>0.89224588871002197</v>
+      </c>
+      <c r="J164">
+        <v>0.90734491745630896</v>
       </c>
       <c r="K164" s="1"/>
     </row>
@@ -9097,16 +9043,16 @@
         <v>0.35858868807554201</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="I165" s="4">
-        <v>0.36848568171262702</v>
-      </c>
-      <c r="J165" s="4">
-        <v>0.57855385541915805</v>
+        <v>428</v>
+      </c>
+      <c r="I165">
+        <v>0.37323839962482402</v>
+      </c>
+      <c r="J165">
+        <v>0.35858868807554201</v>
       </c>
       <c r="K165" s="1"/>
     </row>
@@ -9130,15 +9076,15 @@
         <v>0.499628946185112</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>887</v>
-      </c>
-      <c r="I166" s="4">
-        <v>0.66887445747852303</v>
-      </c>
-      <c r="J166" s="4">
+        <v>627</v>
+      </c>
+      <c r="I166">
+        <v>0.54148606956005096</v>
+      </c>
+      <c r="J166">
         <v>0.52967828512191695</v>
       </c>
       <c r="K166" s="1"/>
@@ -9168,10 +9114,10 @@
       <c r="H167" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="I167" s="4">
+      <c r="I167">
         <v>1.00000011920928</v>
       </c>
-      <c r="J167" s="4">
+      <c r="J167">
         <v>1.00000011920928</v>
       </c>
       <c r="K167" s="1"/>
@@ -9196,15 +9142,15 @@
         <v>0.968331158161163</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H168" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="I168" s="4">
-        <v>1.00000011920928</v>
-      </c>
-      <c r="J168" s="4">
+      <c r="I168">
+        <v>0.968331158161163</v>
+      </c>
+      <c r="J168">
         <v>1.00000011920928</v>
       </c>
       <c r="K168" s="1"/>
@@ -9229,16 +9175,16 @@
         <v>0.65049131214618605</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>888</v>
-      </c>
-      <c r="I169" s="4">
-        <v>0.83839756250381403</v>
-      </c>
-      <c r="J169" s="4">
-        <v>0.70033439993858304</v>
+        <v>872</v>
+      </c>
+      <c r="I169">
+        <v>1.00000011920928</v>
+      </c>
+      <c r="J169">
+        <v>0.82742744684219305</v>
       </c>
       <c r="K169" s="1"/>
     </row>
@@ -9262,16 +9208,13 @@
         <v>0.49282786250114402</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="H170" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="I170" s="4">
-        <v>0.49282786250114402</v>
-      </c>
-      <c r="J170" s="4">
-        <v>0.51235210895538297</v>
+        <v>606</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>0.15849614143371499</v>
       </c>
       <c r="K170" s="1"/>
     </row>
@@ -9295,16 +9238,16 @@
         <v>0.52744399011135101</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="I171" s="4">
+        <v>873</v>
+      </c>
+      <c r="I171">
         <v>0.89025974273681596</v>
       </c>
-      <c r="J171" s="4">
-        <v>0.525241538882255</v>
+      <c r="J171">
+        <v>0.78879874944686801</v>
       </c>
       <c r="K171" s="1"/>
     </row>
@@ -9328,16 +9271,16 @@
         <v>0.75056758522987299</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="I172" s="4">
-        <v>0.78829234838485696</v>
-      </c>
-      <c r="J172" s="4">
-        <v>0.65869569778442305</v>
+        <v>874</v>
+      </c>
+      <c r="I172">
+        <v>0.65325050055980605</v>
+      </c>
+      <c r="J172">
+        <v>0.732281774282455</v>
       </c>
       <c r="K172" s="1"/>
     </row>
@@ -9361,16 +9304,16 @@
         <v>0.60511171817779497</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="I173" s="4">
-        <v>0.77440625429153398</v>
-      </c>
-      <c r="J173" s="4">
-        <v>0.79699452718098895</v>
+        <v>255</v>
+      </c>
+      <c r="I173">
+        <v>0.72151819864908795</v>
+      </c>
+      <c r="J173">
+        <v>0.83881005644798201</v>
       </c>
       <c r="K173" s="1"/>
     </row>
@@ -9399,10 +9342,10 @@
       <c r="H174" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I174" s="4">
+      <c r="I174">
         <v>0.48693448305129999</v>
       </c>
-      <c r="J174" s="4">
+      <c r="J174">
         <v>0.48693448305129999</v>
       </c>
       <c r="K174" s="1"/>
@@ -9427,15 +9370,15 @@
         <v>0.861017346382141</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>750</v>
+        <v>35</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="I175" s="4">
-        <v>0.91785529255867004</v>
-      </c>
-      <c r="J175" s="4">
+        <v>601</v>
+      </c>
+      <c r="I175">
+        <v>0.80700710415840105</v>
+      </c>
+      <c r="J175">
         <v>0.94921699166297901</v>
       </c>
       <c r="K175" s="1"/>
@@ -9460,16 +9403,16 @@
         <v>0.70332835912704394</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="I176" s="4">
-        <v>0.70927947163581795</v>
-      </c>
-      <c r="J176" s="4">
-        <v>0.72013144493102998</v>
+        <v>875</v>
+      </c>
+      <c r="I176">
+        <v>0.81574066877365103</v>
+      </c>
+      <c r="J176">
+        <v>0.86112469434738104</v>
       </c>
       <c r="K176" s="1"/>
     </row>
@@ -9493,16 +9436,16 @@
         <v>0.74473161498705498</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="I177" s="4">
-        <v>0.85560641686121597</v>
-      </c>
-      <c r="J177" s="4">
-        <v>0.74473161498705498</v>
+        <v>876</v>
+      </c>
+      <c r="I177">
+        <v>0.83469861745834295</v>
+      </c>
+      <c r="J177">
+        <v>0.86524339516957605</v>
       </c>
       <c r="K177" s="1"/>
     </row>
@@ -9526,15 +9469,15 @@
         <v>0.83757075667381198</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>4</v>
+        <v>741</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I178" s="4">
-        <v>0.83757075667381198</v>
-      </c>
-      <c r="J178" s="4">
+      <c r="I178">
+        <v>0.84506872296333302</v>
+      </c>
+      <c r="J178">
         <v>0.83757075667381198</v>
       </c>
       <c r="K178" s="1"/>
@@ -9559,16 +9502,16 @@
         <v>0.99778434634208601</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="I179" s="4">
-        <v>0.83819627761840798</v>
-      </c>
-      <c r="J179" s="4">
-        <v>0.99778434634208601</v>
+        <v>877</v>
+      </c>
+      <c r="I179">
+        <v>0.95287692546844405</v>
+      </c>
+      <c r="J179">
+        <v>0.66597452759742704</v>
       </c>
       <c r="K179" s="1"/>
     </row>
@@ -9592,16 +9535,16 @@
         <v>1</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>252</v>
+        <v>743</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I180" s="4">
-        <v>0.96863827109336798</v>
-      </c>
-      <c r="J180" s="4">
-        <v>0.99999997019767695</v>
+        <v>24</v>
+      </c>
+      <c r="I180">
+        <v>0.84659627079963595</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
       </c>
       <c r="K180" s="1"/>
     </row>
@@ -9625,16 +9568,16 @@
         <v>0.93727654218673695</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="I181" s="4">
-        <v>0.40625989437103199</v>
-      </c>
-      <c r="J181" s="4">
-        <v>0.41095736622810303</v>
+        <v>600</v>
+      </c>
+      <c r="I181">
+        <v>0.42984095215797402</v>
+      </c>
+      <c r="J181">
+        <v>0.74314790964126498</v>
       </c>
       <c r="K181" s="1"/>
     </row>
@@ -9658,16 +9601,16 @@
         <v>0.79156926274299599</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>755</v>
+        <v>461</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>895</v>
-      </c>
-      <c r="I182" s="4">
-        <v>0.812550008296966</v>
-      </c>
-      <c r="J182" s="4">
-        <v>0.78441435098648005</v>
+        <v>461</v>
+      </c>
+      <c r="I182">
+        <v>0.76020756363868702</v>
+      </c>
+      <c r="J182">
+        <v>0.76020756363868702</v>
       </c>
       <c r="K182" s="1"/>
     </row>
@@ -9691,15 +9634,15 @@
         <v>0.93486985564231795</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>756</v>
+        <v>464</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="I183" s="4">
-        <v>0.96001252532005299</v>
-      </c>
-      <c r="J183" s="4">
+        <v>629</v>
+      </c>
+      <c r="I183">
+        <v>0.98436763882637002</v>
+      </c>
+      <c r="J183">
         <v>0.98381638526916504</v>
       </c>
       <c r="K183" s="1"/>
@@ -9724,16 +9667,16 @@
         <v>0.89691883325576705</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="I184" s="4">
-        <v>0.497059345245361</v>
-      </c>
-      <c r="J184" s="4">
-        <v>0.64558558166027002</v>
+        <v>878</v>
+      </c>
+      <c r="I184">
+        <v>0.77955016493797302</v>
+      </c>
+      <c r="J184">
+        <v>0.27403016388416201</v>
       </c>
       <c r="K184" s="1"/>
     </row>
@@ -9757,16 +9700,16 @@
         <v>0.60584956407546997</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>758</v>
+        <v>469</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="I185" s="4">
-        <v>0.66044718027114802</v>
-      </c>
-      <c r="J185" s="4">
-        <v>0.58845716714858998</v>
+        <v>879</v>
+      </c>
+      <c r="I185">
+        <v>0.60584956407546997</v>
+      </c>
+      <c r="J185">
+        <v>0.50697100162506104</v>
       </c>
       <c r="K185" s="1"/>
     </row>
@@ -9790,15 +9733,15 @@
         <v>1</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>24</v>
+        <v>746</v>
       </c>
       <c r="H186" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I186" s="4">
+      <c r="I186">
         <v>1</v>
       </c>
-      <c r="J186" s="4">
+      <c r="J186">
         <v>1</v>
       </c>
       <c r="K186" s="1"/>
@@ -9823,16 +9766,16 @@
         <v>0.65561620394388798</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="I187" s="4">
-        <v>0.75048567851384396</v>
-      </c>
-      <c r="J187" s="4">
-        <v>0.79722893238067605</v>
+        <v>473</v>
+      </c>
+      <c r="I187">
+        <v>0.81191072861353497</v>
+      </c>
+      <c r="J187">
+        <v>0.65561620394388798</v>
       </c>
       <c r="K187" s="1"/>
     </row>
@@ -9856,16 +9799,16 @@
         <v>0.78640063603719002</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="I188" s="4">
-        <v>0.77240231037139895</v>
-      </c>
-      <c r="J188" s="4">
-        <v>0.87326428294181802</v>
+        <v>880</v>
+      </c>
+      <c r="I188">
+        <v>0.62485489249229398</v>
+      </c>
+      <c r="J188">
+        <v>0.77631458044052104</v>
       </c>
       <c r="K188" s="1"/>
     </row>
@@ -9889,16 +9832,16 @@
         <v>0.77247613668441695</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>631</v>
+        <v>749</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="I189" s="4">
-        <v>0.90028945604960098</v>
-      </c>
-      <c r="J189" s="4">
-        <v>0.65302276611328103</v>
+        <v>881</v>
+      </c>
+      <c r="I189">
+        <v>0.73123207688331604</v>
+      </c>
+      <c r="J189">
+        <v>0.68117920557657796</v>
       </c>
       <c r="K189" s="1"/>
     </row>
@@ -9922,16 +9865,16 @@
         <v>0.84087582429249996</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="I190" s="4">
-        <v>0.81356045603752103</v>
-      </c>
-      <c r="J190" s="4">
-        <v>0.84732416272163302</v>
+        <v>882</v>
+      </c>
+      <c r="I190">
+        <v>0.76865303516387895</v>
+      </c>
+      <c r="J190">
+        <v>0.82963083187738995</v>
       </c>
       <c r="K190" s="1"/>
     </row>
@@ -9955,16 +9898,16 @@
         <v>0.68158371746540003</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="I191" s="4">
-        <v>0.64111906290054299</v>
-      </c>
-      <c r="J191" s="4">
-        <v>0.57200919091701496</v>
+        <v>883</v>
+      </c>
+      <c r="I191">
+        <v>0.67320561408996504</v>
+      </c>
+      <c r="J191">
+        <v>0.55533318966627099</v>
       </c>
       <c r="K191" s="1"/>
     </row>
@@ -9988,16 +9931,16 @@
         <v>0.876129150390625</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="I192" s="4">
+        <v>251</v>
+      </c>
+      <c r="I192">
         <v>0.96040034294128396</v>
       </c>
-      <c r="J192" s="4">
-        <v>0.96040034294128396</v>
+      <c r="J192">
+        <v>0.93727654218673695</v>
       </c>
       <c r="K192" s="1"/>
     </row>
@@ -10021,16 +9964,16 @@
         <v>0.56382494171460396</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="I193" s="4">
-        <v>0.79140710830688399</v>
-      </c>
-      <c r="J193" s="4">
-        <v>0.70236269632975201</v>
+        <v>884</v>
+      </c>
+      <c r="I193">
+        <v>0.70200463136037194</v>
+      </c>
+      <c r="J193">
+        <v>0.69969362020492498</v>
       </c>
       <c r="K193" s="1"/>
     </row>
@@ -10054,15 +9997,15 @@
         <v>0.47462517023086498</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="I194" s="4">
-        <v>0.54929412901401498</v>
-      </c>
-      <c r="J194" s="4">
+        <v>622</v>
+      </c>
+      <c r="I194">
+        <v>0.459173634648323</v>
+      </c>
+      <c r="J194">
         <v>0.66044718027114802</v>
       </c>
       <c r="K194" s="1"/>
@@ -10087,16 +10030,16 @@
         <v>0.57761778434117605</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="I195" s="4">
-        <v>0.92139768600463801</v>
-      </c>
-      <c r="J195" s="4">
-        <v>0.743034640947977</v>
+        <v>885</v>
+      </c>
+      <c r="I195">
+        <v>0.86885114510854</v>
+      </c>
+      <c r="J195">
+        <v>0.77700408299764001</v>
       </c>
       <c r="K195" s="1"/>
     </row>
@@ -10120,16 +10063,16 @@
         <v>0.80872301260630197</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="I196" s="4">
-        <v>0.70987850427627497</v>
-      </c>
-      <c r="J196" s="4">
-        <v>0.70408632357915202</v>
+        <v>886</v>
+      </c>
+      <c r="I196">
+        <v>0.71428243319193496</v>
+      </c>
+      <c r="J196">
+        <v>0.64549316962559999</v>
       </c>
       <c r="K196" s="1"/>
     </row>
@@ -10153,16 +10096,16 @@
         <v>0.70599542061487797</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="I197" s="4">
+        <v>887</v>
+      </c>
+      <c r="I197">
+        <v>0.81755942106246904</v>
+      </c>
+      <c r="J197">
         <v>0.66743598381678204</v>
-      </c>
-      <c r="J197" s="4">
-        <v>0.54995983839035001</v>
       </c>
       <c r="K197" s="1"/>
     </row>
@@ -10186,15 +10129,15 @@
         <v>0.96863827109336798</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="H198" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="I198" s="4">
+      <c r="I198">
         <v>0.96863827109336798</v>
       </c>
-      <c r="J198" s="4">
+      <c r="J198">
         <v>0.96863827109336798</v>
       </c>
       <c r="K198" s="1"/>
@@ -10224,10 +10167,10 @@
       <c r="H199" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I199" s="4">
+      <c r="I199">
         <v>1</v>
       </c>
-      <c r="J199" s="4">
+      <c r="J199">
         <v>1</v>
       </c>
       <c r="K199" s="1"/>
@@ -10257,10 +10200,10 @@
       <c r="H200" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="I200" s="4">
+      <c r="I200">
         <v>0.19616658985614699</v>
       </c>
-      <c r="J200" s="4">
+      <c r="J200">
         <v>0.19616658985614699</v>
       </c>
       <c r="K200" s="1"/>
@@ -10288,13 +10231,13 @@
         <v>510</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="I201" s="4">
+        <v>888</v>
+      </c>
+      <c r="I201">
         <v>0.313568234443664</v>
       </c>
-      <c r="J201" s="4">
-        <v>0.34710678458213801</v>
+      <c r="J201">
+        <v>0.44867601990699701</v>
       </c>
       <c r="K201" s="1"/>
     </row>
@@ -10318,16 +10261,16 @@
         <v>0.79997855424880904</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="I202" s="4">
-        <v>0.78182652592658997</v>
-      </c>
-      <c r="J202" s="4">
-        <v>0.73378365486860198</v>
+        <v>889</v>
+      </c>
+      <c r="I202">
+        <v>0.84535937756299895</v>
+      </c>
+      <c r="J202">
+        <v>0.79834912220637</v>
       </c>
       <c r="K202" s="1"/>
     </row>
@@ -10351,15 +10294,15 @@
         <v>0.93727654218673695</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>251</v>
+        <v>328</v>
       </c>
       <c r="H203" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="I203" s="4">
-        <v>0.93727654218673695</v>
-      </c>
-      <c r="J203" s="4">
+      <c r="I203">
+        <v>0.999999940395355</v>
+      </c>
+      <c r="J203">
         <v>0.999999940395355</v>
       </c>
       <c r="K203" s="1"/>
@@ -10384,16 +10327,16 @@
         <v>0.97460852563381195</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="I204" s="4">
+        <v>623</v>
+      </c>
+      <c r="I204">
+        <v>0.95892767608165697</v>
+      </c>
+      <c r="J204">
         <v>0.94523686170578003</v>
-      </c>
-      <c r="J204" s="4">
-        <v>0.95892767608165697</v>
       </c>
       <c r="K204" s="1"/>
     </row>
@@ -10417,15 +10360,15 @@
         <v>0.63155215978622403</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>163</v>
+        <v>286</v>
       </c>
       <c r="H205" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I205" s="4">
-        <v>0.58313858509063698</v>
-      </c>
-      <c r="J205" s="4">
+      <c r="I205">
+        <v>0.63155215978622403</v>
+      </c>
+      <c r="J205">
         <v>0.58313858509063698</v>
       </c>
       <c r="K205" s="1"/>
@@ -10450,16 +10393,16 @@
         <v>0.823154017329216</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="I206" s="4">
-        <v>0.84355524182319597</v>
-      </c>
-      <c r="J206" s="4">
-        <v>0.84003587067127194</v>
+        <v>890</v>
+      </c>
+      <c r="I206">
+        <v>0.82931458950042702</v>
+      </c>
+      <c r="J206">
+        <v>0.89023675521214796</v>
       </c>
       <c r="K206" s="1"/>
     </row>
@@ -10486,13 +10429,13 @@
         <v>524</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="I207" s="4">
+        <v>891</v>
+      </c>
+      <c r="I207">
         <v>0.863695949316024</v>
       </c>
-      <c r="J207" s="4">
-        <v>0.92210766673087996</v>
+      <c r="J207">
+        <v>0.94807181755701697</v>
       </c>
       <c r="K207" s="1"/>
     </row>
@@ -10516,16 +10459,16 @@
         <v>0.78287658095359802</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="I208" s="4">
-        <v>0.81577607989311196</v>
-      </c>
-      <c r="J208" s="4">
-        <v>0.99999997019767695</v>
+        <v>892</v>
+      </c>
+      <c r="I208">
+        <v>0.89740037918090798</v>
+      </c>
+      <c r="J208">
+        <v>0.79534319043159396</v>
       </c>
       <c r="K208" s="1"/>
     </row>
@@ -10554,10 +10497,10 @@
       <c r="H209" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="I209" s="4">
+      <c r="I209">
         <v>0.72499096393585205</v>
       </c>
-      <c r="J209" s="4">
+      <c r="J209">
         <v>0.72499096393585205</v>
       </c>
       <c r="K209" s="1"/>
@@ -10582,16 +10525,16 @@
         <v>1</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="I210" s="4">
-        <v>0.83522608876228299</v>
-      </c>
-      <c r="J210" s="4">
-        <v>0.85651206970214799</v>
+        <v>893</v>
+      </c>
+      <c r="I210">
+        <v>0.83975586295127802</v>
+      </c>
+      <c r="J210">
+        <v>1.00000011920928</v>
       </c>
       <c r="K210" s="1"/>
     </row>
@@ -10615,16 +10558,16 @@
         <v>0.76341502666473304</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="I211" s="4">
-        <v>0.77873925864696503</v>
-      </c>
-      <c r="J211" s="4">
-        <v>0.80646898349126095</v>
+        <v>894</v>
+      </c>
+      <c r="I211">
+        <v>0.83974320888519205</v>
+      </c>
+      <c r="J211">
+        <v>0.68599148839712099</v>
       </c>
       <c r="K211" s="1"/>
     </row>
@@ -10648,16 +10591,16 @@
         <v>0.77475973963737399</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="I212" s="4">
-        <v>0.65423038601875305</v>
-      </c>
-      <c r="J212" s="4">
-        <v>0.81966716051101596</v>
+        <v>536</v>
+      </c>
+      <c r="I212">
+        <v>0.80798524618148804</v>
+      </c>
+      <c r="J212">
+        <v>0.77475973963737399</v>
       </c>
       <c r="K212" s="1"/>
     </row>
@@ -10681,15 +10624,15 @@
         <v>0.83881008625030495</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="H213" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="I213" s="4">
-        <v>0.78571063280105502</v>
-      </c>
-      <c r="J213" s="4">
+      <c r="I213">
+        <v>0.69925747811794203</v>
+      </c>
+      <c r="J213">
         <v>0.83881008625030495</v>
       </c>
       <c r="K213" s="1"/>
@@ -10717,13 +10660,13 @@
         <v>593</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="I214" s="4">
+        <v>568</v>
+      </c>
+      <c r="I214">
         <v>0.67951172590255704</v>
       </c>
-      <c r="J214" s="4">
-        <v>0.74075955152511597</v>
+      <c r="J214">
+        <v>0.74792122840881303</v>
       </c>
       <c r="K214" s="1"/>
     </row>
@@ -10747,16 +10690,16 @@
         <v>0.58845824003219604</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>912</v>
-      </c>
-      <c r="I215" s="4">
-        <v>0.77228042483329695</v>
-      </c>
-      <c r="J215" s="4">
-        <v>0.75249901413917497</v>
+        <v>895</v>
+      </c>
+      <c r="I215">
+        <v>0.93994542956352201</v>
+      </c>
+      <c r="J215">
+        <v>0.80255869030952398</v>
       </c>
       <c r="K215" s="1"/>
     </row>
@@ -10780,16 +10723,16 @@
         <v>0.99999997019767695</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="I216" s="4">
-        <v>0.83469861745834295</v>
-      </c>
-      <c r="J216" s="4">
-        <v>0.85560641686121597</v>
+        <v>5</v>
+      </c>
+      <c r="I216">
+        <v>0.97909222046534194</v>
+      </c>
+      <c r="J216">
+        <v>0.64770975708961398</v>
       </c>
       <c r="K216" s="1"/>
     </row>
@@ -10813,16 +10756,16 @@
         <v>0.84066373109817505</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>750</v>
+        <v>767</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>914</v>
-      </c>
-      <c r="I217" s="4">
-        <v>0.91785529255867004</v>
-      </c>
-      <c r="J217" s="4">
-        <v>0.87202543020248402</v>
+        <v>610</v>
+      </c>
+      <c r="I217">
+        <v>0.82175109783808298</v>
+      </c>
+      <c r="J217">
+        <v>0.96863827109336798</v>
       </c>
       <c r="K217" s="1"/>
     </row>
@@ -10846,16 +10789,16 @@
         <v>0.84569850564002902</v>
       </c>
       <c r="G218" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="H218" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="H218" s="3" t="s">
-        <v>915</v>
-      </c>
-      <c r="I218" s="4">
+      <c r="I218">
+        <v>0.70787286758422796</v>
+      </c>
+      <c r="J218">
         <v>0.84569850564002902</v>
-      </c>
-      <c r="J218" s="4">
-        <v>0.99176207184791498</v>
       </c>
       <c r="K218" s="1"/>
     </row>
@@ -10879,16 +10822,16 @@
         <v>0.80681896209716797</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="I219" s="4">
-        <v>0.95364904403686501</v>
-      </c>
-      <c r="J219" s="4">
-        <v>0.76479812463124597</v>
+        <v>896</v>
+      </c>
+      <c r="I219">
+        <v>0.94921708106994596</v>
+      </c>
+      <c r="J219">
+        <v>1.0000000596046399</v>
       </c>
       <c r="K219" s="1"/>
     </row>
@@ -10912,16 +10855,16 @@
         <v>0.44760090112686102</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>917</v>
-      </c>
-      <c r="I220" s="4">
-        <v>0.61330941319465604</v>
-      </c>
-      <c r="J220" s="4">
-        <v>0.60820335149765004</v>
+        <v>897</v>
+      </c>
+      <c r="I220">
+        <v>0.52100457251071897</v>
+      </c>
+      <c r="J220">
+        <v>0.44375108182430201</v>
       </c>
       <c r="K220" s="1"/>
     </row>
@@ -10945,15 +10888,15 @@
         <v>0.99778437614440896</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>918</v>
-      </c>
-      <c r="I221" s="4">
-        <v>0.95287695527076699</v>
-      </c>
-      <c r="J221" s="4">
+        <v>898</v>
+      </c>
+      <c r="I221">
+        <v>0.99778437614440896</v>
+      </c>
+      <c r="J221">
         <v>0.99778437614440896</v>
       </c>
       <c r="K221" s="1"/>
@@ -10978,16 +10921,16 @@
         <v>0.71404698491096497</v>
       </c>
       <c r="G222" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="H222" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="H222" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="I222" s="4">
+      <c r="I222">
+        <v>0.73500726620356205</v>
+      </c>
+      <c r="J222">
         <v>0.71404698491096497</v>
-      </c>
-      <c r="J222" s="4">
-        <v>0.76370081305503801</v>
       </c>
       <c r="K222" s="1"/>
     </row>
@@ -11010,11 +10953,14 @@
       <c r="G223" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="I223" s="4">
+      <c r="H223" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="I223">
         <v>0.124797150492668</v>
       </c>
-      <c r="J223" s="4">
-        <v>4.5313309878110802E-2</v>
+      <c r="J223">
+        <v>0.124797150492668</v>
       </c>
       <c r="K223" s="1"/>
     </row>
@@ -11041,13 +10987,13 @@
         <v>593</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="I224" s="4">
+        <v>899</v>
+      </c>
+      <c r="I224">
         <v>0.67951172590255704</v>
       </c>
-      <c r="J224" s="4">
-        <v>0.71302413940429599</v>
+      <c r="J224">
+        <v>0.95052355527877797</v>
       </c>
       <c r="K224" s="1"/>
     </row>
@@ -11076,10 +11022,10 @@
       <c r="H225" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="I225" s="4">
+      <c r="I225">
         <v>0.99778437614440896</v>
       </c>
-      <c r="J225" s="4">
+      <c r="J225">
         <v>0.99778437614440896</v>
       </c>
       <c r="K225" s="1"/>
@@ -11104,16 +11050,16 @@
         <v>0.75269122918446796</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="I226" s="4">
-        <v>0.78740038474400798</v>
-      </c>
-      <c r="J226" s="4">
-        <v>0.82126718759536699</v>
+        <v>900</v>
+      </c>
+      <c r="I226">
+        <v>0.89212373892466201</v>
+      </c>
+      <c r="J226">
+        <v>0.86185638606548298</v>
       </c>
       <c r="K226" s="1"/>
     </row>
@@ -11137,16 +11083,16 @@
         <v>0.76984161138534501</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>920</v>
-      </c>
-      <c r="I227" s="4">
+        <v>901</v>
+      </c>
+      <c r="I227">
+        <v>0.968331158161163</v>
+      </c>
+      <c r="J227">
         <v>1.00000011920928</v>
-      </c>
-      <c r="J227" s="4">
-        <v>0.57961851358413696</v>
       </c>
       <c r="K227" s="1"/>
     </row>
@@ -11170,15 +11116,15 @@
         <v>0.75204792618751504</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>575</v>
+        <v>773</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="I228" s="4">
-        <v>0.96863833069801297</v>
-      </c>
-      <c r="J228" s="4">
+        <v>618</v>
+      </c>
+      <c r="I228">
+        <v>1.0000000298023199</v>
+      </c>
+      <c r="J228">
         <v>0.78340962529182401</v>
       </c>
       <c r="K228" s="1"/>
@@ -11203,16 +11149,16 @@
         <v>0.73258450627326899</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="I229" s="4">
-        <v>0.84124239285786895</v>
-      </c>
-      <c r="J229" s="4">
-        <v>0.85162758827209395</v>
+        <v>902</v>
+      </c>
+      <c r="I229">
+        <v>0.59773597121238697</v>
+      </c>
+      <c r="J229">
+        <v>0.71769918998082405</v>
       </c>
       <c r="K229" s="1"/>
     </row>
@@ -11236,16 +11182,16 @@
         <v>0.62709197402000405</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="I230" s="4">
+        <v>903</v>
+      </c>
+      <c r="I230">
         <v>0.824435055255889</v>
       </c>
-      <c r="J230" s="4">
-        <v>0.60529243946075395</v>
+      <c r="J230">
+        <v>0.49498690664768202</v>
       </c>
       <c r="K230" s="1"/>
     </row>
@@ -11269,16 +11215,16 @@
         <v>0.49900649487972198</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="I231" s="4">
-        <v>0.68596348166465704</v>
-      </c>
-      <c r="J231" s="4">
-        <v>0.41243501752614897</v>
+        <v>904</v>
+      </c>
+      <c r="I231">
+        <v>0.92246064543724005</v>
+      </c>
+      <c r="J231">
+        <v>0.423325054347515</v>
       </c>
       <c r="K231" s="1"/>
     </row>
@@ -11302,15 +11248,15 @@
         <v>0.96863827109336798</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="I232" s="4">
-        <v>0.86967778205871504</v>
-      </c>
-      <c r="J232" s="4">
+        <v>630</v>
+      </c>
+      <c r="I232">
+        <v>0.83344759543736702</v>
+      </c>
+      <c r="J232">
         <v>0.97909216086069695</v>
       </c>
       <c r="K232" s="1"/>
@@ -11335,16 +11281,16 @@
         <v>0.67762017250061002</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I233" s="4">
-        <v>0.643765568733215</v>
-      </c>
-      <c r="J233" s="4">
-        <v>0.643765568733215</v>
+        <v>130</v>
+      </c>
+      <c r="I233">
+        <v>0.67762017250061002</v>
+      </c>
+      <c r="J233">
+        <v>0.67762017250061002</v>
       </c>
       <c r="K233" s="1"/>
     </row>
@@ -11368,15 +11314,15 @@
         <v>0.53621900081634499</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>785</v>
+        <v>611</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="I234" s="4">
-        <v>0.70560967922210605</v>
-      </c>
-      <c r="J234" s="4">
+        <v>611</v>
+      </c>
+      <c r="I234">
+        <v>0.53621900081634499</v>
+      </c>
+      <c r="J234">
         <v>0.53621900081634499</v>
       </c>
       <c r="K234" s="1"/>
@@ -11406,10 +11352,10 @@
       <c r="H235" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I235" s="4">
+      <c r="I235">
         <v>1</v>
       </c>
-      <c r="J235" s="4">
+      <c r="J235">
         <v>1</v>
       </c>
       <c r="K235" s="1"/>
@@ -11434,16 +11380,16 @@
         <v>0.82942995429039001</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="I236" s="4">
-        <v>0.83906240761280004</v>
-      </c>
-      <c r="J236" s="4">
-        <v>0.97460862994193997</v>
+        <v>905</v>
+      </c>
+      <c r="I236">
+        <v>0.85806031525134996</v>
+      </c>
+      <c r="J236">
+        <v>0.76608396321535099</v>
       </c>
       <c r="K236" s="1"/>
     </row>
@@ -11464,15 +11410,15 @@
         <v>0.17694132030010201</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>542</v>
+        <v>593</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="I237" s="4">
-        <v>0.71302413940429599</v>
-      </c>
-      <c r="J237" s="4">
+        <v>605</v>
+      </c>
+      <c r="I237">
+        <v>0.67951172590255704</v>
+      </c>
+      <c r="J237">
         <v>1.00000023841857</v>
       </c>
       <c r="K237" s="1"/>
@@ -11502,7 +11448,7 @@
       </c>
       <c r="I240" s="4">
         <f>COUNTIF(I2:I237, "&gt;=0.85")</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J240" s="4">
         <f>COUNTIF(J2:J237, "&gt;=0.85")</f>
@@ -11511,16 +11457,16 @@
     </row>
     <row r="242" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E242" s="5" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="J242" s="5" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
     </row>
     <row r="243" spans="5:10" x14ac:dyDescent="0.4">
@@ -11534,11 +11480,11 @@
       </c>
       <c r="I243" s="4">
         <f>AVERAGE(I2:I237)</f>
-        <v>0.78066986456702825</v>
+        <v>0.78007023436159384</v>
       </c>
       <c r="J243" s="4">
         <f>AVERAGE(J2:J237)</f>
-        <v>0.76849443346421309</v>
+        <v>0.77131184037080247</v>
       </c>
     </row>
   </sheetData>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evan Su\Documents\GitHub\FinetuneLLM-NLP-Quiz\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1D9A81-E96F-4307-BEFE-82542B87BB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8647DEDC-15EA-46C0-A6B8-75B08B41D3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{18726F21-B83D-40FF-84A4-04DF132C406D}"/>
   </bookViews>
@@ -3640,7 +3640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F06E16-AE66-4B2E-A391-8EE15FF228E5}">
   <dimension ref="A1:K243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
       <selection activeCell="J245" sqref="J245"/>
     </sheetView>
   </sheetViews>
@@ -3652,8 +3652,8 @@
     <col min="5" max="5" width="23.69140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="23.53515625" style="4" customWidth="1"/>
     <col min="7" max="8" width="23.69140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="24.53515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="24.765625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.84375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="23.921875" style="4" customWidth="1"/>
     <col min="11" max="11" width="23.84375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3714,10 +3714,10 @@
       <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <v>0.99999998013178504</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="4">
         <v>0.99999998013178504</v>
       </c>
       <c r="K2" s="1"/>
@@ -3747,10 +3747,10 @@
       <c r="H3" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>0.49964179098606099</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>0.44117043912410697</v>
       </c>
       <c r="K3" s="1"/>
@@ -3780,10 +3780,10 @@
       <c r="H4" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>0.851061731576919</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>0.86674258112907399</v>
       </c>
       <c r="K4" s="1"/>
@@ -3813,10 +3813,10 @@
       <c r="H5" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>0.98660504817962602</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <v>1</v>
       </c>
       <c r="K5" s="1"/>
@@ -3846,10 +3846,10 @@
       <c r="H6" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>0.85880175232887201</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>0.89582175016403198</v>
       </c>
       <c r="K6" s="1"/>
@@ -3879,10 +3879,10 @@
       <c r="H7" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>0.96882569789886397</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>0.82719361782073897</v>
       </c>
       <c r="K7" s="1"/>
@@ -3912,10 +3912,10 @@
       <c r="H8" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>0.87594095865885402</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <v>0.65049600973725297</v>
       </c>
       <c r="K8" s="1"/>
@@ -3945,10 +3945,10 @@
       <c r="H9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="4">
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="4">
         <v>1</v>
       </c>
       <c r="K9" s="1"/>
@@ -3978,10 +3978,10 @@
       <c r="H10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <v>0.81577607989311196</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <v>0.79156929254531805</v>
       </c>
       <c r="K10" s="1"/>
@@ -4011,10 +4011,10 @@
       <c r="H11" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="4">
         <v>0.89578464627265897</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="4">
         <v>0.76574503630399704</v>
       </c>
       <c r="K11" s="1"/>
@@ -4044,10 +4044,10 @@
       <c r="H12" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <v>0.90017408132553101</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="4">
         <v>0.65798303484916598</v>
       </c>
       <c r="K12" s="1"/>
@@ -4077,10 +4077,10 @@
       <c r="H13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="4">
         <v>0.96863827109336798</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="4">
         <v>0.83233422040939298</v>
       </c>
       <c r="K13" s="1"/>
@@ -4110,10 +4110,10 @@
       <c r="H14" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <v>0.81577607989311196</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="4">
         <v>0.74131402373313904</v>
       </c>
       <c r="K14" s="1"/>
@@ -4143,10 +4143,10 @@
       <c r="H15" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="4">
         <v>0.80579022566477398</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="4">
         <v>0.75923298299312503</v>
       </c>
       <c r="K15" s="1"/>
@@ -4176,10 +4176,10 @@
       <c r="H16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="4">
         <v>1</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="4">
         <v>1</v>
       </c>
       <c r="K16" s="1"/>
@@ -4209,10 +4209,10 @@
       <c r="H17" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="4">
         <v>0.55352979898452703</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="4">
         <v>0.55352979898452703</v>
       </c>
       <c r="K17" s="1"/>
@@ -4242,10 +4242,10 @@
       <c r="H18" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="4">
         <v>0.65613591670989901</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="4">
         <v>0.75837792952855398</v>
       </c>
       <c r="K18" s="1"/>
@@ -4275,10 +4275,10 @@
       <c r="H19" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="4">
         <v>0.60541138052940302</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="4">
         <v>0.78759735822677601</v>
       </c>
       <c r="K19" s="1"/>
@@ -4308,10 +4308,10 @@
       <c r="H20" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="4">
         <v>0.80574935674667303</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="4">
         <v>0.79542900621891</v>
       </c>
       <c r="K20" s="1"/>
@@ -4341,10 +4341,10 @@
       <c r="H21" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="4">
         <v>1.0000000149011601</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="4">
         <v>0.95502176880836398</v>
       </c>
       <c r="K21" s="1"/>
@@ -4374,10 +4374,10 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="4">
         <v>0.83083805441856295</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="4">
         <v>0.88605058193206698</v>
       </c>
       <c r="K22" s="1"/>
@@ -4407,10 +4407,10 @@
       <c r="H23" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="4">
         <v>0.72857535630464498</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="4">
         <v>0.64331524570782905</v>
       </c>
       <c r="K23" s="1"/>
@@ -4440,10 +4440,10 @@
       <c r="H24" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="4">
         <v>0.95287695527076699</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="4">
         <v>0.99778437614440896</v>
       </c>
       <c r="K24" s="1"/>
@@ -4473,10 +4473,10 @@
       <c r="H25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="4">
         <v>0.64592093229293801</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="4">
         <v>0.47421866655349698</v>
       </c>
       <c r="K25" s="1"/>
@@ -4506,10 +4506,10 @@
       <c r="H26" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="4">
         <v>0.783744476735591</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="4">
         <v>0.88637749354044504</v>
       </c>
       <c r="K26" s="1"/>
@@ -4539,10 +4539,10 @@
       <c r="H27" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="4">
         <v>0.52013291418552399</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="4">
         <v>0.630446597933769</v>
       </c>
       <c r="K27" s="1"/>
@@ -4572,10 +4572,10 @@
       <c r="H28" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="4">
         <v>0.96495440602302496</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="4">
         <v>0.96863827109336798</v>
       </c>
       <c r="K28" s="1"/>
@@ -4605,10 +4605,10 @@
       <c r="H29" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="4">
         <v>0.79445064067840498</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="4">
         <v>0.75268542766571001</v>
       </c>
       <c r="K29" s="1"/>
@@ -4638,10 +4638,10 @@
       <c r="H30" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="4">
         <v>0.77486801147460904</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="4">
         <v>0.90199670195579496</v>
       </c>
       <c r="K30" s="1"/>
@@ -4671,10 +4671,10 @@
       <c r="H31" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="4">
         <v>1</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="4">
         <v>1</v>
       </c>
       <c r="K31" s="1"/>
@@ -4704,10 +4704,10 @@
       <c r="H32" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="4">
         <v>0.75936815142631497</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="4">
         <v>0.72229206065336804</v>
       </c>
       <c r="K32" s="1"/>
@@ -4737,10 +4737,10 @@
       <c r="H33" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="4">
         <v>0.99999997019767695</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="4">
         <v>0.99999997019767695</v>
       </c>
       <c r="K33" s="1"/>
@@ -4770,10 +4770,10 @@
       <c r="H34" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="4">
         <v>0.85558956861495905</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="4">
         <v>0.85558956861495905</v>
       </c>
       <c r="K34" s="1"/>
@@ -4803,10 +4803,10 @@
       <c r="H35" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="4">
         <v>1</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="4">
         <v>1</v>
       </c>
       <c r="K35" s="1"/>
@@ -4836,10 +4836,10 @@
       <c r="H36" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="4">
         <v>0.999999940395355</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="4">
         <v>0.659132480621337</v>
       </c>
       <c r="K36" s="1"/>
@@ -4869,10 +4869,10 @@
       <c r="H37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="4">
         <v>0.74535532792409198</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="4">
         <v>0.99999997019767695</v>
       </c>
       <c r="K37" s="1"/>
@@ -4902,10 +4902,10 @@
       <c r="H38" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="4">
         <v>1</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="4">
         <v>1</v>
       </c>
       <c r="K38" s="1"/>
@@ -4935,10 +4935,10 @@
       <c r="H39" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="4">
         <v>0.65267425775527899</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="4">
         <v>0.802943795919418</v>
       </c>
       <c r="K39" s="1"/>
@@ -4968,10 +4968,10 @@
       <c r="H40" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="4">
         <v>0.63155215978622403</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="4">
         <v>0.80082666873931796</v>
       </c>
       <c r="K40" s="1"/>
@@ -5001,10 +5001,10 @@
       <c r="H41" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="4">
         <v>0.85236735343933101</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="4">
         <v>0.82556803226470898</v>
       </c>
       <c r="K41" s="1"/>
@@ -5034,10 +5034,10 @@
       <c r="H42" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="4">
         <v>0.82092060645421305</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="4">
         <v>0.79658212264378803</v>
       </c>
       <c r="K42" s="1"/>
@@ -5067,10 +5067,10 @@
       <c r="H43" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="4">
         <v>0.88996568322181702</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="4">
         <v>0.605217784643173</v>
       </c>
       <c r="K43" s="1"/>
@@ -5100,10 +5100,10 @@
       <c r="H44" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="4">
         <v>0.78430225451787305</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="4">
         <v>0.78064054250717096</v>
       </c>
       <c r="K44" s="1"/>
@@ -5133,10 +5133,10 @@
       <c r="H45" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="4">
         <v>0.92246052622795105</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="4">
         <v>0.52967828512191695</v>
       </c>
       <c r="K45" s="1"/>
@@ -5160,10 +5160,10 @@
       <c r="G46" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="4">
         <v>0.82594674825668302</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="4">
         <v>0.16610771417617701</v>
       </c>
       <c r="K46" s="1"/>
@@ -5193,10 +5193,10 @@
       <c r="H47" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="4">
         <v>0.63860351840655005</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="4">
         <v>0.66927124063173904</v>
       </c>
       <c r="K47" s="1"/>
@@ -5226,10 +5226,10 @@
       <c r="H48" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="4">
         <v>0.67762017250061002</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="4">
         <v>0.67762017250061002</v>
       </c>
       <c r="K48" s="1"/>
@@ -5259,10 +5259,10 @@
       <c r="H49" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="4">
         <v>0.99999996026356996</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="4">
         <v>0.87080601851145401</v>
       </c>
       <c r="K49" s="1"/>
@@ -5280,10 +5280,10 @@
       <c r="F50" s="4">
         <v>0.22638063132762901</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="4">
         <v>0.22638063132762901</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="4">
         <v>0.22638063132762901</v>
       </c>
       <c r="K50" s="1"/>
@@ -5313,10 +5313,10 @@
       <c r="H51" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="4">
         <v>1.00000001986821</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="4">
         <v>0.96863827109336798</v>
       </c>
       <c r="K51" s="1"/>
@@ -5346,10 +5346,10 @@
       <c r="H52" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="4">
         <v>0.70650571584701505</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="4">
         <v>0.659839928150177</v>
       </c>
       <c r="K52" s="1"/>
@@ -5379,10 +5379,10 @@
       <c r="H53" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="4">
         <v>0.83401294549306204</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="4">
         <v>1</v>
       </c>
       <c r="K53" s="1"/>
@@ -5412,10 +5412,10 @@
       <c r="H54" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="4">
         <v>0.85708896319071404</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="4">
         <v>0.771619458993276</v>
       </c>
       <c r="K54" s="1"/>
@@ -5445,10 +5445,10 @@
       <c r="H55" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="4">
         <v>0.75020027160644498</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="4">
         <v>0.533095349868138</v>
       </c>
       <c r="K55" s="1"/>
@@ -5478,10 +5478,10 @@
       <c r="H56" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="4">
         <v>0.83338860670725501</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="4">
         <v>0.88965448737144404</v>
       </c>
       <c r="K56" s="1"/>
@@ -5511,10 +5511,10 @@
       <c r="H57" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="4">
         <v>0.59973746538162198</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="4">
         <v>0.53492907683054602</v>
       </c>
       <c r="K57" s="1"/>
@@ -5544,10 +5544,10 @@
       <c r="H58" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="4">
         <v>0.73710945248603799</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="4">
         <v>0.81742382049560502</v>
       </c>
       <c r="K58" s="1"/>
@@ -5577,10 +5577,10 @@
       <c r="H59" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="4">
         <v>0.690788221359252</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="4">
         <v>0.68798810541629796</v>
       </c>
       <c r="K59" s="1"/>
@@ -5610,10 +5610,10 @@
       <c r="H60" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="4">
         <v>0.75035083293914795</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="4">
         <v>0.29144170880317599</v>
       </c>
       <c r="K60" s="1"/>
@@ -5643,10 +5643,10 @@
       <c r="H61" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="4">
         <v>0.63155215978622403</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="4">
         <v>0.63155215978622403</v>
       </c>
       <c r="K61" s="1"/>
@@ -5676,10 +5676,10 @@
       <c r="H62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="4">
         <v>1.00000023841857</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="4">
         <v>0.625701904296875</v>
       </c>
       <c r="K62" s="1"/>
@@ -5709,10 +5709,10 @@
       <c r="H63" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="4">
         <v>0.56813042610883702</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="4">
         <v>0.82725313901901198</v>
       </c>
       <c r="K63" s="1"/>
@@ -5742,10 +5742,10 @@
       <c r="H64" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="4">
         <v>0.67351970076560896</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="4">
         <v>0.81012431780497196</v>
       </c>
       <c r="K64" s="1"/>
@@ -5775,10 +5775,10 @@
       <c r="H65" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="4">
         <v>0.92089039087295499</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="4">
         <v>0.86204278469085605</v>
       </c>
       <c r="K65" s="1"/>
@@ -5808,10 +5808,10 @@
       <c r="H66" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="4">
         <v>0.63583363095919199</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="4">
         <v>0.59138959646224898</v>
       </c>
       <c r="K66" s="1"/>
@@ -5841,10 +5841,10 @@
       <c r="H67" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="4">
         <v>0.227014601230621</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="4">
         <v>0.227014601230621</v>
       </c>
       <c r="K67" s="1"/>
@@ -5874,10 +5874,10 @@
       <c r="H68" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="4">
         <v>0.92246052622795105</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="4">
         <v>0.84368231892585699</v>
       </c>
       <c r="K68" s="1"/>
@@ -5907,10 +5907,10 @@
       <c r="H69" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="4">
         <v>0.60642156004905701</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="4">
         <v>0.26995798821250599</v>
       </c>
       <c r="K69" s="1"/>
@@ -5937,10 +5937,10 @@
       <c r="H70" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="4">
         <v>0.48693448305129999</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="4">
         <v>0.48693448305129999</v>
       </c>
       <c r="K70" s="1"/>
@@ -5970,10 +5970,10 @@
       <c r="H71" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="4">
         <v>0.69036905467510201</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="4">
         <v>0.86084529757499695</v>
       </c>
       <c r="K71" s="1"/>
@@ -6003,10 +6003,10 @@
       <c r="H72" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="4">
         <v>0.380455821752548</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="4">
         <v>0.37276154756545998</v>
       </c>
       <c r="K72" s="1"/>
@@ -6036,10 +6036,10 @@
       <c r="H73" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="4">
         <v>0.78720887005329099</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="4">
         <v>0.65314877033233598</v>
       </c>
       <c r="K73" s="1"/>
@@ -6069,10 +6069,10 @@
       <c r="H74" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="4">
         <v>0.81713497638702304</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="4">
         <v>0.82271793484687805</v>
       </c>
       <c r="K74" s="1"/>
@@ -6102,10 +6102,10 @@
       <c r="H75" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="4">
         <v>0.41947683691978399</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="4">
         <v>0.41947683691978399</v>
       </c>
       <c r="K75" s="1"/>
@@ -6135,10 +6135,10 @@
       <c r="H76" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="4">
         <v>0.62211651355028097</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="4">
         <v>0.70447383324305202</v>
       </c>
       <c r="K76" s="1"/>
@@ -6168,10 +6168,10 @@
       <c r="H77" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="4">
         <v>0.91782541573047605</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="4">
         <v>0.99852289756139101</v>
       </c>
       <c r="K77" s="1"/>
@@ -6201,10 +6201,10 @@
       <c r="H78" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="4">
         <v>0.89636671543121305</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="4">
         <v>0.69907957315444902</v>
       </c>
       <c r="K78" s="1"/>
@@ -6234,10 +6234,10 @@
       <c r="H79" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="4">
         <v>0.66195499897003096</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="4">
         <v>0.99556875228881803</v>
       </c>
       <c r="K79" s="1"/>
@@ -6267,10 +6267,10 @@
       <c r="H80" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="4">
         <v>1</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="4">
         <v>1</v>
       </c>
       <c r="K80" s="1"/>
@@ -6300,10 +6300,10 @@
       <c r="H81" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="4">
         <v>0.74346736073493902</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="4">
         <v>0.74346736073493902</v>
       </c>
       <c r="K81" s="1"/>
@@ -6333,10 +6333,10 @@
       <c r="H82" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="4">
         <v>0.83881008625030495</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="4">
         <v>0.83881008625030495</v>
       </c>
       <c r="K82" s="1"/>
@@ -6366,10 +6366,10 @@
       <c r="H83" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="4">
         <v>0.73854660987854004</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="4">
         <v>0.83928896983464496</v>
       </c>
       <c r="K83" s="1"/>
@@ -6399,10 +6399,10 @@
       <c r="H84" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="4">
         <v>0.84234872460365295</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="4">
         <v>0.74639800190925598</v>
       </c>
       <c r="K84" s="1"/>
@@ -6432,10 +6432,10 @@
       <c r="H85" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="4">
         <v>0.787923137346903</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="4">
         <v>0.79876006642977304</v>
       </c>
       <c r="K85" s="1"/>
@@ -6465,10 +6465,10 @@
       <c r="H86" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="4">
         <v>0.90859135985374395</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="4">
         <v>0.71328727900981903</v>
       </c>
       <c r="K86" s="1"/>
@@ -6498,10 +6498,10 @@
       <c r="H87" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="4">
         <v>0.82409293949604001</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="4">
         <v>0.72007629275321905</v>
       </c>
       <c r="K87" s="1"/>
@@ -6531,10 +6531,10 @@
       <c r="H88" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="4">
         <v>0.83554640412330605</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="4">
         <v>0.78441435098648005</v>
       </c>
       <c r="K88" s="1"/>
@@ -6564,10 +6564,10 @@
       <c r="H89" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="4">
         <v>0.60031959414482094</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="4">
         <v>0.66068530082702603</v>
       </c>
       <c r="K89" s="1"/>
@@ -6585,10 +6585,10 @@
       <c r="F90" s="4">
         <v>0.13911400735378199</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="4">
         <v>0.13911400735378199</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="4">
         <v>0.13911400735378199</v>
       </c>
       <c r="K90" s="1"/>
@@ -6618,10 +6618,10 @@
       <c r="H91" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="4">
         <v>0.88611471652984597</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="4">
         <v>0.97909218072891202</v>
       </c>
       <c r="K91" s="1"/>
@@ -6651,10 +6651,10 @@
       <c r="H92" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="4">
         <v>0.84898251295089699</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="4">
         <v>0.84462271928787203</v>
       </c>
       <c r="K92" s="1"/>
@@ -6684,10 +6684,10 @@
       <c r="H93" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="4">
         <v>0.87080601851145401</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="4">
         <v>0.96863827109336798</v>
       </c>
       <c r="K93" s="1"/>
@@ -6717,10 +6717,10 @@
       <c r="H94" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="4">
         <v>0.71267257630824998</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="4">
         <v>0.65144119660059596</v>
       </c>
       <c r="K94" s="1"/>
@@ -6750,10 +6750,10 @@
       <c r="H95" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="4">
         <v>0.67055912315845401</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="4">
         <v>0.87323850393295199</v>
       </c>
       <c r="K95" s="1"/>
@@ -6783,10 +6783,10 @@
       <c r="H96" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="4">
         <v>0.93727654218673695</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="4">
         <v>0.999999940395355</v>
       </c>
       <c r="K96" s="1"/>
@@ -6816,10 +6816,10 @@
       <c r="H97" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="4">
         <v>0.96863827109336798</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="4">
         <v>1</v>
       </c>
       <c r="K97" s="1"/>
@@ -6849,10 +6849,10 @@
       <c r="H98" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="4">
         <v>0.79672735929489102</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="4">
         <v>0.84368228912353505</v>
       </c>
       <c r="K98" s="1"/>
@@ -6882,10 +6882,10 @@
       <c r="H99" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="4">
         <v>0.86054079532623295</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="4">
         <v>0.88045017421245497</v>
       </c>
       <c r="K99" s="1"/>
@@ -6915,10 +6915,10 @@
       <c r="H100" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="4">
         <v>1</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="4">
         <v>1</v>
       </c>
       <c r="K100" s="1"/>
@@ -6948,10 +6948,10 @@
       <c r="H101" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="4">
         <v>0.85136374831199602</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="4">
         <v>0.82956624031066895</v>
       </c>
       <c r="K101" s="1"/>
@@ -6981,10 +6981,10 @@
       <c r="H102" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="4">
         <v>0.67762017250061002</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="4">
         <v>0.83659446239471402</v>
       </c>
       <c r="K102" s="1"/>
@@ -7014,10 +7014,10 @@
       <c r="H103" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="4">
         <v>0.26645958423614502</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="4">
         <v>0.27410018444061202</v>
       </c>
       <c r="K103" s="1"/>
@@ -7047,10 +7047,10 @@
       <c r="H104" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="4">
         <v>0.4989964812994</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="4">
         <v>0.59527246654033605</v>
       </c>
       <c r="K104" s="1"/>
@@ -7080,10 +7080,10 @@
       <c r="H105" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="4">
         <v>0.97867506742477395</v>
       </c>
-      <c r="J105">
+      <c r="J105" s="4">
         <v>0.87517541646957397</v>
       </c>
       <c r="K105" s="1"/>
@@ -7113,10 +7113,10 @@
       <c r="H106" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="4">
         <v>0.81829434633255005</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="4">
         <v>0.81829434633255005</v>
       </c>
       <c r="K106" s="1"/>
@@ -7146,10 +7146,10 @@
       <c r="H107" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="4">
         <v>0.99167957901954595</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="4">
         <v>0.83881008625030495</v>
       </c>
       <c r="K107" s="1"/>
@@ -7179,10 +7179,10 @@
       <c r="H108" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="4">
         <v>0.96863827109336798</v>
       </c>
-      <c r="J108">
+      <c r="J108" s="4">
         <v>0.999999940395355</v>
       </c>
       <c r="K108" s="1"/>
@@ -7212,10 +7212,10 @@
       <c r="H109" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="4">
         <v>0.65598232547442104</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="4">
         <v>0.62600362300872803</v>
       </c>
       <c r="K109" s="1"/>
@@ -7245,10 +7245,10 @@
       <c r="H110" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="4">
         <v>0.93727654218673695</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="4">
         <v>0.999999940395355</v>
       </c>
       <c r="K110" s="1"/>
@@ -7278,10 +7278,10 @@
       <c r="H111" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="4">
         <v>0.70210994283358197</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="4">
         <v>0.82189408938090003</v>
       </c>
       <c r="K111" s="1"/>
@@ -7311,10 +7311,10 @@
       <c r="H112" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="4">
         <v>0.75433379411697299</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="4">
         <v>0.75433379411697299</v>
       </c>
       <c r="K112" s="1"/>
@@ -7344,10 +7344,10 @@
       <c r="H113" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="4">
         <v>0.81391134858131398</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="4">
         <v>0.81391134858131398</v>
       </c>
       <c r="K113" s="1"/>
@@ -7377,10 +7377,10 @@
       <c r="H114" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="4">
         <v>0.79915148019790605</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="4">
         <v>0.80948385596275296</v>
       </c>
       <c r="K114" s="1"/>
@@ -7410,10 +7410,10 @@
       <c r="H115" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="4">
         <v>0.96863827109336798</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="4">
         <v>0.99999997019767695</v>
       </c>
       <c r="K115" s="1"/>
@@ -7443,10 +7443,10 @@
       <c r="H116" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="4">
         <v>0.720037107666333</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="4">
         <v>0.75276003281275405</v>
       </c>
       <c r="K116" s="1"/>
@@ -7476,10 +7476,10 @@
       <c r="H117" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="4">
         <v>0.91478312015533403</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="4">
         <v>0.92476989328861203</v>
       </c>
       <c r="K117" s="1"/>
@@ -7509,10 +7509,10 @@
       <c r="H118" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="4">
         <v>0.47147598862647999</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="4">
         <v>0.52000087499618497</v>
       </c>
       <c r="K118" s="1"/>
@@ -7542,10 +7542,10 @@
       <c r="H119" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="4">
         <v>0.63155215978622403</v>
       </c>
-      <c r="J119">
+      <c r="J119" s="4">
         <v>0.61687356233596802</v>
       </c>
       <c r="K119" s="1"/>
@@ -7575,10 +7575,10 @@
       <c r="H120" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="4">
         <v>0.97909218072891202</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="4">
         <v>0.90719419717788696</v>
       </c>
       <c r="K120" s="1"/>
@@ -7608,10 +7608,10 @@
       <c r="H121" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="4">
         <v>0.81178206205367998</v>
       </c>
-      <c r="J121">
+      <c r="J121" s="4">
         <v>0.999999940395355</v>
       </c>
       <c r="K121" s="1"/>
@@ -7641,10 +7641,10 @@
       <c r="H122" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="4">
         <v>0.81174094974994604</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="4">
         <v>0.99999998509883803</v>
       </c>
       <c r="K122" s="1"/>
@@ -7674,10 +7674,10 @@
       <c r="H123" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="4">
         <v>0.70527774095535201</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="4">
         <v>0.712105512619018</v>
       </c>
       <c r="K123" s="1"/>
@@ -7707,10 +7707,10 @@
       <c r="H124" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="4">
         <v>0.62564671039581299</v>
       </c>
-      <c r="J124">
+      <c r="J124" s="4">
         <v>1</v>
       </c>
       <c r="K124" s="1"/>
@@ -7740,10 +7740,10 @@
       <c r="H125" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="4">
         <v>0.83836883306503296</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="4">
         <v>0.94921702146530096</v>
       </c>
       <c r="K125" s="1"/>
@@ -7773,10 +7773,10 @@
       <c r="H126" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="4">
         <v>0.93727654218673695</v>
       </c>
-      <c r="J126">
+      <c r="J126" s="4">
         <v>0.999999940395355</v>
       </c>
       <c r="K126" s="1"/>
@@ -7806,10 +7806,10 @@
       <c r="H127" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="4">
         <v>0.736723268032074</v>
       </c>
-      <c r="J127">
+      <c r="J127" s="4">
         <v>0.67795057098070699</v>
       </c>
       <c r="K127" s="1"/>
@@ -7839,10 +7839,10 @@
       <c r="H128" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="4">
         <v>0.80394139885902405</v>
       </c>
-      <c r="J128">
+      <c r="J128" s="4">
         <v>0.99999997019767695</v>
       </c>
       <c r="K128" s="1"/>
@@ -7872,10 +7872,10 @@
       <c r="H129" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="4">
         <v>0.72827111184597004</v>
       </c>
-      <c r="J129">
+      <c r="J129" s="4">
         <v>0.66631846129894201</v>
       </c>
       <c r="K129" s="1"/>
@@ -7905,10 +7905,10 @@
       <c r="H130" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="4">
         <v>0.83297753334045399</v>
       </c>
-      <c r="J130">
+      <c r="J130" s="4">
         <v>0.41970948378244999</v>
       </c>
       <c r="K130" s="1"/>
@@ -7938,10 +7938,10 @@
       <c r="H131" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="I131">
+      <c r="I131" s="4">
         <v>0.79977047443389804</v>
       </c>
-      <c r="J131">
+      <c r="J131" s="4">
         <v>0.86690813302993697</v>
       </c>
       <c r="K131" s="1"/>
@@ -7971,10 +7971,10 @@
       <c r="H132" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="4">
         <v>0.94818335771560602</v>
       </c>
-      <c r="J132">
+      <c r="J132" s="4">
         <v>0.99999997019767695</v>
       </c>
       <c r="K132" s="1"/>
@@ -8004,10 +8004,10 @@
       <c r="H133" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="4">
         <v>0.99778434634208601</v>
       </c>
-      <c r="J133">
+      <c r="J133" s="4">
         <v>0.96642264723777704</v>
       </c>
       <c r="K133" s="1"/>
@@ -8037,10 +8037,10 @@
       <c r="H134" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="4">
         <v>0.92623049020767201</v>
       </c>
-      <c r="J134">
+      <c r="J134" s="4">
         <v>0.92398694157600403</v>
       </c>
       <c r="K134" s="1"/>
@@ -8070,10 +8070,10 @@
       <c r="H135" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="4">
         <v>0.62829440832137995</v>
       </c>
-      <c r="J135">
+      <c r="J135" s="4">
         <v>0.53461752831935805</v>
       </c>
       <c r="K135" s="1"/>
@@ -8103,10 +8103,10 @@
       <c r="H136" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="4">
         <v>0.758783839643001</v>
       </c>
-      <c r="J136">
+      <c r="J136" s="4">
         <v>0.821882784366607</v>
       </c>
       <c r="K136" s="1"/>
@@ -8136,10 +8136,10 @@
       <c r="H137" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="4">
         <v>0.999999940395355</v>
       </c>
-      <c r="J137">
+      <c r="J137" s="4">
         <v>0.999999940395355</v>
       </c>
       <c r="K137" s="1"/>
@@ -8169,10 +8169,10 @@
       <c r="H138" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="4">
         <v>0.94193679094314497</v>
       </c>
-      <c r="J138">
+      <c r="J138" s="4">
         <v>1</v>
       </c>
       <c r="K138" s="1"/>
@@ -8202,10 +8202,10 @@
       <c r="H139" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="4">
         <v>1</v>
       </c>
-      <c r="J139">
+      <c r="J139" s="4">
         <v>0.938443303108215</v>
       </c>
       <c r="K139" s="1"/>
@@ -8235,10 +8235,10 @@
       <c r="H140" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="4">
         <v>0.67404870192209798</v>
       </c>
-      <c r="J140">
+      <c r="J140" s="4">
         <v>0.70402303834756197</v>
       </c>
       <c r="K140" s="1"/>
@@ -8268,10 +8268,10 @@
       <c r="H141" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="4">
         <v>0.85096903642018595</v>
       </c>
-      <c r="J141">
+      <c r="J141" s="4">
         <v>1</v>
       </c>
       <c r="K141" s="1"/>
@@ -8301,10 +8301,10 @@
       <c r="H142" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="I142">
+      <c r="I142" s="4">
         <v>0.82341498136520297</v>
       </c>
-      <c r="J142">
+      <c r="J142" s="4">
         <v>0.89969319105148304</v>
       </c>
       <c r="K142" s="1"/>
@@ -8334,10 +8334,10 @@
       <c r="H143" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="4">
         <v>0.73636556168397205</v>
       </c>
-      <c r="J143">
+      <c r="J143" s="4">
         <v>0.83408801754315698</v>
       </c>
       <c r="K143" s="1"/>
@@ -8367,10 +8367,10 @@
       <c r="H144" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="I144">
+      <c r="I144" s="4">
         <v>0.96863827109336798</v>
       </c>
-      <c r="J144">
+      <c r="J144" s="4">
         <v>0.999999940395355</v>
       </c>
       <c r="K144" s="1"/>
@@ -8400,10 +8400,10 @@
       <c r="H145" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I145">
+      <c r="I145" s="4">
         <v>1</v>
       </c>
-      <c r="J145">
+      <c r="J145" s="4">
         <v>1</v>
       </c>
       <c r="K145" s="1"/>
@@ -8433,10 +8433,10 @@
       <c r="H146" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="I146">
+      <c r="I146" s="4">
         <v>1</v>
       </c>
-      <c r="J146">
+      <c r="J146" s="4">
         <v>0.85092353820800704</v>
       </c>
       <c r="K146" s="1"/>
@@ -8466,10 +8466,10 @@
       <c r="H147" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="I147">
+      <c r="I147" s="4">
         <v>0.710384041070938</v>
       </c>
-      <c r="J147">
+      <c r="J147" s="4">
         <v>0.710384041070938</v>
       </c>
       <c r="K147" s="1"/>
@@ -8499,10 +8499,10 @@
       <c r="H148" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="I148">
+      <c r="I148" s="4">
         <v>0.68414294719696001</v>
       </c>
-      <c r="J148">
+      <c r="J148" s="4">
         <v>0.58072590827941895</v>
       </c>
       <c r="K148" s="1"/>
@@ -8532,10 +8532,10 @@
       <c r="H149" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="I149">
+      <c r="I149" s="4">
         <v>0.58628222346305803</v>
       </c>
-      <c r="J149">
+      <c r="J149" s="4">
         <v>0.84739987055460597</v>
       </c>
       <c r="K149" s="1"/>
@@ -8565,10 +8565,10 @@
       <c r="H150" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="I150">
+      <c r="I150" s="4">
         <v>0.9483070174853</v>
       </c>
-      <c r="J150">
+      <c r="J150" s="4">
         <v>0.72003992398579897</v>
       </c>
       <c r="K150" s="1"/>
@@ -8598,10 +8598,10 @@
       <c r="H151" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="I151">
+      <c r="I151" s="4">
         <v>0.72354567050933805</v>
       </c>
-      <c r="J151">
+      <c r="J151" s="4">
         <v>0.82594674825668302</v>
       </c>
       <c r="K151" s="1"/>
@@ -8631,10 +8631,10 @@
       <c r="H152" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="I152">
+      <c r="I152" s="4">
         <v>0.62806189060211104</v>
       </c>
-      <c r="J152">
+      <c r="J152" s="4">
         <v>0.99556875228881803</v>
       </c>
       <c r="K152" s="1"/>
@@ -8664,10 +8664,10 @@
       <c r="H153" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="I153">
+      <c r="I153" s="4">
         <v>0.67971751093864397</v>
       </c>
-      <c r="J153">
+      <c r="J153" s="4">
         <v>0.91852995753288202</v>
       </c>
       <c r="K153" s="1"/>
@@ -8697,10 +8697,10 @@
       <c r="H154" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="I154">
+      <c r="I154" s="4">
         <v>0.56544709205627397</v>
       </c>
-      <c r="J154">
+      <c r="J154" s="4">
         <v>0.99556875228881803</v>
       </c>
       <c r="K154" s="1"/>
@@ -8730,10 +8730,10 @@
       <c r="H155" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="I155">
+      <c r="I155" s="4">
         <v>0.78962790966033902</v>
       </c>
-      <c r="J155">
+      <c r="J155" s="4">
         <v>0.78962790966033902</v>
       </c>
       <c r="K155" s="1"/>
@@ -8763,10 +8763,10 @@
       <c r="H156" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="I156">
+      <c r="I156" s="4">
         <v>0.81780179589986801</v>
       </c>
-      <c r="J156">
+      <c r="J156" s="4">
         <v>0.772245973348617</v>
       </c>
       <c r="K156" s="1"/>
@@ -8796,10 +8796,10 @@
       <c r="H157" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="I157">
+      <c r="I157" s="4">
         <v>0.99063120285669903</v>
       </c>
-      <c r="J157">
+      <c r="J157" s="4">
         <v>0.81967326005299801</v>
       </c>
       <c r="K157" s="1"/>
@@ -8829,10 +8829,10 @@
       <c r="H158" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="I158">
+      <c r="I158" s="4">
         <v>0.68561989068984897</v>
       </c>
-      <c r="J158">
+      <c r="J158" s="4">
         <v>0.68388239542643203</v>
       </c>
       <c r="K158" s="1"/>
@@ -8862,10 +8862,10 @@
       <c r="H159" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="I159">
+      <c r="I159" s="4">
         <v>0.92246052622795105</v>
       </c>
-      <c r="J159">
+      <c r="J159" s="4">
         <v>0.82638618350028903</v>
       </c>
       <c r="K159" s="1"/>
@@ -8895,10 +8895,10 @@
       <c r="H160" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="I160">
+      <c r="I160" s="4">
         <v>0.21724188327789301</v>
       </c>
-      <c r="J160">
+      <c r="J160" s="4">
         <v>0.21724188327789301</v>
       </c>
       <c r="K160" s="1"/>
@@ -8928,10 +8928,10 @@
       <c r="H161" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="I161">
+      <c r="I161" s="4">
         <v>0.54606418311595895</v>
       </c>
-      <c r="J161">
+      <c r="J161" s="4">
         <v>0.821882784366607</v>
       </c>
       <c r="K161" s="1"/>
@@ -8949,10 +8949,10 @@
       <c r="F162" s="4">
         <v>0.22638063132762901</v>
       </c>
-      <c r="I162">
+      <c r="I162" s="4">
         <v>0.22638063132762901</v>
       </c>
-      <c r="J162">
+      <c r="J162" s="4">
         <v>0.22638063132762901</v>
       </c>
       <c r="K162" s="1"/>
@@ -8982,10 +8982,10 @@
       <c r="H163" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="I163">
+      <c r="I163" s="4">
         <v>0.84854403138160694</v>
       </c>
-      <c r="J163">
+      <c r="J163" s="4">
         <v>0.76370081305503801</v>
       </c>
       <c r="K163" s="1"/>
@@ -9015,10 +9015,10 @@
       <c r="H164" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="I164">
+      <c r="I164" s="4">
         <v>0.89224588871002197</v>
       </c>
-      <c r="J164">
+      <c r="J164" s="4">
         <v>0.90734491745630896</v>
       </c>
       <c r="K164" s="1"/>
@@ -9048,10 +9048,10 @@
       <c r="H165" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="I165">
+      <c r="I165" s="4">
         <v>0.37323839962482402</v>
       </c>
-      <c r="J165">
+      <c r="J165" s="4">
         <v>0.35858868807554201</v>
       </c>
       <c r="K165" s="1"/>
@@ -9081,10 +9081,10 @@
       <c r="H166" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="I166">
+      <c r="I166" s="4">
         <v>0.54148606956005096</v>
       </c>
-      <c r="J166">
+      <c r="J166" s="4">
         <v>0.52967828512191695</v>
       </c>
       <c r="K166" s="1"/>
@@ -9114,10 +9114,10 @@
       <c r="H167" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="I167">
+      <c r="I167" s="4">
         <v>1.00000011920928</v>
       </c>
-      <c r="J167">
+      <c r="J167" s="4">
         <v>1.00000011920928</v>
       </c>
       <c r="K167" s="1"/>
@@ -9147,10 +9147,10 @@
       <c r="H168" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="I168">
+      <c r="I168" s="4">
         <v>0.968331158161163</v>
       </c>
-      <c r="J168">
+      <c r="J168" s="4">
         <v>1.00000011920928</v>
       </c>
       <c r="K168" s="1"/>
@@ -9180,10 +9180,10 @@
       <c r="H169" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="I169">
+      <c r="I169" s="4">
         <v>1.00000011920928</v>
       </c>
-      <c r="J169">
+      <c r="J169" s="4">
         <v>0.82742744684219305</v>
       </c>
       <c r="K169" s="1"/>
@@ -9210,10 +9210,10 @@
       <c r="G170" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="I170">
+      <c r="I170" s="4">
         <v>1</v>
       </c>
-      <c r="J170">
+      <c r="J170" s="4">
         <v>0.15849614143371499</v>
       </c>
       <c r="K170" s="1"/>
@@ -9243,10 +9243,10 @@
       <c r="H171" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="I171">
+      <c r="I171" s="4">
         <v>0.89025974273681596</v>
       </c>
-      <c r="J171">
+      <c r="J171" s="4">
         <v>0.78879874944686801</v>
       </c>
       <c r="K171" s="1"/>
@@ -9276,10 +9276,10 @@
       <c r="H172" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="I172">
+      <c r="I172" s="4">
         <v>0.65325050055980605</v>
       </c>
-      <c r="J172">
+      <c r="J172" s="4">
         <v>0.732281774282455</v>
       </c>
       <c r="K172" s="1"/>
@@ -9309,10 +9309,10 @@
       <c r="H173" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="I173">
+      <c r="I173" s="4">
         <v>0.72151819864908795</v>
       </c>
-      <c r="J173">
+      <c r="J173" s="4">
         <v>0.83881005644798201</v>
       </c>
       <c r="K173" s="1"/>
@@ -9342,10 +9342,10 @@
       <c r="H174" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I174">
+      <c r="I174" s="4">
         <v>0.48693448305129999</v>
       </c>
-      <c r="J174">
+      <c r="J174" s="4">
         <v>0.48693448305129999</v>
       </c>
       <c r="K174" s="1"/>
@@ -9375,10 +9375,10 @@
       <c r="H175" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="I175">
+      <c r="I175" s="4">
         <v>0.80700710415840105</v>
       </c>
-      <c r="J175">
+      <c r="J175" s="4">
         <v>0.94921699166297901</v>
       </c>
       <c r="K175" s="1"/>
@@ -9408,10 +9408,10 @@
       <c r="H176" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="I176">
+      <c r="I176" s="4">
         <v>0.81574066877365103</v>
       </c>
-      <c r="J176">
+      <c r="J176" s="4">
         <v>0.86112469434738104</v>
       </c>
       <c r="K176" s="1"/>
@@ -9441,10 +9441,10 @@
       <c r="H177" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="I177">
+      <c r="I177" s="4">
         <v>0.83469861745834295</v>
       </c>
-      <c r="J177">
+      <c r="J177" s="4">
         <v>0.86524339516957605</v>
       </c>
       <c r="K177" s="1"/>
@@ -9474,10 +9474,10 @@
       <c r="H178" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I178">
+      <c r="I178" s="4">
         <v>0.84506872296333302</v>
       </c>
-      <c r="J178">
+      <c r="J178" s="4">
         <v>0.83757075667381198</v>
       </c>
       <c r="K178" s="1"/>
@@ -9507,10 +9507,10 @@
       <c r="H179" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="I179">
+      <c r="I179" s="4">
         <v>0.95287692546844405</v>
       </c>
-      <c r="J179">
+      <c r="J179" s="4">
         <v>0.66597452759742704</v>
       </c>
       <c r="K179" s="1"/>
@@ -9540,10 +9540,10 @@
       <c r="H180" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I180">
+      <c r="I180" s="4">
         <v>0.84659627079963595</v>
       </c>
-      <c r="J180">
+      <c r="J180" s="4">
         <v>1</v>
       </c>
       <c r="K180" s="1"/>
@@ -9573,10 +9573,10 @@
       <c r="H181" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="I181">
+      <c r="I181" s="4">
         <v>0.42984095215797402</v>
       </c>
-      <c r="J181">
+      <c r="J181" s="4">
         <v>0.74314790964126498</v>
       </c>
       <c r="K181" s="1"/>
@@ -9606,10 +9606,10 @@
       <c r="H182" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="I182">
+      <c r="I182" s="4">
         <v>0.76020756363868702</v>
       </c>
-      <c r="J182">
+      <c r="J182" s="4">
         <v>0.76020756363868702</v>
       </c>
       <c r="K182" s="1"/>
@@ -9639,10 +9639,10 @@
       <c r="H183" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="I183">
+      <c r="I183" s="4">
         <v>0.98436763882637002</v>
       </c>
-      <c r="J183">
+      <c r="J183" s="4">
         <v>0.98381638526916504</v>
       </c>
       <c r="K183" s="1"/>
@@ -9672,10 +9672,10 @@
       <c r="H184" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="I184">
+      <c r="I184" s="4">
         <v>0.77955016493797302</v>
       </c>
-      <c r="J184">
+      <c r="J184" s="4">
         <v>0.27403016388416201</v>
       </c>
       <c r="K184" s="1"/>
@@ -9705,10 +9705,10 @@
       <c r="H185" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="I185">
+      <c r="I185" s="4">
         <v>0.60584956407546997</v>
       </c>
-      <c r="J185">
+      <c r="J185" s="4">
         <v>0.50697100162506104</v>
       </c>
       <c r="K185" s="1"/>
@@ -9738,10 +9738,10 @@
       <c r="H186" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I186">
+      <c r="I186" s="4">
         <v>1</v>
       </c>
-      <c r="J186">
+      <c r="J186" s="4">
         <v>1</v>
       </c>
       <c r="K186" s="1"/>
@@ -9771,10 +9771,10 @@
       <c r="H187" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="I187">
+      <c r="I187" s="4">
         <v>0.81191072861353497</v>
       </c>
-      <c r="J187">
+      <c r="J187" s="4">
         <v>0.65561620394388798</v>
       </c>
       <c r="K187" s="1"/>
@@ -9804,10 +9804,10 @@
       <c r="H188" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="I188">
+      <c r="I188" s="4">
         <v>0.62485489249229398</v>
       </c>
-      <c r="J188">
+      <c r="J188" s="4">
         <v>0.77631458044052104</v>
       </c>
       <c r="K188" s="1"/>
@@ -9837,10 +9837,10 @@
       <c r="H189" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="I189">
+      <c r="I189" s="4">
         <v>0.73123207688331604</v>
       </c>
-      <c r="J189">
+      <c r="J189" s="4">
         <v>0.68117920557657796</v>
       </c>
       <c r="K189" s="1"/>
@@ -9870,10 +9870,10 @@
       <c r="H190" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="I190">
+      <c r="I190" s="4">
         <v>0.76865303516387895</v>
       </c>
-      <c r="J190">
+      <c r="J190" s="4">
         <v>0.82963083187738995</v>
       </c>
       <c r="K190" s="1"/>
@@ -9903,10 +9903,10 @@
       <c r="H191" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="I191">
+      <c r="I191" s="4">
         <v>0.67320561408996504</v>
       </c>
-      <c r="J191">
+      <c r="J191" s="4">
         <v>0.55533318966627099</v>
       </c>
       <c r="K191" s="1"/>
@@ -9936,10 +9936,10 @@
       <c r="H192" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="I192">
+      <c r="I192" s="4">
         <v>0.96040034294128396</v>
       </c>
-      <c r="J192">
+      <c r="J192" s="4">
         <v>0.93727654218673695</v>
       </c>
       <c r="K192" s="1"/>
@@ -9969,10 +9969,10 @@
       <c r="H193" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="I193">
+      <c r="I193" s="4">
         <v>0.70200463136037194</v>
       </c>
-      <c r="J193">
+      <c r="J193" s="4">
         <v>0.69969362020492498</v>
       </c>
       <c r="K193" s="1"/>
@@ -10002,10 +10002,10 @@
       <c r="H194" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="I194">
+      <c r="I194" s="4">
         <v>0.459173634648323</v>
       </c>
-      <c r="J194">
+      <c r="J194" s="4">
         <v>0.66044718027114802</v>
       </c>
       <c r="K194" s="1"/>
@@ -10035,10 +10035,10 @@
       <c r="H195" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="I195">
+      <c r="I195" s="4">
         <v>0.86885114510854</v>
       </c>
-      <c r="J195">
+      <c r="J195" s="4">
         <v>0.77700408299764001</v>
       </c>
       <c r="K195" s="1"/>
@@ -10068,10 +10068,10 @@
       <c r="H196" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="I196">
+      <c r="I196" s="4">
         <v>0.71428243319193496</v>
       </c>
-      <c r="J196">
+      <c r="J196" s="4">
         <v>0.64549316962559999</v>
       </c>
       <c r="K196" s="1"/>
@@ -10101,10 +10101,10 @@
       <c r="H197" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="I197">
+      <c r="I197" s="4">
         <v>0.81755942106246904</v>
       </c>
-      <c r="J197">
+      <c r="J197" s="4">
         <v>0.66743598381678204</v>
       </c>
       <c r="K197" s="1"/>
@@ -10134,10 +10134,10 @@
       <c r="H198" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="I198">
+      <c r="I198" s="4">
         <v>0.96863827109336798</v>
       </c>
-      <c r="J198">
+      <c r="J198" s="4">
         <v>0.96863827109336798</v>
       </c>
       <c r="K198" s="1"/>
@@ -10167,10 +10167,10 @@
       <c r="H199" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I199">
+      <c r="I199" s="4">
         <v>1</v>
       </c>
-      <c r="J199">
+      <c r="J199" s="4">
         <v>1</v>
       </c>
       <c r="K199" s="1"/>
@@ -10200,10 +10200,10 @@
       <c r="H200" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="I200">
+      <c r="I200" s="4">
         <v>0.19616658985614699</v>
       </c>
-      <c r="J200">
+      <c r="J200" s="4">
         <v>0.19616658985614699</v>
       </c>
       <c r="K200" s="1"/>
@@ -10233,10 +10233,10 @@
       <c r="H201" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="I201">
+      <c r="I201" s="4">
         <v>0.313568234443664</v>
       </c>
-      <c r="J201">
+      <c r="J201" s="4">
         <v>0.44867601990699701</v>
       </c>
       <c r="K201" s="1"/>
@@ -10266,10 +10266,10 @@
       <c r="H202" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="I202">
+      <c r="I202" s="4">
         <v>0.84535937756299895</v>
       </c>
-      <c r="J202">
+      <c r="J202" s="4">
         <v>0.79834912220637</v>
       </c>
       <c r="K202" s="1"/>
@@ -10299,10 +10299,10 @@
       <c r="H203" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="I203">
+      <c r="I203" s="4">
         <v>0.999999940395355</v>
       </c>
-      <c r="J203">
+      <c r="J203" s="4">
         <v>0.999999940395355</v>
       </c>
       <c r="K203" s="1"/>
@@ -10332,10 +10332,10 @@
       <c r="H204" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="I204">
+      <c r="I204" s="4">
         <v>0.95892767608165697</v>
       </c>
-      <c r="J204">
+      <c r="J204" s="4">
         <v>0.94523686170578003</v>
       </c>
       <c r="K204" s="1"/>
@@ -10365,10 +10365,10 @@
       <c r="H205" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I205">
+      <c r="I205" s="4">
         <v>0.63155215978622403</v>
       </c>
-      <c r="J205">
+      <c r="J205" s="4">
         <v>0.58313858509063698</v>
       </c>
       <c r="K205" s="1"/>
@@ -10398,10 +10398,10 @@
       <c r="H206" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="I206">
+      <c r="I206" s="4">
         <v>0.82931458950042702</v>
       </c>
-      <c r="J206">
+      <c r="J206" s="4">
         <v>0.89023675521214796</v>
       </c>
       <c r="K206" s="1"/>
@@ -10431,10 +10431,10 @@
       <c r="H207" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="I207">
+      <c r="I207" s="4">
         <v>0.863695949316024</v>
       </c>
-      <c r="J207">
+      <c r="J207" s="4">
         <v>0.94807181755701697</v>
       </c>
       <c r="K207" s="1"/>
@@ -10464,10 +10464,10 @@
       <c r="H208" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="I208">
+      <c r="I208" s="4">
         <v>0.89740037918090798</v>
       </c>
-      <c r="J208">
+      <c r="J208" s="4">
         <v>0.79534319043159396</v>
       </c>
       <c r="K208" s="1"/>
@@ -10497,10 +10497,10 @@
       <c r="H209" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="I209">
+      <c r="I209" s="4">
         <v>0.72499096393585205</v>
       </c>
-      <c r="J209">
+      <c r="J209" s="4">
         <v>0.72499096393585205</v>
       </c>
       <c r="K209" s="1"/>
@@ -10530,10 +10530,10 @@
       <c r="H210" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="I210">
+      <c r="I210" s="4">
         <v>0.83975586295127802</v>
       </c>
-      <c r="J210">
+      <c r="J210" s="4">
         <v>1.00000011920928</v>
       </c>
       <c r="K210" s="1"/>
@@ -10563,10 +10563,10 @@
       <c r="H211" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="I211">
+      <c r="I211" s="4">
         <v>0.83974320888519205</v>
       </c>
-      <c r="J211">
+      <c r="J211" s="4">
         <v>0.68599148839712099</v>
       </c>
       <c r="K211" s="1"/>
@@ -10596,10 +10596,10 @@
       <c r="H212" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="I212">
+      <c r="I212" s="4">
         <v>0.80798524618148804</v>
       </c>
-      <c r="J212">
+      <c r="J212" s="4">
         <v>0.77475973963737399</v>
       </c>
       <c r="K212" s="1"/>
@@ -10629,10 +10629,10 @@
       <c r="H213" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="I213">
+      <c r="I213" s="4">
         <v>0.69925747811794203</v>
       </c>
-      <c r="J213">
+      <c r="J213" s="4">
         <v>0.83881008625030495</v>
       </c>
       <c r="K213" s="1"/>
@@ -10662,10 +10662,10 @@
       <c r="H214" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="I214">
+      <c r="I214" s="4">
         <v>0.67951172590255704</v>
       </c>
-      <c r="J214">
+      <c r="J214" s="4">
         <v>0.74792122840881303</v>
       </c>
       <c r="K214" s="1"/>
@@ -10695,10 +10695,10 @@
       <c r="H215" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="I215">
+      <c r="I215" s="4">
         <v>0.93994542956352201</v>
       </c>
-      <c r="J215">
+      <c r="J215" s="4">
         <v>0.80255869030952398</v>
       </c>
       <c r="K215" s="1"/>
@@ -10728,10 +10728,10 @@
       <c r="H216" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I216">
+      <c r="I216" s="4">
         <v>0.97909222046534194</v>
       </c>
-      <c r="J216">
+      <c r="J216" s="4">
         <v>0.64770975708961398</v>
       </c>
       <c r="K216" s="1"/>
@@ -10761,10 +10761,10 @@
       <c r="H217" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="I217">
+      <c r="I217" s="4">
         <v>0.82175109783808298</v>
       </c>
-      <c r="J217">
+      <c r="J217" s="4">
         <v>0.96863827109336798</v>
       </c>
       <c r="K217" s="1"/>
@@ -10794,10 +10794,10 @@
       <c r="H218" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="I218">
+      <c r="I218" s="4">
         <v>0.70787286758422796</v>
       </c>
-      <c r="J218">
+      <c r="J218" s="4">
         <v>0.84569850564002902</v>
       </c>
       <c r="K218" s="1"/>
@@ -10827,10 +10827,10 @@
       <c r="H219" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="I219">
+      <c r="I219" s="4">
         <v>0.94921708106994596</v>
       </c>
-      <c r="J219">
+      <c r="J219" s="4">
         <v>1.0000000596046399</v>
       </c>
       <c r="K219" s="1"/>
@@ -10860,10 +10860,10 @@
       <c r="H220" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="I220">
+      <c r="I220" s="4">
         <v>0.52100457251071897</v>
       </c>
-      <c r="J220">
+      <c r="J220" s="4">
         <v>0.44375108182430201</v>
       </c>
       <c r="K220" s="1"/>
@@ -10893,10 +10893,10 @@
       <c r="H221" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="I221">
+      <c r="I221" s="4">
         <v>0.99778437614440896</v>
       </c>
-      <c r="J221">
+      <c r="J221" s="4">
         <v>0.99778437614440896</v>
       </c>
       <c r="K221" s="1"/>
@@ -10926,10 +10926,10 @@
       <c r="H222" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="I222">
+      <c r="I222" s="4">
         <v>0.73500726620356205</v>
       </c>
-      <c r="J222">
+      <c r="J222" s="4">
         <v>0.71404698491096497</v>
       </c>
       <c r="K222" s="1"/>
@@ -10956,10 +10956,10 @@
       <c r="H223" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="I223">
+      <c r="I223" s="4">
         <v>0.124797150492668</v>
       </c>
-      <c r="J223">
+      <c r="J223" s="4">
         <v>0.124797150492668</v>
       </c>
       <c r="K223" s="1"/>
@@ -10989,10 +10989,10 @@
       <c r="H224" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="I224">
+      <c r="I224" s="4">
         <v>0.67951172590255704</v>
       </c>
-      <c r="J224">
+      <c r="J224" s="4">
         <v>0.95052355527877797</v>
       </c>
       <c r="K224" s="1"/>
@@ -11022,10 +11022,10 @@
       <c r="H225" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="I225">
+      <c r="I225" s="4">
         <v>0.99778437614440896</v>
       </c>
-      <c r="J225">
+      <c r="J225" s="4">
         <v>0.99778437614440896</v>
       </c>
       <c r="K225" s="1"/>
@@ -11055,10 +11055,10 @@
       <c r="H226" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="I226">
+      <c r="I226" s="4">
         <v>0.89212373892466201</v>
       </c>
-      <c r="J226">
+      <c r="J226" s="4">
         <v>0.86185638606548298</v>
       </c>
       <c r="K226" s="1"/>
@@ -11088,10 +11088,10 @@
       <c r="H227" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="I227">
+      <c r="I227" s="4">
         <v>0.968331158161163</v>
       </c>
-      <c r="J227">
+      <c r="J227" s="4">
         <v>1.00000011920928</v>
       </c>
       <c r="K227" s="1"/>
@@ -11121,10 +11121,10 @@
       <c r="H228" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="I228">
+      <c r="I228" s="4">
         <v>1.0000000298023199</v>
       </c>
-      <c r="J228">
+      <c r="J228" s="4">
         <v>0.78340962529182401</v>
       </c>
       <c r="K228" s="1"/>
@@ -11154,10 +11154,10 @@
       <c r="H229" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="I229">
+      <c r="I229" s="4">
         <v>0.59773597121238697</v>
       </c>
-      <c r="J229">
+      <c r="J229" s="4">
         <v>0.71769918998082405</v>
       </c>
       <c r="K229" s="1"/>
@@ -11187,10 +11187,10 @@
       <c r="H230" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="I230">
+      <c r="I230" s="4">
         <v>0.824435055255889</v>
       </c>
-      <c r="J230">
+      <c r="J230" s="4">
         <v>0.49498690664768202</v>
       </c>
       <c r="K230" s="1"/>
@@ -11220,10 +11220,10 @@
       <c r="H231" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="I231">
+      <c r="I231" s="4">
         <v>0.92246064543724005</v>
       </c>
-      <c r="J231">
+      <c r="J231" s="4">
         <v>0.423325054347515</v>
       </c>
       <c r="K231" s="1"/>
@@ -11253,10 +11253,10 @@
       <c r="H232" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="I232">
+      <c r="I232" s="4">
         <v>0.83344759543736702</v>
       </c>
-      <c r="J232">
+      <c r="J232" s="4">
         <v>0.97909216086069695</v>
       </c>
       <c r="K232" s="1"/>
@@ -11286,10 +11286,10 @@
       <c r="H233" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I233">
+      <c r="I233" s="4">
         <v>0.67762017250061002</v>
       </c>
-      <c r="J233">
+      <c r="J233" s="4">
         <v>0.67762017250061002</v>
       </c>
       <c r="K233" s="1"/>
@@ -11319,10 +11319,10 @@
       <c r="H234" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="I234">
+      <c r="I234" s="4">
         <v>0.53621900081634499</v>
       </c>
-      <c r="J234">
+      <c r="J234" s="4">
         <v>0.53621900081634499</v>
       </c>
       <c r="K234" s="1"/>
@@ -11352,10 +11352,10 @@
       <c r="H235" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I235">
+      <c r="I235" s="4">
         <v>1</v>
       </c>
-      <c r="J235">
+      <c r="J235" s="4">
         <v>1</v>
       </c>
       <c r="K235" s="1"/>
@@ -11385,10 +11385,10 @@
       <c r="H236" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="I236">
+      <c r="I236" s="4">
         <v>0.85806031525134996</v>
       </c>
-      <c r="J236">
+      <c r="J236" s="4">
         <v>0.76608396321535099</v>
       </c>
       <c r="K236" s="1"/>
@@ -11415,10 +11415,10 @@
       <c r="H237" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="I237">
+      <c r="I237" s="4">
         <v>0.67951172590255704</v>
       </c>
-      <c r="J237">
+      <c r="J237" s="4">
         <v>1.00000023841857</v>
       </c>
       <c r="K237" s="1"/>
